--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -15869,7 +15869,7 @@
         <v>-27.69</v>
       </c>
       <c r="AM98" t="n">
-        <v>94.05</v>
+        <v>11.01</v>
       </c>
       <c r="AN98" t="n">
         <v>71.01</v>
@@ -15905,7 +15905,7 @@
         <v>-4.01</v>
       </c>
       <c r="AY98" t="n">
-        <v>22.31</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="99">
@@ -16068,154 +16068,154 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>6.98</v>
+        <v>7.25</v>
       </c>
       <c r="C100" t="n">
-        <v>31</v>
+        <v>87.23</v>
       </c>
       <c r="D100" t="n">
-        <v>39.91</v>
+        <v>39.83</v>
       </c>
       <c r="E100" t="n">
-        <v>-33.13</v>
+        <v>-30.54</v>
       </c>
       <c r="F100" t="n">
-        <v>634.25</v>
+        <v>874.84</v>
       </c>
       <c r="G100" t="n">
-        <v>128.97</v>
+        <v>140.2</v>
       </c>
       <c r="H100" t="n">
-        <v>-23.22</v>
+        <v>-16.58</v>
       </c>
       <c r="I100" t="n">
-        <v>4.83</v>
+        <v>14.18</v>
       </c>
       <c r="J100" t="n">
-        <v>-4.75</v>
+        <v>-1.68</v>
       </c>
       <c r="K100" t="n">
-        <v>-60.82</v>
+        <v>-61.03</v>
       </c>
       <c r="L100" t="n">
-        <v>-5.92</v>
+        <v>-6.55</v>
       </c>
       <c r="M100" t="n">
-        <v>-26.85</v>
+        <v>-26.12</v>
       </c>
       <c r="N100" t="n">
-        <v>-2.65</v>
+        <v>-1.68</v>
       </c>
       <c r="O100" t="n">
-        <v>15.22</v>
+        <v>24.12</v>
       </c>
       <c r="P100" t="n">
-        <v>-47.57</v>
+        <v>-48.06</v>
       </c>
       <c r="Q100" t="n">
-        <v>-18.47</v>
+        <v>-18.14</v>
       </c>
       <c r="R100" t="n">
-        <v>142.81</v>
+        <v>145.13</v>
       </c>
       <c r="S100" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="T100" t="n">
-        <v>-13.06</v>
+        <v>-13.24</v>
       </c>
       <c r="U100" t="n">
         <v>-18.81</v>
       </c>
       <c r="V100" t="n">
-        <v>-22.01</v>
+        <v>-9.16</v>
       </c>
       <c r="W100" t="n">
-        <v>6.54</v>
+        <v>29.63</v>
       </c>
       <c r="X100" t="n">
         <v>-44.15</v>
       </c>
       <c r="Y100" t="n">
-        <v>-35.04</v>
+        <v>-34.41</v>
       </c>
       <c r="Z100" t="n">
-        <v>-8</v>
+        <v>-3.14</v>
       </c>
       <c r="AA100" t="n">
-        <v>-41</v>
+        <v>-44.02</v>
       </c>
       <c r="AB100" t="n">
-        <v>16.07</v>
+        <v>20.11</v>
       </c>
       <c r="AC100" t="n">
-        <v>29.3</v>
+        <v>28.75</v>
       </c>
       <c r="AD100" t="n">
-        <v>116.1</v>
+        <v>150.88</v>
       </c>
       <c r="AE100" t="n">
-        <v>-10.31</v>
+        <v>-10.5</v>
       </c>
       <c r="AF100" t="n">
-        <v>-63.66</v>
+        <v>-65.09</v>
       </c>
       <c r="AG100" t="n">
-        <v>-20.4</v>
+        <v>-19.88</v>
       </c>
       <c r="AH100" t="n">
-        <v>-82.1</v>
+        <v>-83.53</v>
       </c>
       <c r="AI100" t="n">
-        <v>-38.2</v>
+        <v>-38.12</v>
       </c>
       <c r="AJ100" t="n">
         <v>54.66</v>
       </c>
       <c r="AK100" t="n">
-        <v>-0.49</v>
+        <v>-2.14</v>
       </c>
       <c r="AL100" t="n">
-        <v>-3.5</v>
+        <v>-2.24</v>
       </c>
       <c r="AM100" t="n">
         <v>-5.87</v>
       </c>
       <c r="AN100" t="n">
-        <v>17.31</v>
+        <v>16.44</v>
       </c>
       <c r="AO100" t="n">
-        <v>-3.53</v>
+        <v>-2.61</v>
       </c>
       <c r="AP100" t="n">
         <v>-53.06</v>
       </c>
       <c r="AQ100" t="n">
-        <v>-7.38</v>
+        <v>-10.26</v>
       </c>
       <c r="AR100" t="n">
         <v>2.05</v>
       </c>
       <c r="AS100" t="n">
-        <v>-8.9</v>
+        <v>-8.63</v>
       </c>
       <c r="AT100" t="n">
-        <v>5.29</v>
+        <v>7.57</v>
       </c>
       <c r="AU100" t="n">
-        <v>0.16</v>
+        <v>1.22</v>
       </c>
       <c r="AV100" t="n">
-        <v>-46.79</v>
+        <v>-49.11</v>
       </c>
       <c r="AW100" t="n">
-        <v>56.29</v>
+        <v>7.14</v>
       </c>
       <c r="AX100" t="n">
-        <v>-4.32</v>
+        <v>-5.48</v>
       </c>
       <c r="AY100" t="n">
-        <v>-0.45</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="101">
@@ -16843,16 +16843,16 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>-23.25</v>
+        <v>-22.11</v>
       </c>
       <c r="C105" t="n">
         <v>6.91</v>
       </c>
       <c r="D105" t="n">
-        <v>-21.49</v>
+        <v>-21.77</v>
       </c>
       <c r="E105" t="n">
-        <v>-4.24</v>
+        <v>-3.45</v>
       </c>
       <c r="F105" t="n">
         <v>-58.04</v>
@@ -16867,34 +16867,34 @@
         <v>0.96</v>
       </c>
       <c r="J105" t="n">
-        <v>12.72</v>
+        <v>16.27</v>
       </c>
       <c r="K105" t="n">
-        <v>-54.62</v>
+        <v>-54.93</v>
       </c>
       <c r="L105" t="n">
-        <v>24.14</v>
+        <v>24.15</v>
       </c>
       <c r="M105" t="n">
-        <v>-11.42</v>
+        <v>-15.76</v>
       </c>
       <c r="N105" t="n">
-        <v>13.43</v>
+        <v>17.24</v>
       </c>
       <c r="O105" t="n">
-        <v>60.57</v>
+        <v>59.62</v>
       </c>
       <c r="P105" t="n">
-        <v>-38.62</v>
+        <v>-38.86</v>
       </c>
       <c r="Q105" t="n">
-        <v>-12.78</v>
+        <v>-10.13</v>
       </c>
       <c r="R105" t="n">
-        <v>16.55</v>
+        <v>16.63</v>
       </c>
       <c r="S105" t="n">
-        <v>220.55</v>
+        <v>217.84</v>
       </c>
       <c r="T105" t="n">
         <v>48.72</v>
@@ -16903,7 +16903,7 @@
         <v>-18.17</v>
       </c>
       <c r="V105" t="n">
-        <v>5.09</v>
+        <v>4.13</v>
       </c>
       <c r="W105" t="n">
         <v>-46.98</v>
@@ -16912,16 +16912,16 @@
         <v>9.15</v>
       </c>
       <c r="Y105" t="n">
-        <v>17.77</v>
+        <v>11.14</v>
       </c>
       <c r="Z105" t="n">
-        <v>-2.5</v>
+        <v>-1.84</v>
       </c>
       <c r="AA105" t="n">
-        <v>17.73</v>
+        <v>17.17</v>
       </c>
       <c r="AB105" t="n">
-        <v>-15.58</v>
+        <v>-14.58</v>
       </c>
       <c r="AC105" t="n">
         <v>1.62</v>
@@ -16930,19 +16930,19 @@
         <v>79.24</v>
       </c>
       <c r="AE105" t="n">
-        <v>4.42</v>
+        <v>4.05</v>
       </c>
       <c r="AF105" t="n">
         <v>-27.67</v>
       </c>
       <c r="AG105" t="n">
-        <v>-30.14</v>
+        <v>-29.95</v>
       </c>
       <c r="AH105" t="n">
-        <v>-32.56</v>
+        <v>-29.38</v>
       </c>
       <c r="AI105" t="n">
-        <v>4.99</v>
+        <v>4.33</v>
       </c>
       <c r="AJ105" t="n">
         <v>106.79</v>
@@ -16951,16 +16951,16 @@
         <v>-14.83</v>
       </c>
       <c r="AL105" t="n">
-        <v>8.53</v>
+        <v>16.5</v>
       </c>
       <c r="AM105" t="n">
         <v>-3.32</v>
       </c>
       <c r="AN105" t="n">
-        <v>57.63</v>
+        <v>61.28</v>
       </c>
       <c r="AO105" t="n">
-        <v>13.57</v>
+        <v>6.93</v>
       </c>
       <c r="AP105" t="n">
         <v>98.86</v>
@@ -16978,19 +16978,174 @@
         <v>-5.74</v>
       </c>
       <c r="AU105" t="n">
-        <v>-1.32</v>
+        <v>-2.41</v>
       </c>
       <c r="AV105" t="n">
         <v>156.28</v>
       </c>
       <c r="AW105" t="n">
-        <v>12.02</v>
+        <v>-9.98</v>
       </c>
       <c r="AX105" t="n">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.49</v>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B106" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="C106" t="n">
+        <v>81.67</v>
+      </c>
+      <c r="D106" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="E106" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-8.96</v>
+      </c>
+      <c r="G106" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-7.11</v>
+      </c>
+      <c r="J106" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-63.97</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-35.64</v>
+      </c>
+      <c r="O106" t="n">
+        <v>513.42</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-17.14</v>
+      </c>
+      <c r="R106" t="n">
+        <v>-34.78</v>
+      </c>
+      <c r="S106" t="n">
+        <v>330.52</v>
+      </c>
+      <c r="T106" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="U106" t="n">
+        <v>-26.77</v>
+      </c>
+      <c r="V106" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-11.75</v>
+      </c>
+      <c r="X106" t="n">
+        <v>44.84</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>-35.66</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>-23.26</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>26.11</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>-6.79</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>-32.46</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>23.74</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>118.45</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>-55.67</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>43.64</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>-9.58</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>-24.83</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>86.01</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>64.19</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>80.86</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>25.15</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>40.35</v>
       </c>
     </row>
   </sheetData>
@@ -32158,7 +32313,7 @@
         <v>-0.17</v>
       </c>
       <c r="AM98" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
       <c r="AN98" t="n">
         <v>0.04</v>
@@ -32194,7 +32349,7 @@
         <v>-0.14</v>
       </c>
       <c r="AY98" t="n">
-        <v>22.31</v>
+        <v>22.01</v>
       </c>
     </row>
     <row r="99">
@@ -32360,25 +32515,25 @@
         <v>0.02</v>
       </c>
       <c r="C100" t="n">
-        <v>0.13</v>
+        <v>0.36</v>
       </c>
       <c r="D100" t="n">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="F100" t="n">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="G100" t="n">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
       <c r="H100" t="n">
-        <v>-0.67</v>
+        <v>-0.48</v>
       </c>
       <c r="I100" t="n">
-        <v>0.24</v>
+        <v>0.7</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
@@ -32387,7 +32542,7 @@
         <v>-0.4</v>
       </c>
       <c r="L100" t="n">
-        <v>-0.63</v>
+        <v>-0.7</v>
       </c>
       <c r="M100" t="n">
         <v>-0.1</v>
@@ -32396,13 +32551,13 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="P100" t="n">
         <v>-0.07</v>
       </c>
       <c r="Q100" t="n">
-        <v>-0.57</v>
+        <v>-0.56</v>
       </c>
       <c r="R100" t="n">
         <v>0.23</v>
@@ -32417,10 +32572,10 @@
         <v>-0.04</v>
       </c>
       <c r="V100" t="n">
-        <v>-0.87</v>
+        <v>-0.36</v>
       </c>
       <c r="W100" t="n">
-        <v>0.13</v>
+        <v>0.59</v>
       </c>
       <c r="X100" t="n">
         <v>-0.26</v>
@@ -32438,13 +32593,13 @@
         <v>0</v>
       </c>
       <c r="AC100" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="AD100" t="n">
-        <v>0.78</v>
+        <v>1.02</v>
       </c>
       <c r="AE100" t="n">
-        <v>-0.71</v>
+        <v>-0.73</v>
       </c>
       <c r="AF100" t="n">
         <v>-0.16</v>
@@ -32453,7 +32608,7 @@
         <v>-0.16</v>
       </c>
       <c r="AH100" t="n">
-        <v>-1.28</v>
+        <v>-1.3</v>
       </c>
       <c r="AI100" t="n">
         <v>-0.1</v>
@@ -32462,10 +32617,10 @@
         <v>0.1</v>
       </c>
       <c r="AK100" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="AL100" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="AM100" t="n">
         <v>-0.03</v>
@@ -32480,31 +32635,31 @@
         <v>-0.14</v>
       </c>
       <c r="AQ100" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="AR100" t="n">
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>-2.67</v>
+        <v>-2.58</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.48</v>
+        <v>0.68</v>
       </c>
       <c r="AU100" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AV100" t="n">
         <v>-0.11</v>
       </c>
       <c r="AW100" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AX100" t="n">
-        <v>-0.12</v>
+        <v>-0.16</v>
       </c>
       <c r="AY100" t="n">
-        <v>-0.45</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="101">
@@ -33138,7 +33293,7 @@
         <v>0.03</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.49</v>
+        <v>-2.52</v>
       </c>
       <c r="E105" t="n">
         <v>-0.01</v>
@@ -33165,19 +33320,19 @@
         <v>1.84</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="P105" t="n">
         <v>-0.06</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.46</v>
+        <v>-0.37</v>
       </c>
       <c r="R105" t="n">
         <v>0.03</v>
@@ -33192,7 +33347,7 @@
         <v>-0.04</v>
       </c>
       <c r="V105" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="W105" t="n">
         <v>-1.12</v>
@@ -33201,7 +33356,7 @@
         <v>0.03</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="Z105" t="n">
         <v>0</v>
@@ -33219,7 +33374,7 @@
         <v>0.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.05</v>
@@ -33240,7 +33395,7 @@
         <v>-0.06</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="AM105" t="n">
         <v>-0.01</v>
@@ -33249,7 +33404,7 @@
         <v>0.02</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AP105" t="n">
         <v>0.12</v>
@@ -33267,19 +33422,174 @@
         <v>-0.46</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
       <c r="AV105" t="n">
         <v>0.2</v>
       </c>
       <c r="AW105" t="n">
-        <v>0.03</v>
+        <v>-0.03</v>
       </c>
       <c r="AX105" t="n">
         <v>0.08</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.49</v>
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="M106" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O106" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="P106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="R106" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U106" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>40.35</v>
       </c>
     </row>
   </sheetData>
@@ -53676,7 +53986,7 @@
         <v>54.24</v>
       </c>
       <c r="AU110" t="n">
-        <v>118.47</v>
+        <v>60.85</v>
       </c>
       <c r="AV110" t="n">
         <v>-12.88</v>
@@ -53941,199 +54251,199 @@
         <v>45352</v>
       </c>
       <c r="B112" t="n">
-        <v>53.32</v>
+        <v>54.1</v>
       </c>
       <c r="C112" t="n">
-        <v>-4.75</v>
+        <v>-4.98</v>
       </c>
       <c r="D112" t="n">
-        <v>-25.1</v>
+        <v>-24.77</v>
       </c>
       <c r="E112" t="n">
-        <v>-5.71</v>
+        <v>-6.63</v>
       </c>
       <c r="F112" t="n">
-        <v>-7.74</v>
+        <v>-7.15</v>
       </c>
       <c r="G112" t="n">
-        <v>11.58</v>
+        <v>12.9</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.24</v>
+        <v>-3.23</v>
       </c>
       <c r="I112" t="n">
-        <v>-17.36</v>
+        <v>-20.45</v>
       </c>
       <c r="J112" t="n">
-        <v>-7.82</v>
+        <v>-7.49</v>
       </c>
       <c r="K112" t="n">
-        <v>-8.74</v>
+        <v>-9.19</v>
       </c>
       <c r="L112" t="n">
-        <v>19.8</v>
+        <v>19.38</v>
       </c>
       <c r="M112" t="n">
         <v>-48.46</v>
       </c>
       <c r="N112" t="n">
-        <v>2.44</v>
+        <v>2.31</v>
       </c>
       <c r="O112" t="n">
-        <v>-43.37</v>
+        <v>-46.12</v>
       </c>
       <c r="P112" t="n">
-        <v>-37.03</v>
+        <v>-36.99</v>
       </c>
       <c r="Q112" t="n">
-        <v>-22.37</v>
+        <v>-19.18</v>
       </c>
       <c r="R112" t="n">
-        <v>6.15</v>
+        <v>5.96</v>
       </c>
       <c r="S112" t="n">
-        <v>-30.57</v>
+        <v>-30.67</v>
       </c>
       <c r="T112" t="n">
-        <v>-4.59</v>
+        <v>-4.31</v>
       </c>
       <c r="U112" t="n">
-        <v>-1.3</v>
+        <v>-3.7</v>
       </c>
       <c r="V112" t="n">
-        <v>-0.91</v>
+        <v>-4.56</v>
       </c>
       <c r="W112" t="n">
-        <v>-37.02</v>
+        <v>-37.95</v>
       </c>
       <c r="X112" t="n">
-        <v>28.99</v>
+        <v>28.91</v>
       </c>
       <c r="Y112" t="n">
-        <v>81.47</v>
+        <v>81.3</v>
       </c>
       <c r="Z112" t="n">
         <v>-70.2</v>
       </c>
       <c r="AA112" t="n">
-        <v>-16.24</v>
+        <v>-18.63</v>
       </c>
       <c r="AB112" t="n">
-        <v>2.13</v>
+        <v>-4.44</v>
       </c>
       <c r="AC112" t="n">
-        <v>-63.02</v>
+        <v>-62.62</v>
       </c>
       <c r="AD112" t="n">
-        <v>-3.35</v>
+        <v>-0.39</v>
       </c>
       <c r="AE112" t="n">
-        <v>140.91</v>
+        <v>140.1</v>
       </c>
       <c r="AF112" t="n">
-        <v>-4.85</v>
+        <v>-7.47</v>
       </c>
       <c r="AG112" t="n">
-        <v>-3.6</v>
+        <v>-4.77</v>
       </c>
       <c r="AH112" t="n">
-        <v>13.06</v>
+        <v>12.85</v>
       </c>
       <c r="AI112" t="n">
-        <v>69.28</v>
+        <v>78.14</v>
       </c>
       <c r="AJ112" t="n">
-        <v>-16.99</v>
+        <v>-16.31</v>
       </c>
       <c r="AK112" t="n">
-        <v>-20.35</v>
+        <v>-22.09</v>
       </c>
       <c r="AL112" t="n">
-        <v>-21.8</v>
+        <v>-22.23</v>
       </c>
       <c r="AM112" t="n">
-        <v>-1.41</v>
+        <v>64.2</v>
       </c>
       <c r="AN112" t="n">
-        <v>2.29</v>
+        <v>-1.6</v>
       </c>
       <c r="AO112" t="n">
-        <v>-21.78</v>
+        <v>-21.84</v>
       </c>
       <c r="AP112" t="n">
-        <v>2.19</v>
+        <v>-0.4</v>
       </c>
       <c r="AQ112" t="n">
-        <v>-10.93</v>
+        <v>-14.92</v>
       </c>
       <c r="AR112" t="n">
-        <v>-2.29</v>
+        <v>-3.42</v>
       </c>
       <c r="AS112" t="n">
-        <v>11.82</v>
+        <v>3.21</v>
       </c>
       <c r="AT112" t="n">
-        <v>13.12</v>
+        <v>0.56</v>
       </c>
       <c r="AU112" t="n">
-        <v>-5.46</v>
+        <v>-7.53</v>
       </c>
       <c r="AV112" t="n">
-        <v>-34.51</v>
+        <v>-36.14</v>
       </c>
       <c r="AW112" t="n">
-        <v>-19.86</v>
+        <v>-20.26</v>
       </c>
       <c r="AX112" t="n">
-        <v>-32.94</v>
+        <v>-36.82</v>
       </c>
       <c r="AY112" t="n">
-        <v>-13.12</v>
+        <v>-16.54</v>
       </c>
       <c r="AZ112" t="n">
-        <v>-5.86</v>
+        <v>-3.55</v>
       </c>
       <c r="BA112" t="n">
-        <v>14.11</v>
+        <v>11.55</v>
       </c>
       <c r="BB112" t="n">
-        <v>5.81</v>
+        <v>6.65</v>
       </c>
       <c r="BC112" t="n">
-        <v>24.33</v>
+        <v>19.16</v>
       </c>
       <c r="BD112" t="n">
-        <v>80.09</v>
+        <v>204.13</v>
       </c>
       <c r="BE112" t="n">
-        <v>-25.32</v>
+        <v>-26.91</v>
       </c>
       <c r="BF112" t="n">
-        <v>-16.63</v>
+        <v>-18.21</v>
       </c>
       <c r="BG112" t="n">
-        <v>20.7</v>
+        <v>15.88</v>
       </c>
       <c r="BH112" t="n">
-        <v>-20.92</v>
+        <v>-14.63</v>
       </c>
       <c r="BI112" t="n">
-        <v>21.55</v>
+        <v>33.55</v>
       </c>
       <c r="BJ112" t="n">
-        <v>-2.93</v>
+        <v>-3.02</v>
       </c>
       <c r="BK112" t="n">
-        <v>2.44</v>
+        <v>2.49</v>
       </c>
       <c r="BL112" t="n">
-        <v>0.63</v>
+        <v>0.41</v>
       </c>
       <c r="BM112" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="BN112" t="n">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="113">
@@ -54941,37 +55251,37 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>19.72</v>
+        <v>19.64</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.9</v>
+        <v>-1.46</v>
       </c>
       <c r="D117" t="n">
-        <v>-3.11</v>
+        <v>1.93</v>
       </c>
       <c r="E117" t="n">
-        <v>11.24</v>
+        <v>7.64</v>
       </c>
       <c r="F117" t="n">
-        <v>3.03</v>
+        <v>2.12</v>
       </c>
       <c r="G117" t="n">
-        <v>27.8</v>
+        <v>30.79</v>
       </c>
       <c r="H117" t="n">
-        <v>37.36</v>
+        <v>38.11</v>
       </c>
       <c r="I117" t="n">
-        <v>-9.21</v>
+        <v>-8.61</v>
       </c>
       <c r="J117" t="n">
-        <v>-5.72</v>
+        <v>-6.61</v>
       </c>
       <c r="K117" t="n">
-        <v>21.5</v>
+        <v>21.48</v>
       </c>
       <c r="L117" t="n">
-        <v>30.46</v>
+        <v>30.39</v>
       </c>
       <c r="M117" t="n">
         <v>647.38</v>
@@ -54980,160 +55290,360 @@
         <v>-29.27</v>
       </c>
       <c r="O117" t="n">
-        <v>-78.93</v>
+        <v>-79.1</v>
       </c>
       <c r="P117" t="n">
-        <v>2.19</v>
+        <v>2.05</v>
       </c>
       <c r="Q117" t="n">
-        <v>11.28</v>
+        <v>11.05</v>
       </c>
       <c r="R117" t="n">
         <v>47.26</v>
       </c>
       <c r="S117" t="n">
-        <v>-15.04</v>
+        <v>-14.56</v>
       </c>
       <c r="T117" t="n">
-        <v>43.73</v>
+        <v>40.74</v>
       </c>
       <c r="U117" t="n">
-        <v>6.57</v>
+        <v>40.54</v>
       </c>
       <c r="V117" t="n">
-        <v>5.64</v>
+        <v>5.1</v>
       </c>
       <c r="W117" t="n">
-        <v>-12.26</v>
+        <v>-16.75</v>
       </c>
       <c r="X117" t="n">
-        <v>-7.07</v>
+        <v>-8.16</v>
       </c>
       <c r="Y117" t="n">
-        <v>26.55</v>
+        <v>25.04</v>
       </c>
       <c r="Z117" t="n">
         <v>-65.86</v>
       </c>
       <c r="AA117" t="n">
-        <v>13.47</v>
+        <v>15.09</v>
       </c>
       <c r="AB117" t="n">
-        <v>21.59</v>
+        <v>26.9</v>
       </c>
       <c r="AC117" t="n">
-        <v>-91.39</v>
+        <v>-91.5</v>
       </c>
       <c r="AD117" t="n">
         <v>-9.54</v>
       </c>
       <c r="AE117" t="n">
-        <v>-89.18</v>
+        <v>-88.57</v>
       </c>
       <c r="AF117" t="n">
-        <v>14.45</v>
+        <v>13.94</v>
       </c>
       <c r="AG117" t="n">
-        <v>19.93</v>
+        <v>19.49</v>
       </c>
       <c r="AH117" t="n">
-        <v>22.83</v>
+        <v>22.78</v>
       </c>
       <c r="AI117" t="n">
-        <v>87.29</v>
+        <v>87.85</v>
       </c>
       <c r="AJ117" t="n">
-        <v>10.3</v>
+        <v>7.93</v>
       </c>
       <c r="AK117" t="n">
-        <v>-19.48</v>
+        <v>-19.28</v>
       </c>
       <c r="AL117" t="n">
         <v>-5.31</v>
       </c>
       <c r="AM117" t="n">
-        <v>7.21</v>
+        <v>7.77</v>
       </c>
       <c r="AN117" t="n">
-        <v>-9.05</v>
+        <v>-9.77</v>
       </c>
       <c r="AO117" t="n">
-        <v>-15.3</v>
+        <v>-17.13</v>
       </c>
       <c r="AP117" t="n">
-        <v>-6.87</v>
+        <v>-9.33</v>
       </c>
       <c r="AQ117" t="n">
-        <v>25.32</v>
+        <v>24.87</v>
       </c>
       <c r="AR117" t="n">
-        <v>-2.14</v>
+        <v>-1.77</v>
       </c>
       <c r="AS117" t="n">
-        <v>24.29</v>
+        <v>23.51</v>
       </c>
       <c r="AT117" t="n">
-        <v>-18.72</v>
+        <v>-20.58</v>
       </c>
       <c r="AU117" t="n">
-        <v>1.53</v>
+        <v>2.36</v>
       </c>
       <c r="AV117" t="n">
-        <v>-23.95</v>
+        <v>-26.63</v>
       </c>
       <c r="AW117" t="n">
-        <v>45.88</v>
+        <v>45.95</v>
       </c>
       <c r="AX117" t="n">
-        <v>-23.6</v>
+        <v>-27.22</v>
       </c>
       <c r="AY117" t="n">
-        <v>28.83</v>
+        <v>28.56</v>
       </c>
       <c r="AZ117" t="n">
-        <v>11.25</v>
+        <v>10.67</v>
       </c>
       <c r="BA117" t="n">
-        <v>0.57</v>
+        <v>-1.03</v>
       </c>
       <c r="BB117" t="n">
-        <v>64.49</v>
+        <v>63.94</v>
       </c>
       <c r="BC117" t="n">
-        <v>1.35</v>
+        <v>0.58</v>
       </c>
       <c r="BD117" t="n">
-        <v>-64.36</v>
+        <v>-64.33</v>
       </c>
       <c r="BE117" t="n">
-        <v>18.34</v>
+        <v>15.87</v>
       </c>
       <c r="BF117" t="n">
-        <v>1.48</v>
+        <v>2.32</v>
       </c>
       <c r="BG117" t="n">
-        <v>-7.93</v>
+        <v>-8.18</v>
       </c>
       <c r="BH117" t="n">
-        <v>-8.66</v>
+        <v>-8.76</v>
       </c>
       <c r="BI117" t="n">
-        <v>37.09</v>
+        <v>38.15</v>
       </c>
       <c r="BJ117" t="n">
-        <v>19.16</v>
+        <v>18.96</v>
       </c>
       <c r="BK117" t="n">
         <v>-7.78</v>
       </c>
       <c r="BL117" t="n">
-        <v>-4.16</v>
+        <v>-4.41</v>
       </c>
       <c r="BM117" t="n">
-        <v>-73.64</v>
+        <v>-73.99</v>
       </c>
       <c r="BN117" t="n">
-        <v>-73.64</v>
+        <v>-73.99</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-35.85</v>
+      </c>
+      <c r="C118" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="D118" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="F118" t="n">
+        <v>15.77</v>
+      </c>
+      <c r="G118" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="H118" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="I118" t="n">
+        <v>27.47</v>
+      </c>
+      <c r="J118" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="K118" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="L118" t="n">
+        <v>30.04</v>
+      </c>
+      <c r="M118" t="n">
+        <v>300.21</v>
+      </c>
+      <c r="N118" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-91.93</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="R118" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="S118" t="n">
+        <v>-26.88</v>
+      </c>
+      <c r="T118" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="U118" t="n">
+        <v>81.76</v>
+      </c>
+      <c r="V118" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W118" t="n">
+        <v>-9.2</v>
+      </c>
+      <c r="X118" t="n">
+        <v>56.22</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>-9.72</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>-44.65</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>12.13</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>-91.18</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>39.67</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>-82.04</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>-15.47</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>77.36</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>17.17</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>98.07</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>-13.22</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>35.01</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>-7.11</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>-6.41</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>20.32</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>-38.77</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>-25.51</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>20.02</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>-5.04</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>-5.73</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>-9.58</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>-30.49</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>6.64</v>
       </c>
     </row>
   </sheetData>
@@ -57401,7 +57911,7 @@
         <v>-0.45</v>
       </c>
       <c r="G98" t="n">
-        <v>4.15</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="99">
@@ -57432,22 +57942,22 @@
         <v>45352</v>
       </c>
       <c r="B100" t="n">
-        <v>-0.45</v>
+        <v>-0.46</v>
       </c>
       <c r="C100" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="D100" t="n">
-        <v>-1.21</v>
+        <v>-1.17</v>
       </c>
       <c r="E100" t="n">
-        <v>-0.64</v>
+        <v>-0.69</v>
       </c>
       <c r="F100" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="G100" t="n">
-        <v>1.53</v>
+        <v>4.28</v>
       </c>
     </row>
     <row r="101">
@@ -57547,22 +58057,45 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>0.56</v>
+        <v>0.65</v>
       </c>
       <c r="C105" t="n">
-        <v>2.49</v>
+        <v>2.47</v>
       </c>
       <c r="D105" t="n">
-        <v>7.16</v>
+        <v>6.97</v>
       </c>
       <c r="E105" t="n">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="G105" t="n">
-        <v>-3.05</v>
+        <v>-2.94</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D106" t="n">
+        <v>35.91</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -16223,154 +16223,154 @@
         <v>45383</v>
       </c>
       <c r="B101" t="n">
-        <v>-32.92</v>
+        <v>-33.35</v>
       </c>
       <c r="C101" t="n">
         <v>18.81</v>
       </c>
       <c r="D101" t="n">
-        <v>-11.09</v>
+        <v>-18.67</v>
       </c>
       <c r="E101" t="n">
-        <v>37.18</v>
+        <v>37.53</v>
       </c>
       <c r="F101" t="n">
-        <v>350.89</v>
+        <v>349.54</v>
       </c>
       <c r="G101" t="n">
         <v>-51.56</v>
       </c>
       <c r="H101" t="n">
-        <v>74.21</v>
+        <v>73.49</v>
       </c>
       <c r="I101" t="n">
-        <v>28.63</v>
+        <v>32.79</v>
       </c>
       <c r="J101" t="n">
-        <v>-5.83</v>
+        <v>-1.8</v>
       </c>
       <c r="K101" t="n">
-        <v>-71.77</v>
+        <v>-71.78</v>
       </c>
       <c r="L101" t="n">
-        <v>78.01</v>
+        <v>76.93</v>
       </c>
       <c r="M101" t="n">
-        <v>-8.63</v>
+        <v>-8.4</v>
       </c>
       <c r="N101" t="n">
-        <v>18.27</v>
+        <v>15.87</v>
       </c>
       <c r="O101" t="n">
-        <v>25.81</v>
+        <v>30.5</v>
       </c>
       <c r="P101" t="n">
-        <v>-33.09</v>
+        <v>-33.65</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.35</v>
+        <v>2.42</v>
       </c>
       <c r="R101" t="n">
-        <v>-27.46</v>
+        <v>-26.79</v>
       </c>
       <c r="S101" t="n">
-        <v>18.27</v>
+        <v>19.75</v>
       </c>
       <c r="T101" t="n">
-        <v>-17.85</v>
+        <v>-18.26</v>
       </c>
       <c r="U101" t="n">
         <v>-8.3</v>
       </c>
       <c r="V101" t="n">
-        <v>33.96</v>
+        <v>27.1</v>
       </c>
       <c r="W101" t="n">
-        <v>-19.02</v>
+        <v>-11.11</v>
       </c>
       <c r="X101" t="n">
         <v>43.69</v>
       </c>
       <c r="Y101" t="n">
-        <v>-19.65</v>
+        <v>-17.39</v>
       </c>
       <c r="Z101" t="n">
-        <v>22.21</v>
+        <v>22.35</v>
       </c>
       <c r="AA101" t="n">
-        <v>-47.48</v>
+        <v>-53.39</v>
       </c>
       <c r="AB101" t="n">
-        <v>-18.1</v>
+        <v>-14.09</v>
       </c>
       <c r="AC101" t="n">
-        <v>93.33</v>
+        <v>93</v>
       </c>
       <c r="AD101" t="n">
         <v>45.02</v>
       </c>
       <c r="AE101" t="n">
-        <v>28.44</v>
+        <v>28.58</v>
       </c>
       <c r="AF101" t="n">
-        <v>-0.01</v>
+        <v>-0.28</v>
       </c>
       <c r="AG101" t="n">
-        <v>37.75</v>
+        <v>39.47</v>
       </c>
       <c r="AH101" t="n">
-        <v>17.97</v>
+        <v>17.29</v>
       </c>
       <c r="AI101" t="n">
-        <v>-8.22</v>
+        <v>-7.37</v>
       </c>
       <c r="AJ101" t="n">
         <v>78.16</v>
       </c>
       <c r="AK101" t="n">
-        <v>11.86</v>
+        <v>10.28</v>
       </c>
       <c r="AL101" t="n">
-        <v>128.33</v>
+        <v>131.86</v>
       </c>
       <c r="AM101" t="n">
         <v>45.98</v>
       </c>
       <c r="AN101" t="n">
-        <v>22.93</v>
+        <v>23.83</v>
       </c>
       <c r="AO101" t="n">
-        <v>-1.15</v>
+        <v>-2.4</v>
       </c>
       <c r="AP101" t="n">
-        <v>42.57</v>
+        <v>41.9</v>
       </c>
       <c r="AQ101" t="n">
-        <v>22.42</v>
+        <v>19.81</v>
       </c>
       <c r="AR101" t="n">
         <v>-14.01</v>
       </c>
       <c r="AS101" t="n">
-        <v>58.88</v>
+        <v>57.74</v>
       </c>
       <c r="AT101" t="n">
-        <v>10.6</v>
+        <v>10.08</v>
       </c>
       <c r="AU101" t="n">
-        <v>9.67</v>
+        <v>13.55</v>
       </c>
       <c r="AV101" t="n">
-        <v>-27.24</v>
+        <v>-29.33</v>
       </c>
       <c r="AW101" t="n">
-        <v>29.88</v>
+        <v>46.7</v>
       </c>
       <c r="AX101" t="n">
-        <v>26.31</v>
+        <v>24.77</v>
       </c>
       <c r="AY101" t="n">
-        <v>29.06</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="102">
@@ -16998,16 +16998,16 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>33.69</v>
+        <v>33.51</v>
       </c>
       <c r="C106" t="n">
         <v>81.67</v>
       </c>
       <c r="D106" t="n">
-        <v>41.98</v>
+        <v>43.36</v>
       </c>
       <c r="E106" t="n">
-        <v>10.12</v>
+        <v>2.09</v>
       </c>
       <c r="F106" t="n">
         <v>-8.96</v>
@@ -17022,43 +17022,43 @@
         <v>-7.11</v>
       </c>
       <c r="J106" t="n">
-        <v>-5.04</v>
+        <v>-4.95</v>
       </c>
       <c r="K106" t="n">
-        <v>-63.97</v>
+        <v>-63.56</v>
       </c>
       <c r="L106" t="n">
-        <v>4.15</v>
+        <v>8.47</v>
       </c>
       <c r="M106" t="n">
-        <v>-13.4</v>
+        <v>-12.88</v>
       </c>
       <c r="N106" t="n">
-        <v>-35.64</v>
+        <v>-33.12</v>
       </c>
       <c r="O106" t="n">
-        <v>513.42</v>
+        <v>526.33</v>
       </c>
       <c r="P106" t="n">
-        <v>-8.1</v>
+        <v>-5.9</v>
       </c>
       <c r="Q106" t="n">
-        <v>-17.14</v>
+        <v>-8.59</v>
       </c>
       <c r="R106" t="n">
-        <v>-34.78</v>
+        <v>-35.76</v>
       </c>
       <c r="S106" t="n">
-        <v>330.52</v>
+        <v>53.91</v>
       </c>
       <c r="T106" t="n">
-        <v>9.94</v>
+        <v>11.97</v>
       </c>
       <c r="U106" t="n">
         <v>-26.77</v>
       </c>
       <c r="V106" t="n">
-        <v>69.89</v>
+        <v>69.11</v>
       </c>
       <c r="W106" t="n">
         <v>-11.75</v>
@@ -17067,16 +17067,16 @@
         <v>44.84</v>
       </c>
       <c r="Y106" t="n">
-        <v>-35.66</v>
+        <v>-40.31</v>
       </c>
       <c r="Z106" t="n">
-        <v>19</v>
+        <v>20.17</v>
       </c>
       <c r="AA106" t="n">
-        <v>-23.26</v>
+        <v>-21.67</v>
       </c>
       <c r="AB106" t="n">
-        <v>26.11</v>
+        <v>18.71</v>
       </c>
       <c r="AC106" t="n">
         <v>64.86</v>
@@ -17085,19 +17085,19 @@
         <v>53.73</v>
       </c>
       <c r="AE106" t="n">
-        <v>51.99</v>
+        <v>56.3</v>
       </c>
       <c r="AF106" t="n">
         <v>3.94</v>
       </c>
       <c r="AG106" t="n">
-        <v>-6.79</v>
+        <v>-7.12</v>
       </c>
       <c r="AH106" t="n">
-        <v>-32.46</v>
+        <v>-25.67</v>
       </c>
       <c r="AI106" t="n">
-        <v>23.74</v>
+        <v>19.65</v>
       </c>
       <c r="AJ106" t="n">
         <v>118.45</v>
@@ -17106,16 +17106,16 @@
         <v>-55.67</v>
       </c>
       <c r="AL106" t="n">
-        <v>43.64</v>
+        <v>44.94</v>
       </c>
       <c r="AM106" t="n">
         <v>56.1</v>
       </c>
       <c r="AN106" t="n">
-        <v>-9.58</v>
+        <v>-2.27</v>
       </c>
       <c r="AO106" t="n">
-        <v>15.26</v>
+        <v>15.21</v>
       </c>
       <c r="AP106" t="n">
         <v>-24.83</v>
@@ -17127,25 +17127,180 @@
         <v>86.01</v>
       </c>
       <c r="AS106" t="n">
-        <v>64.19</v>
+        <v>64.07</v>
       </c>
       <c r="AT106" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="AV106" t="n">
         <v>80.86</v>
       </c>
       <c r="AW106" t="n">
-        <v>30.6</v>
+        <v>29.63</v>
       </c>
       <c r="AX106" t="n">
-        <v>25.15</v>
+        <v>25.09</v>
       </c>
       <c r="AY106" t="n">
-        <v>40.35</v>
+        <v>41.83</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B107" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="C107" t="n">
+        <v>50.65</v>
+      </c>
+      <c r="D107" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-41.04</v>
+      </c>
+      <c r="F107" t="n">
+        <v>44.47</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-30.02</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-37.55</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-7.09</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-15.59</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-52.97</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-15.91</v>
+      </c>
+      <c r="M107" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-14.48</v>
+      </c>
+      <c r="O107" t="n">
+        <v>30.15</v>
+      </c>
+      <c r="P107" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="R107" t="n">
+        <v>74.27</v>
+      </c>
+      <c r="S107" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="T107" t="n">
+        <v>38.87</v>
+      </c>
+      <c r="U107" t="n">
+        <v>-11.35</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="W107" t="n">
+        <v>-37.94</v>
+      </c>
+      <c r="X107" t="n">
+        <v>-20.01</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>-27.41</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>-14.87</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>55.57</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>69.18</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>93.19</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>21.24</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>-22.55</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>-5.28</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>41.81</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>-4.78</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>154.02</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>71.97</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>20.9</v>
       </c>
     </row>
   </sheetData>
@@ -32673,22 +32828,22 @@
         <v>0.08</v>
       </c>
       <c r="D101" t="n">
-        <v>-1.58</v>
+        <v>-2.66</v>
       </c>
       <c r="E101" t="n">
         <v>0.05</v>
       </c>
       <c r="F101" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="G101" t="n">
         <v>-1.29</v>
       </c>
       <c r="H101" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="I101" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="J101" t="n">
         <v>0</v>
@@ -32697,7 +32852,7 @@
         <v>-0.65</v>
       </c>
       <c r="L101" t="n">
-        <v>5.28</v>
+        <v>5.2</v>
       </c>
       <c r="M101" t="n">
         <v>-0.03</v>
@@ -32706,16 +32861,16 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="P101" t="n">
         <v>-0.06</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.11</v>
+        <v>-0.1</v>
       </c>
       <c r="S101" t="n">
         <v>0.01</v>
@@ -32727,10 +32882,10 @@
         <v>-0.02</v>
       </c>
       <c r="V101" t="n">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="W101" t="n">
-        <v>-0.47</v>
+        <v>-0.27</v>
       </c>
       <c r="X101" t="n">
         <v>0.13</v>
@@ -32742,10 +32897,10 @@
         <v>0.01</v>
       </c>
       <c r="AA101" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="AB101" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AC101" t="n">
         <v>1.03</v>
@@ -32754,13 +32909,13 @@
         <v>0.42</v>
       </c>
       <c r="AE101" t="n">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="AF101" t="n">
         <v>0</v>
       </c>
       <c r="AG101" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="AH101" t="n">
         <v>0.04</v>
@@ -32775,7 +32930,7 @@
         <v>0.05</v>
       </c>
       <c r="AL101" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AM101" t="n">
         <v>0.15</v>
@@ -32790,31 +32945,31 @@
         <v>0.04</v>
       </c>
       <c r="AQ101" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR101" t="n">
         <v>-0.04</v>
       </c>
       <c r="AS101" t="n">
-        <v>16.12</v>
+        <v>15.8</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="AU101" t="n">
-        <v>0.23</v>
+        <v>0.33</v>
       </c>
       <c r="AV101" t="n">
         <v>-0.06</v>
       </c>
       <c r="AW101" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AX101" t="n">
-        <v>0.76</v>
+        <v>0.72</v>
       </c>
       <c r="AY101" t="n">
-        <v>29.06</v>
+        <v>27.97</v>
       </c>
     </row>
     <row r="102">
@@ -33448,10 +33603,10 @@
         <v>0.27</v>
       </c>
       <c r="D106" t="n">
-        <v>4.96</v>
+        <v>5.12</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>-0.01</v>
@@ -33472,7 +33627,7 @@
         <v>-0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>0.44</v>
+        <v>0.89</v>
       </c>
       <c r="M106" t="n">
         <v>-0.04</v>
@@ -33481,28 +33636,28 @@
         <v>-0.01</v>
       </c>
       <c r="O106" t="n">
-        <v>8.69</v>
+        <v>8.91</v>
       </c>
       <c r="P106" t="n">
         <v>-0.01</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.65</v>
+        <v>-0.32</v>
       </c>
       <c r="R106" t="n">
         <v>-0.1</v>
       </c>
       <c r="S106" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="T106" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="U106" t="n">
         <v>-0.1</v>
       </c>
       <c r="V106" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="W106" t="n">
         <v>-0.18</v>
@@ -33520,7 +33675,7 @@
         <v>-0.01</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AC106" t="n">
         <v>0.69</v>
@@ -33529,7 +33684,7 @@
         <v>0.5</v>
       </c>
       <c r="AE106" t="n">
-        <v>5.28</v>
+        <v>5.72</v>
       </c>
       <c r="AF106" t="n">
         <v>0</v>
@@ -33538,10 +33693,10 @@
         <v>-0.07</v>
       </c>
       <c r="AH106" t="n">
-        <v>-0.08</v>
+        <v>-0.07</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AJ106" t="n">
         <v>0.16</v>
@@ -33550,13 +33705,13 @@
         <v>-0.37</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AM106" t="n">
         <v>0.23</v>
       </c>
       <c r="AN106" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AO106" t="n">
         <v>0.01</v>
@@ -33571,13 +33726,13 @@
         <v>0.15</v>
       </c>
       <c r="AS106" t="n">
-        <v>17.15</v>
+        <v>17.12</v>
       </c>
       <c r="AT106" t="n">
         <v>0.27</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AV106" t="n">
         <v>0.1</v>
@@ -33589,7 +33744,162 @@
         <v>0.63</v>
       </c>
       <c r="AY106" t="n">
-        <v>40.35</v>
+        <v>41.83</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="K107" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L107" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U107" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W107" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="X107" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>20.9</v>
       </c>
     </row>
   </sheetData>
@@ -54451,199 +54761,199 @@
         <v>45383</v>
       </c>
       <c r="B113" t="n">
-        <v>-7.06</v>
+        <v>-8.1</v>
       </c>
       <c r="C113" t="n">
-        <v>2.84</v>
+        <v>3.16</v>
       </c>
       <c r="D113" t="n">
-        <v>0.25</v>
+        <v>0.62</v>
       </c>
       <c r="E113" t="n">
-        <v>6.51</v>
+        <v>11.7</v>
       </c>
       <c r="F113" t="n">
-        <v>1.39</v>
+        <v>2.4</v>
       </c>
       <c r="G113" t="n">
-        <v>39.76</v>
+        <v>41.72</v>
       </c>
       <c r="H113" t="n">
-        <v>31.38</v>
+        <v>30.51</v>
       </c>
       <c r="I113" t="n">
-        <v>14.06</v>
+        <v>14.16</v>
       </c>
       <c r="J113" t="n">
-        <v>-3.5</v>
+        <v>-2.66</v>
       </c>
       <c r="K113" t="n">
-        <v>16.87</v>
+        <v>16.36</v>
       </c>
       <c r="L113" t="n">
-        <v>32.28</v>
+        <v>32.54</v>
       </c>
       <c r="M113" t="n">
         <v>36.58</v>
       </c>
       <c r="N113" t="n">
-        <v>-2.35</v>
+        <v>-2.19</v>
       </c>
       <c r="O113" t="n">
-        <v>-11.65</v>
+        <v>-8.76</v>
       </c>
       <c r="P113" t="n">
-        <v>-31.41</v>
+        <v>-31.34</v>
       </c>
       <c r="Q113" t="n">
-        <v>-1.2</v>
+        <v>-0.22</v>
       </c>
       <c r="R113" t="n">
-        <v>14.77</v>
+        <v>15.6</v>
       </c>
       <c r="S113" t="n">
-        <v>-28.96</v>
+        <v>-29.04</v>
       </c>
       <c r="T113" t="n">
-        <v>-3.65</v>
+        <v>-5.33</v>
       </c>
       <c r="U113" t="n">
-        <v>23.33</v>
+        <v>24.23</v>
       </c>
       <c r="V113" t="n">
-        <v>6.12</v>
+        <v>6.64</v>
       </c>
       <c r="W113" t="n">
-        <v>-12.81</v>
+        <v>-13.27</v>
       </c>
       <c r="X113" t="n">
-        <v>17.68</v>
+        <v>17.67</v>
       </c>
       <c r="Y113" t="n">
-        <v>152.68</v>
+        <v>152.61</v>
       </c>
       <c r="Z113" t="n">
         <v>-91.02</v>
       </c>
       <c r="AA113" t="n">
-        <v>-16.73</v>
+        <v>-17.81</v>
       </c>
       <c r="AB113" t="n">
-        <v>38.22</v>
+        <v>35.24</v>
       </c>
       <c r="AC113" t="n">
-        <v>-53.93</v>
+        <v>-52.66</v>
       </c>
       <c r="AD113" t="n">
-        <v>-8.38</v>
+        <v>-14.96</v>
       </c>
       <c r="AE113" t="n">
-        <v>-92.78</v>
+        <v>-93.17</v>
       </c>
       <c r="AF113" t="n">
-        <v>56.45</v>
+        <v>47.69</v>
       </c>
       <c r="AG113" t="n">
-        <v>66.64</v>
+        <v>65.69</v>
       </c>
       <c r="AH113" t="n">
-        <v>52.1</v>
+        <v>52.01</v>
       </c>
       <c r="AI113" t="n">
-        <v>126.96</v>
+        <v>95.95</v>
       </c>
       <c r="AJ113" t="n">
-        <v>17.19</v>
+        <v>19.06</v>
       </c>
       <c r="AK113" t="n">
-        <v>-10.73</v>
+        <v>-12.28</v>
       </c>
       <c r="AL113" t="n">
-        <v>8.14</v>
+        <v>7.82</v>
       </c>
       <c r="AM113" t="n">
-        <v>14.31</v>
+        <v>14.15</v>
       </c>
       <c r="AN113" t="n">
-        <v>49.99</v>
+        <v>48.2</v>
       </c>
       <c r="AO113" t="n">
-        <v>5.23</v>
+        <v>7.82</v>
       </c>
       <c r="AP113" t="n">
-        <v>15.78</v>
+        <v>16.25</v>
       </c>
       <c r="AQ113" t="n">
-        <v>4.4</v>
+        <v>3.52</v>
       </c>
       <c r="AR113" t="n">
-        <v>-22.87</v>
+        <v>-22.7</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.68</v>
+        <v>-7.69</v>
       </c>
       <c r="AT113" t="n">
-        <v>41.76</v>
+        <v>25.88</v>
       </c>
       <c r="AU113" t="n">
-        <v>2.41</v>
+        <v>4.3</v>
       </c>
       <c r="AV113" t="n">
-        <v>54.34</v>
+        <v>54.35</v>
       </c>
       <c r="AW113" t="n">
-        <v>23.77</v>
+        <v>25.57</v>
       </c>
       <c r="AX113" t="n">
-        <v>-38.5</v>
+        <v>-39.31</v>
       </c>
       <c r="AY113" t="n">
-        <v>8.58</v>
+        <v>4.01</v>
       </c>
       <c r="AZ113" t="n">
-        <v>-2.92</v>
+        <v>-1.3</v>
       </c>
       <c r="BA113" t="n">
-        <v>8.95</v>
+        <v>7.59</v>
       </c>
       <c r="BB113" t="n">
-        <v>22.83</v>
+        <v>23.75</v>
       </c>
       <c r="BC113" t="n">
-        <v>30.31</v>
+        <v>34.87</v>
       </c>
       <c r="BD113" t="n">
-        <v>343.43</v>
+        <v>389.99</v>
       </c>
       <c r="BE113" t="n">
-        <v>13.48</v>
+        <v>10.01</v>
       </c>
       <c r="BF113" t="n">
-        <v>-10.19</v>
+        <v>-8.91</v>
       </c>
       <c r="BG113" t="n">
-        <v>12.5</v>
+        <v>12.14</v>
       </c>
       <c r="BH113" t="n">
-        <v>0.89</v>
+        <v>3.8</v>
       </c>
       <c r="BI113" t="n">
-        <v>1.89</v>
+        <v>5.27</v>
       </c>
       <c r="BJ113" t="n">
-        <v>10.12</v>
+        <v>10.08</v>
       </c>
       <c r="BK113" t="n">
-        <v>8.34</v>
+        <v>8.41</v>
       </c>
       <c r="BL113" t="n">
-        <v>12.3</v>
+        <v>12.51</v>
       </c>
       <c r="BM113" t="n">
-        <v>-87.54</v>
+        <v>-87.45</v>
       </c>
       <c r="BN113" t="n">
-        <v>-87.54</v>
+        <v>-87.45</v>
       </c>
     </row>
     <row r="114">
@@ -55451,199 +55761,399 @@
         <v>45536</v>
       </c>
       <c r="B118" t="n">
-        <v>-35.85</v>
+        <v>-36.42</v>
       </c>
       <c r="C118" t="n">
-        <v>4.05</v>
+        <v>5.17</v>
       </c>
       <c r="D118" t="n">
-        <v>14.75</v>
+        <v>13.79</v>
       </c>
       <c r="E118" t="n">
-        <v>-10.03</v>
+        <v>-9.35</v>
       </c>
       <c r="F118" t="n">
-        <v>15.77</v>
+        <v>19.08</v>
       </c>
       <c r="G118" t="n">
-        <v>35.9</v>
+        <v>35.57</v>
       </c>
       <c r="H118" t="n">
-        <v>11.14</v>
+        <v>10.05</v>
       </c>
       <c r="I118" t="n">
-        <v>27.47</v>
+        <v>32.69</v>
       </c>
       <c r="J118" t="n">
-        <v>16.66</v>
+        <v>15.68</v>
       </c>
       <c r="K118" t="n">
-        <v>14.07</v>
+        <v>13.9</v>
       </c>
       <c r="L118" t="n">
-        <v>30.04</v>
+        <v>29.37</v>
       </c>
       <c r="M118" t="n">
         <v>300.21</v>
       </c>
       <c r="N118" t="n">
-        <v>5.14</v>
+        <v>11.51</v>
       </c>
       <c r="O118" t="n">
-        <v>-91.93</v>
+        <v>-89.68</v>
       </c>
       <c r="P118" t="n">
-        <v>-4.5</v>
+        <v>-4.51</v>
       </c>
       <c r="Q118" t="n">
-        <v>16.44</v>
+        <v>18.4</v>
       </c>
       <c r="R118" t="n">
-        <v>19.61</v>
+        <v>19.53</v>
       </c>
       <c r="S118" t="n">
-        <v>-26.88</v>
+        <v>-26.98</v>
       </c>
       <c r="T118" t="n">
-        <v>12.48</v>
+        <v>12.23</v>
       </c>
       <c r="U118" t="n">
-        <v>81.76</v>
+        <v>83.41</v>
       </c>
       <c r="V118" t="n">
-        <v>1.6</v>
+        <v>2.46</v>
       </c>
       <c r="W118" t="n">
-        <v>-9.2</v>
+        <v>-11.18</v>
       </c>
       <c r="X118" t="n">
-        <v>56.22</v>
+        <v>56.26</v>
       </c>
       <c r="Y118" t="n">
-        <v>-9.72</v>
+        <v>-10.04</v>
       </c>
       <c r="Z118" t="n">
         <v>-44.65</v>
       </c>
       <c r="AA118" t="n">
-        <v>12.13</v>
+        <v>12.15</v>
       </c>
       <c r="AB118" t="n">
-        <v>10.66</v>
+        <v>10.22</v>
       </c>
       <c r="AC118" t="n">
-        <v>-91.18</v>
+        <v>-90.5</v>
       </c>
       <c r="AD118" t="n">
         <v>39.67</v>
       </c>
       <c r="AE118" t="n">
-        <v>-82.04</v>
+        <v>-82.05</v>
       </c>
       <c r="AF118" t="n">
-        <v>-15.47</v>
+        <v>-15.15</v>
       </c>
       <c r="AG118" t="n">
-        <v>77.36</v>
+        <v>77.97</v>
       </c>
       <c r="AH118" t="n">
-        <v>17.17</v>
+        <v>17.16</v>
       </c>
       <c r="AI118" t="n">
-        <v>98.07</v>
+        <v>97.79</v>
       </c>
       <c r="AJ118" t="n">
-        <v>-0.8</v>
+        <v>0.09</v>
       </c>
       <c r="AK118" t="n">
-        <v>-2.23</v>
+        <v>-3.34</v>
       </c>
       <c r="AL118" t="n">
-        <v>-13.22</v>
+        <v>-13.6</v>
       </c>
       <c r="AM118" t="n">
-        <v>35.01</v>
+        <v>35</v>
       </c>
       <c r="AN118" t="n">
-        <v>-7.11</v>
+        <v>-6.93</v>
       </c>
       <c r="AO118" t="n">
-        <v>0.76</v>
+        <v>1.45</v>
       </c>
       <c r="AP118" t="n">
-        <v>12.44</v>
+        <v>13.07</v>
       </c>
       <c r="AQ118" t="n">
-        <v>17.23</v>
+        <v>14.46</v>
       </c>
       <c r="AR118" t="n">
-        <v>-6.41</v>
+        <v>-6.36</v>
       </c>
       <c r="AS118" t="n">
-        <v>0.55</v>
+        <v>4.57</v>
       </c>
       <c r="AT118" t="n">
-        <v>20.32</v>
+        <v>15.16</v>
       </c>
       <c r="AU118" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>-38.83</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>-25.99</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>41.58</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>-5.27</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>-10.06</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>-30.6</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B119" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="D119" t="n">
+        <v>43.57</v>
+      </c>
+      <c r="E119" t="n">
+        <v>-13.55</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20.54</v>
+      </c>
+      <c r="G119" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="H119" t="n">
+        <v>27.58</v>
+      </c>
+      <c r="I119" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="J119" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="K119" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="L119" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-28.94</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-11.64</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-78.76</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="R119" t="n">
+        <v>161.46</v>
+      </c>
+      <c r="S119" t="n">
+        <v>-22.43</v>
+      </c>
+      <c r="T119" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="U119" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="V119" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="W119" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="X119" t="n">
+        <v>-37.89</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>-78.31</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>208.66</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>31.52</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>-31.41</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>-45.96</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>49.35</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>134.56</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>-6.76</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>47.54</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>-18.64</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>161.38</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>23.53</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>26.62</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>-27.64</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>38.12</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>19.64</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>19.71</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>51.32</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>64.49</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>-3.39</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>-82.14</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>38.61</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>11.79</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>17.04</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>62.14</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BK119" t="n">
         <v>5.44</v>
       </c>
-      <c r="AV118" t="n">
-        <v>-38.77</v>
-      </c>
-      <c r="AW118" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="AX118" t="n">
-        <v>-25.51</v>
-      </c>
-      <c r="AY118" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AZ118" t="n">
-        <v>20.02</v>
-      </c>
-      <c r="BA118" t="n">
-        <v>-5.04</v>
-      </c>
-      <c r="BB118" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="BC118" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="BD118" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="BE118" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="BF118" t="n">
-        <v>-9.58</v>
-      </c>
-      <c r="BG118" t="n">
-        <v>-30.49</v>
-      </c>
-      <c r="BH118" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="BI118" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="BJ118" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="BK118" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="BL118" t="n">
-        <v>19.83</v>
-      </c>
-      <c r="BM118" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="BN118" t="n">
-        <v>6.64</v>
+      <c r="BL119" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>33.33</v>
       </c>
     </row>
   </sheetData>
@@ -57965,22 +58475,22 @@
         <v>45383</v>
       </c>
       <c r="B101" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="C101" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="D101" t="n">
-        <v>21.91</v>
+        <v>20.26</v>
       </c>
       <c r="E101" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="F101" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="G101" t="n">
-        <v>4.04</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="102">
@@ -58080,22 +58590,45 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C106" t="n">
-        <v>1.76</v>
+        <v>1.87</v>
       </c>
       <c r="D106" t="n">
-        <v>35.91</v>
+        <v>36.12</v>
       </c>
       <c r="E106" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9</v>
+        <v>0.81</v>
       </c>
       <c r="G106" t="n">
-        <v>0.85</v>
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D107" t="n">
+        <v>17.31</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-3.2</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -16378,154 +16378,154 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>38.11</v>
+        <v>37.75</v>
       </c>
       <c r="C102" t="n">
-        <v>8.37</v>
+        <v>8.28</v>
       </c>
       <c r="D102" t="n">
-        <v>-27.64</v>
+        <v>-29.06</v>
       </c>
       <c r="E102" t="n">
-        <v>3.89</v>
+        <v>4.16</v>
       </c>
       <c r="F102" t="n">
+        <v>-48.99</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-89.98</v>
+      </c>
+      <c r="H102" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="I102" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="J102" t="n">
+        <v>46.99</v>
+      </c>
+      <c r="K102" t="n">
+        <v>-39.46</v>
+      </c>
+      <c r="L102" t="n">
+        <v>-6.72</v>
+      </c>
+      <c r="M102" t="n">
+        <v>8</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-53.98</v>
+      </c>
+      <c r="O102" t="n">
+        <v>34.12</v>
+      </c>
+      <c r="P102" t="n">
         <v>-43.49</v>
       </c>
-      <c r="G102" t="n">
-        <v>-88.08</v>
-      </c>
-      <c r="H102" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="J102" t="n">
-        <v>45.19</v>
-      </c>
-      <c r="K102" t="n">
-        <v>-39.8</v>
-      </c>
-      <c r="L102" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="M102" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="N102" t="n">
-        <v>-57.22</v>
-      </c>
-      <c r="O102" t="n">
-        <v>27.53</v>
-      </c>
-      <c r="P102" t="n">
-        <v>-43.09</v>
-      </c>
       <c r="Q102" t="n">
-        <v>-29.23</v>
+        <v>-29.55</v>
       </c>
       <c r="R102" t="n">
-        <v>-17.01</v>
+        <v>-16.25</v>
       </c>
       <c r="S102" t="n">
-        <v>3.33</v>
+        <v>7.98</v>
       </c>
       <c r="T102" t="n">
-        <v>-3.57</v>
+        <v>-3.26</v>
       </c>
       <c r="U102" t="n">
         <v>32.51</v>
       </c>
       <c r="V102" t="n">
-        <v>14.4</v>
+        <v>14.69</v>
       </c>
       <c r="W102" t="n">
-        <v>-26.16</v>
+        <v>-26.34</v>
       </c>
       <c r="X102" t="n">
-        <v>45.54</v>
+        <v>45.22</v>
       </c>
       <c r="Y102" t="n">
-        <v>-18.8</v>
+        <v>-17.14</v>
       </c>
       <c r="Z102" t="n">
-        <v>-19.57</v>
+        <v>-24.98</v>
       </c>
       <c r="AA102" t="n">
-        <v>80.91</v>
+        <v>78.05</v>
       </c>
       <c r="AB102" t="n">
-        <v>23.86</v>
+        <v>26.62</v>
       </c>
       <c r="AC102" t="n">
-        <v>90.69</v>
+        <v>90.23</v>
       </c>
       <c r="AD102" t="n">
         <v>138.89</v>
       </c>
       <c r="AE102" t="n">
-        <v>46.27</v>
+        <v>51.89</v>
       </c>
       <c r="AF102" t="n">
-        <v>17.78</v>
+        <v>16.75</v>
       </c>
       <c r="AG102" t="n">
-        <v>2.63</v>
+        <v>3.19</v>
       </c>
       <c r="AH102" t="n">
-        <v>-12.08</v>
+        <v>-9.62</v>
       </c>
       <c r="AI102" t="n">
-        <v>-39.21</v>
+        <v>-38.57</v>
       </c>
       <c r="AJ102" t="n">
         <v>108.5</v>
       </c>
       <c r="AK102" t="n">
-        <v>2.3</v>
+        <v>1.59</v>
       </c>
       <c r="AL102" t="n">
-        <v>2.27</v>
+        <v>1.94</v>
       </c>
       <c r="AM102" t="n">
-        <v>-14.15</v>
+        <v>-14.32</v>
       </c>
       <c r="AN102" t="n">
-        <v>6</v>
+        <v>5.46</v>
       </c>
       <c r="AO102" t="n">
-        <v>118.69</v>
+        <v>120.02</v>
       </c>
       <c r="AP102" t="n">
         <v>-14.86</v>
       </c>
       <c r="AQ102" t="n">
-        <v>-29.75</v>
+        <v>-32.61</v>
       </c>
       <c r="AR102" t="n">
-        <v>-12.53</v>
+        <v>-12.91</v>
       </c>
       <c r="AS102" t="n">
-        <v>39.16</v>
+        <v>38.53</v>
       </c>
       <c r="AT102" t="n">
-        <v>-19.92</v>
+        <v>-20.36</v>
       </c>
       <c r="AU102" t="n">
-        <v>7.04</v>
+        <v>9.94</v>
       </c>
       <c r="AV102" t="n">
-        <v>-26.5</v>
+        <v>-28.58</v>
       </c>
       <c r="AW102" t="n">
-        <v>54.67</v>
+        <v>47.04</v>
       </c>
       <c r="AX102" t="n">
-        <v>27.62</v>
+        <v>26.3</v>
       </c>
       <c r="AY102" t="n">
-        <v>8.54</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="103">
@@ -17153,22 +17153,22 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>21.69</v>
+        <v>22.15</v>
       </c>
       <c r="C107" t="n">
         <v>50.65</v>
       </c>
       <c r="D107" t="n">
-        <v>39.4</v>
+        <v>46.23</v>
       </c>
       <c r="E107" t="n">
-        <v>-41.04</v>
+        <v>-40.71</v>
       </c>
       <c r="F107" t="n">
         <v>44.47</v>
       </c>
       <c r="G107" t="n">
-        <v>-30.02</v>
+        <v>-30</v>
       </c>
       <c r="H107" t="n">
         <v>-37.55</v>
@@ -17177,43 +17177,43 @@
         <v>-7.09</v>
       </c>
       <c r="J107" t="n">
-        <v>-15.59</v>
+        <v>-15.61</v>
       </c>
       <c r="K107" t="n">
-        <v>-52.97</v>
+        <v>-53.35</v>
       </c>
       <c r="L107" t="n">
-        <v>-15.91</v>
+        <v>-14.51</v>
       </c>
       <c r="M107" t="n">
-        <v>2.74</v>
+        <v>11.09</v>
       </c>
       <c r="N107" t="n">
-        <v>-14.48</v>
+        <v>-17.78</v>
       </c>
       <c r="O107" t="n">
-        <v>30.15</v>
+        <v>29.99</v>
       </c>
       <c r="P107" t="n">
-        <v>29</v>
+        <v>30.28</v>
       </c>
       <c r="Q107" t="n">
-        <v>7.34</v>
+        <v>3.72</v>
       </c>
       <c r="R107" t="n">
-        <v>74.27</v>
+        <v>73.99</v>
       </c>
       <c r="S107" t="n">
-        <v>6.17</v>
+        <v>4.57</v>
       </c>
       <c r="T107" t="n">
-        <v>38.87</v>
+        <v>40.47</v>
       </c>
       <c r="U107" t="n">
         <v>-11.35</v>
       </c>
       <c r="V107" t="n">
-        <v>2.99</v>
+        <v>3.42</v>
       </c>
       <c r="W107" t="n">
         <v>-37.94</v>
@@ -17222,16 +17222,16 @@
         <v>-20.01</v>
       </c>
       <c r="Y107" t="n">
-        <v>-27.41</v>
+        <v>-25.55</v>
       </c>
       <c r="Z107" t="n">
-        <v>16.41</v>
+        <v>16.52</v>
       </c>
       <c r="AA107" t="n">
-        <v>-14.87</v>
+        <v>-13.13</v>
       </c>
       <c r="AB107" t="n">
-        <v>12.81</v>
+        <v>9.52</v>
       </c>
       <c r="AC107" t="n">
         <v>55.57</v>
@@ -17240,19 +17240,19 @@
         <v>69.18</v>
       </c>
       <c r="AE107" t="n">
-        <v>67.2</v>
+        <v>66.3</v>
       </c>
       <c r="AF107" t="n">
         <v>93.19</v>
       </c>
       <c r="AG107" t="n">
-        <v>21.24</v>
+        <v>22.5</v>
       </c>
       <c r="AH107" t="n">
-        <v>-22.55</v>
+        <v>-22.33</v>
       </c>
       <c r="AI107" t="n">
-        <v>25.34</v>
+        <v>26.57</v>
       </c>
       <c r="AJ107" t="n">
         <v>5.67</v>
@@ -17261,16 +17261,16 @@
         <v>-2.22</v>
       </c>
       <c r="AL107" t="n">
-        <v>5.1</v>
+        <v>6.87</v>
       </c>
       <c r="AM107" t="n">
         <v>25.59</v>
       </c>
       <c r="AN107" t="n">
-        <v>5.78</v>
+        <v>4.59</v>
       </c>
       <c r="AO107" t="n">
-        <v>4.8</v>
+        <v>4.61</v>
       </c>
       <c r="AP107" t="n">
         <v>-5.28</v>
@@ -17282,25 +17282,180 @@
         <v>13.23</v>
       </c>
       <c r="AS107" t="n">
-        <v>41.81</v>
+        <v>41.8</v>
       </c>
       <c r="AT107" t="n">
         <v>21.25</v>
       </c>
       <c r="AU107" t="n">
-        <v>-4.78</v>
+        <v>-5.76</v>
       </c>
       <c r="AV107" t="n">
         <v>154.02</v>
       </c>
       <c r="AW107" t="n">
-        <v>4.22</v>
+        <v>0.19</v>
       </c>
       <c r="AX107" t="n">
         <v>71.97</v>
       </c>
       <c r="AY107" t="n">
-        <v>20.9</v>
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-19.77</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="D108" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-10.71</v>
+      </c>
+      <c r="F108" t="n">
+        <v>102.36</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-23.87</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-37.41</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20.49</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-28.49</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-52.49</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-41.96</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-6.69</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-34.96</v>
+      </c>
+      <c r="O108" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-14.12</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R108" t="n">
+        <v>-14.19</v>
+      </c>
+      <c r="S108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T108" t="n">
+        <v>33.79</v>
+      </c>
+      <c r="U108" t="n">
+        <v>30</v>
+      </c>
+      <c r="V108" t="n">
+        <v>-23.34</v>
+      </c>
+      <c r="W108" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="X108" t="n">
+        <v>236.94</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>-42.12</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>-21.21</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>61.74</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>708.73</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>-20</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>-24.28</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>-32.16</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>-9.54</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>-33.16</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>103.29</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>-22.2</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>30.47</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>36.86</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>27.52</v>
       </c>
     </row>
   </sheetData>
@@ -32983,46 +33138,46 @@
         <v>0.04</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.19</v>
+        <v>-2.31</v>
       </c>
       <c r="E102" t="n">
         <v>0.01</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.15</v>
+        <v>-0.17</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.18</v>
+        <v>-3.25</v>
       </c>
       <c r="H102" t="n">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="J102" t="n">
         <v>0.02</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="L102" t="n">
-        <v>-0.72</v>
+        <v>-0.74</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N102" t="n">
         <v>-0.02</v>
       </c>
       <c r="O102" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="P102" t="n">
         <v>-0.09</v>
       </c>
       <c r="Q102" t="n">
-        <v>-1.12</v>
+        <v>-1.13</v>
       </c>
       <c r="R102" t="n">
         <v>-0.06</v>
@@ -33037,7 +33192,7 @@
         <v>0.07</v>
       </c>
       <c r="V102" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="W102" t="n">
         <v>-0.47</v>
@@ -33064,13 +33219,13 @@
         <v>0.86</v>
       </c>
       <c r="AE102" t="n">
-        <v>4.06</v>
+        <v>4.55</v>
       </c>
       <c r="AF102" t="n">
         <v>0.02</v>
       </c>
       <c r="AG102" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="AH102" t="n">
         <v>-0.03</v>
@@ -33100,31 +33255,31 @@
         <v>-0.02</v>
       </c>
       <c r="AQ102" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="AR102" t="n">
         <v>-0.03</v>
       </c>
       <c r="AS102" t="n">
-        <v>9.65</v>
+        <v>9.49</v>
       </c>
       <c r="AT102" t="n">
-        <v>-1.97</v>
+        <v>-2.02</v>
       </c>
       <c r="AU102" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="AV102" t="n">
         <v>-0.06</v>
       </c>
       <c r="AW102" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AX102" t="n">
-        <v>0.85</v>
+        <v>0.81</v>
       </c>
       <c r="AY102" t="n">
-        <v>8.54</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="103">
@@ -33752,13 +33907,13 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="C107" t="n">
         <v>0.16</v>
       </c>
       <c r="D107" t="n">
-        <v>2.94</v>
+        <v>3.45</v>
       </c>
       <c r="E107" t="n">
         <v>-0.09</v>
@@ -33782,10 +33937,10 @@
         <v>-0.24</v>
       </c>
       <c r="L107" t="n">
-        <v>-2.06</v>
+        <v>-1.88</v>
       </c>
       <c r="M107" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -33797,7 +33952,7 @@
         <v>0.02</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="R107" t="n">
         <v>0.11</v>
@@ -33812,7 +33967,7 @@
         <v>-0.04</v>
       </c>
       <c r="V107" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="W107" t="n">
         <v>-1.02</v>
@@ -33839,13 +33994,13 @@
         <v>0.48</v>
       </c>
       <c r="AE107" t="n">
-        <v>6.65</v>
+        <v>6.56</v>
       </c>
       <c r="AF107" t="n">
         <v>0.09</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AH107" t="n">
         <v>-0.46</v>
@@ -33860,7 +34015,7 @@
         <v>-0.01</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AM107" t="n">
         <v>0.1</v>
@@ -33881,25 +34036,180 @@
         <v>0.02</v>
       </c>
       <c r="AS107" t="n">
-        <v>11.52</v>
+        <v>11.51</v>
       </c>
       <c r="AT107" t="n">
         <v>1.41</v>
       </c>
       <c r="AU107" t="n">
-        <v>-0.13</v>
+        <v>-0.16</v>
       </c>
       <c r="AV107" t="n">
         <v>0.18</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AX107" t="n">
         <v>1.52</v>
       </c>
       <c r="AY107" t="n">
-        <v>20.9</v>
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-5.53</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R108" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V108" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="W108" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>25.54</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>27.52</v>
       </c>
     </row>
   </sheetData>
@@ -54961,37 +55271,37 @@
         <v>45413</v>
       </c>
       <c r="B114" t="n">
-        <v>62.01</v>
+        <v>67.64</v>
       </c>
       <c r="C114" t="n">
-        <v>4.34</v>
+        <v>5.03</v>
       </c>
       <c r="D114" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="E114" t="n">
-        <v>22.36</v>
+        <v>23.24</v>
       </c>
       <c r="F114" t="n">
-        <v>4.01</v>
+        <v>5.6</v>
       </c>
       <c r="G114" t="n">
-        <v>36.8</v>
+        <v>38.84</v>
       </c>
       <c r="H114" t="n">
-        <v>13.3</v>
+        <v>14.91</v>
       </c>
       <c r="I114" t="n">
-        <v>-4.95</v>
+        <v>-5.55</v>
       </c>
       <c r="J114" t="n">
-        <v>7.66</v>
+        <v>9.47</v>
       </c>
       <c r="K114" t="n">
-        <v>5.65</v>
+        <v>5.25</v>
       </c>
       <c r="L114" t="n">
-        <v>13.45</v>
+        <v>13.03</v>
       </c>
       <c r="M114" t="n">
         <v>-67</v>
@@ -55000,160 +55310,160 @@
         <v>3.02</v>
       </c>
       <c r="O114" t="n">
-        <v>903.37</v>
+        <v>907.8</v>
       </c>
       <c r="P114" t="n">
         <v>34.03</v>
       </c>
       <c r="Q114" t="n">
-        <v>5.83</v>
+        <v>6.97</v>
       </c>
       <c r="R114" t="n">
-        <v>42.56</v>
+        <v>43.34</v>
       </c>
       <c r="S114" t="n">
-        <v>-26.68</v>
+        <v>-26.82</v>
       </c>
       <c r="T114" t="n">
-        <v>-0.98</v>
+        <v>-4.46</v>
       </c>
       <c r="U114" t="n">
-        <v>-6.75</v>
+        <v>-4.49</v>
       </c>
       <c r="V114" t="n">
-        <v>2.48</v>
+        <v>0.32</v>
       </c>
       <c r="W114" t="n">
-        <v>-17.68</v>
+        <v>-17.14</v>
       </c>
       <c r="X114" t="n">
-        <v>36.35</v>
+        <v>36.4</v>
       </c>
       <c r="Y114" t="n">
-        <v>-16.05</v>
+        <v>-15.97</v>
       </c>
       <c r="Z114" t="n">
         <v>-89.98</v>
       </c>
       <c r="AA114" t="n">
-        <v>18.83</v>
+        <v>17.81</v>
       </c>
       <c r="AB114" t="n">
-        <v>24.78</v>
+        <v>31.38</v>
       </c>
       <c r="AC114" t="n">
-        <v>-17.78</v>
+        <v>-17.76</v>
       </c>
       <c r="AD114" t="n">
-        <v>-27.53</v>
+        <v>-28.39</v>
       </c>
       <c r="AE114" t="n">
-        <v>-93.58</v>
+        <v>-94.1</v>
       </c>
       <c r="AF114" t="n">
-        <v>10.68</v>
+        <v>6.77</v>
       </c>
       <c r="AG114" t="n">
-        <v>21.34</v>
+        <v>22.21</v>
       </c>
       <c r="AH114" t="n">
-        <v>29.02</v>
+        <v>28.59</v>
       </c>
       <c r="AI114" t="n">
-        <v>68.34</v>
+        <v>45.37</v>
       </c>
       <c r="AJ114" t="n">
-        <v>30.72</v>
+        <v>33.54</v>
       </c>
       <c r="AK114" t="n">
-        <v>-21.54</v>
+        <v>-22.62</v>
       </c>
       <c r="AL114" t="n">
-        <v>-8.87</v>
+        <v>-9.78</v>
       </c>
       <c r="AM114" t="n">
-        <v>76.29</v>
+        <v>76.24</v>
       </c>
       <c r="AN114" t="n">
-        <v>-21.42</v>
+        <v>-19.27</v>
       </c>
       <c r="AO114" t="n">
-        <v>-5.04</v>
+        <v>-3.41</v>
       </c>
       <c r="AP114" t="n">
-        <v>-3.82</v>
+        <v>-7.31</v>
       </c>
       <c r="AQ114" t="n">
-        <v>3.25</v>
+        <v>-1.78</v>
       </c>
       <c r="AR114" t="n">
-        <v>4.07</v>
+        <v>4.88</v>
       </c>
       <c r="AS114" t="n">
-        <v>-14.96</v>
+        <v>-18.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>14.83</v>
+        <v>1.65</v>
       </c>
       <c r="AU114" t="n">
-        <v>7.89</v>
+        <v>11.78</v>
       </c>
       <c r="AV114" t="n">
-        <v>-0.45</v>
+        <v>-9.98</v>
       </c>
       <c r="AW114" t="n">
-        <v>5.41</v>
+        <v>3.56</v>
       </c>
       <c r="AX114" t="n">
-        <v>-13.13</v>
+        <v>-10.23</v>
       </c>
       <c r="AY114" t="n">
-        <v>16.57</v>
+        <v>12.08</v>
       </c>
       <c r="AZ114" t="n">
-        <v>13.94</v>
+        <v>15.48</v>
       </c>
       <c r="BA114" t="n">
-        <v>58.58</v>
+        <v>58.86</v>
       </c>
       <c r="BB114" t="n">
-        <v>36.82</v>
+        <v>37.82</v>
       </c>
       <c r="BC114" t="n">
-        <v>-1.93</v>
+        <v>1.84</v>
       </c>
       <c r="BD114" t="n">
-        <v>36.72</v>
+        <v>37.05</v>
       </c>
       <c r="BE114" t="n">
-        <v>25.38</v>
+        <v>21.8</v>
       </c>
       <c r="BF114" t="n">
-        <v>-9.92</v>
+        <v>-8.77</v>
       </c>
       <c r="BG114" t="n">
-        <v>-23.22</v>
+        <v>-21.82</v>
       </c>
       <c r="BH114" t="n">
-        <v>-17.08</v>
+        <v>-15.61</v>
       </c>
       <c r="BI114" t="n">
-        <v>-3.29</v>
+        <v>0.24</v>
       </c>
       <c r="BJ114" t="n">
-        <v>7.79</v>
+        <v>7.58</v>
       </c>
       <c r="BK114" t="n">
-        <v>21.02</v>
+        <v>20.83</v>
       </c>
       <c r="BL114" t="n">
-        <v>15.43</v>
+        <v>15.58</v>
       </c>
       <c r="BM114" t="n">
-        <v>17.84</v>
+        <v>12.3</v>
       </c>
       <c r="BN114" t="n">
-        <v>17.84</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="115">
@@ -55961,37 +56271,37 @@
         <v>45566</v>
       </c>
       <c r="B119" t="n">
-        <v>72.37</v>
+        <v>71.05</v>
       </c>
       <c r="C119" t="n">
-        <v>9.87</v>
+        <v>9.91</v>
       </c>
       <c r="D119" t="n">
-        <v>43.57</v>
+        <v>43.93</v>
       </c>
       <c r="E119" t="n">
-        <v>-13.55</v>
+        <v>-16.08</v>
       </c>
       <c r="F119" t="n">
-        <v>20.54</v>
+        <v>20.38</v>
       </c>
       <c r="G119" t="n">
-        <v>31.54</v>
+        <v>33.5</v>
       </c>
       <c r="H119" t="n">
-        <v>27.58</v>
+        <v>27.59</v>
       </c>
       <c r="I119" t="n">
-        <v>19.98</v>
+        <v>19.79</v>
       </c>
       <c r="J119" t="n">
-        <v>18.05</v>
+        <v>18.18</v>
       </c>
       <c r="K119" t="n">
-        <v>25.12</v>
+        <v>24.96</v>
       </c>
       <c r="L119" t="n">
-        <v>17.39</v>
+        <v>16.91</v>
       </c>
       <c r="M119" t="n">
         <v>-28.94</v>
@@ -56000,13 +56310,13 @@
         <v>-11.64</v>
       </c>
       <c r="O119" t="n">
-        <v>-78.76</v>
+        <v>-78.88</v>
       </c>
       <c r="P119" t="n">
         <v>5.63</v>
       </c>
       <c r="Q119" t="n">
-        <v>16.98</v>
+        <v>16.32</v>
       </c>
       <c r="R119" t="n">
         <v>161.46</v>
@@ -56015,145 +56325,345 @@
         <v>-22.43</v>
       </c>
       <c r="T119" t="n">
-        <v>8.92</v>
+        <v>8.84</v>
       </c>
       <c r="U119" t="n">
-        <v>38.5</v>
+        <v>17.66</v>
       </c>
       <c r="V119" t="n">
-        <v>-1.05</v>
+        <v>-1.22</v>
       </c>
       <c r="W119" t="n">
-        <v>3.77</v>
+        <v>0.65</v>
       </c>
       <c r="X119" t="n">
-        <v>-37.89</v>
+        <v>-38.18</v>
       </c>
       <c r="Y119" t="n">
-        <v>-78.31</v>
+        <v>-78.39</v>
       </c>
       <c r="Z119" t="n">
         <v>208.66</v>
       </c>
       <c r="AA119" t="n">
-        <v>28.2</v>
+        <v>26.98</v>
       </c>
       <c r="AB119" t="n">
-        <v>-4.89</v>
+        <v>-7.15</v>
       </c>
       <c r="AC119" t="n">
-        <v>31.52</v>
+        <v>32.32</v>
       </c>
       <c r="AD119" t="n">
-        <v>-31.41</v>
+        <v>-31.04</v>
       </c>
       <c r="AE119" t="n">
-        <v>-45.96</v>
+        <v>-47.19</v>
       </c>
       <c r="AF119" t="n">
-        <v>40.23</v>
+        <v>40.21</v>
       </c>
       <c r="AG119" t="n">
-        <v>49.35</v>
+        <v>50.26</v>
       </c>
       <c r="AH119" t="n">
-        <v>25.82</v>
+        <v>25.8</v>
       </c>
       <c r="AI119" t="n">
-        <v>134.56</v>
+        <v>129.28</v>
       </c>
       <c r="AJ119" t="n">
-        <v>11.81</v>
+        <v>11.52</v>
       </c>
       <c r="AK119" t="n">
-        <v>8.02</v>
+        <v>7.53</v>
       </c>
       <c r="AL119" t="n">
-        <v>-6.76</v>
+        <v>-5.56</v>
       </c>
       <c r="AM119" t="n">
-        <v>47.54</v>
+        <v>47.55</v>
       </c>
       <c r="AN119" t="n">
-        <v>-18.64</v>
+        <v>-19.77</v>
       </c>
       <c r="AO119" t="n">
-        <v>3.05</v>
+        <v>0.04</v>
       </c>
       <c r="AP119" t="n">
-        <v>161.38</v>
+        <v>164.44</v>
       </c>
       <c r="AQ119" t="n">
-        <v>23.53</v>
+        <v>24.62</v>
       </c>
       <c r="AR119" t="n">
-        <v>2.81</v>
+        <v>2.75</v>
       </c>
       <c r="AS119" t="n">
-        <v>26.62</v>
+        <v>38.54</v>
       </c>
       <c r="AT119" t="n">
-        <v>-27.64</v>
+        <v>-27.84</v>
       </c>
       <c r="AU119" t="n">
-        <v>5.24</v>
+        <v>4.71</v>
       </c>
       <c r="AV119" t="n">
-        <v>38.12</v>
+        <v>38.38</v>
       </c>
       <c r="AW119" t="n">
-        <v>19.64</v>
+        <v>13.64</v>
       </c>
       <c r="AX119" t="n">
-        <v>3.9</v>
+        <v>4.04</v>
       </c>
       <c r="AY119" t="n">
-        <v>28.8</v>
+        <v>28.13</v>
       </c>
       <c r="AZ119" t="n">
-        <v>19.71</v>
+        <v>27.46</v>
       </c>
       <c r="BA119" t="n">
-        <v>51.32</v>
+        <v>51.44</v>
       </c>
       <c r="BB119" t="n">
-        <v>64.49</v>
+        <v>64.98</v>
       </c>
       <c r="BC119" t="n">
-        <v>-3.39</v>
+        <v>-6.1</v>
       </c>
       <c r="BD119" t="n">
-        <v>-82.14</v>
+        <v>-82.17</v>
       </c>
       <c r="BE119" t="n">
-        <v>38.61</v>
+        <v>66.59</v>
       </c>
       <c r="BF119" t="n">
-        <v>11.79</v>
+        <v>9.82</v>
       </c>
       <c r="BG119" t="n">
-        <v>42.66</v>
+        <v>44.1</v>
       </c>
       <c r="BH119" t="n">
-        <v>17.04</v>
+        <v>15.7</v>
       </c>
       <c r="BI119" t="n">
-        <v>62.14</v>
+        <v>62.44</v>
       </c>
       <c r="BJ119" t="n">
-        <v>4.65</v>
+        <v>4.37</v>
       </c>
       <c r="BK119" t="n">
-        <v>5.44</v>
+        <v>5.35</v>
       </c>
       <c r="BL119" t="n">
-        <v>22.7</v>
+        <v>22.65</v>
       </c>
       <c r="BM119" t="n">
-        <v>33.33</v>
+        <v>33.31</v>
       </c>
       <c r="BN119" t="n">
-        <v>33.33</v>
+        <v>33.31</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B120" t="n">
+        <v>-10.99</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="D120" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G120" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="K120" t="n">
+        <v>-15.67</v>
+      </c>
+      <c r="L120" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-23.79</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-13.43</v>
+      </c>
+      <c r="O120" t="n">
+        <v>130.08</v>
+      </c>
+      <c r="P120" t="n">
+        <v>51.82</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="R120" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="S120" t="n">
+        <v>-16.19</v>
+      </c>
+      <c r="T120" t="n">
+        <v>20.61</v>
+      </c>
+      <c r="U120" t="n">
+        <v>155.58</v>
+      </c>
+      <c r="V120" t="n">
+        <v>18.15</v>
+      </c>
+      <c r="W120" t="n">
+        <v>-24.36</v>
+      </c>
+      <c r="X120" t="n">
+        <v>-86</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>-30.75</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>-16.41</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>42.85</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>-10.96</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>16.74</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>-34.09</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>-84.35</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>-5.48</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>63.21</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>39.15</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>24.84</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>-15.02</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>16.11</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>-5.59</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>-7.22</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>30.66</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>-46.25</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>-10.24</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>69.67</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>81.93</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>-59.58</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>-10.89</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>13.77</v>
       </c>
     </row>
   </sheetData>
@@ -58498,19 +59008,19 @@
         <v>45413</v>
       </c>
       <c r="B102" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="C102" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="D102" t="n">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="E102" t="n">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="G102" t="n">
         <v>1.05</v>
@@ -58613,22 +59123,45 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="C107" t="n">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="D107" t="n">
-        <v>17.31</v>
+        <v>17.77</v>
       </c>
       <c r="E107" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="F107" t="n">
         <v>1.02</v>
       </c>
       <c r="G107" t="n">
-        <v>-3.2</v>
+        <v>-3.29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="D108" t="n">
+        <v>22.19</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -16533,154 +16533,154 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-21.56</v>
+        <v>-21.86</v>
       </c>
       <c r="C103" t="n">
         <v>13.02</v>
       </c>
       <c r="D103" t="n">
-        <v>-16.58</v>
+        <v>-17.22</v>
       </c>
       <c r="E103" t="n">
-        <v>18.93</v>
+        <v>19.39</v>
       </c>
       <c r="F103" t="n">
-        <v>9.09</v>
+        <v>4.99</v>
       </c>
       <c r="G103" t="n">
-        <v>-32.78</v>
+        <v>-32.83</v>
       </c>
       <c r="H103" t="n">
-        <v>23.45</v>
+        <v>19.43</v>
       </c>
       <c r="I103" t="n">
-        <v>27.91</v>
+        <v>27.85</v>
       </c>
       <c r="J103" t="n">
-        <v>22.36</v>
+        <v>23.26</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.43</v>
+        <v>-11.72</v>
       </c>
       <c r="L103" t="n">
-        <v>-11.12</v>
+        <v>-10.96</v>
       </c>
       <c r="M103" t="n">
-        <v>-12.89</v>
+        <v>-12.11</v>
       </c>
       <c r="N103" t="n">
-        <v>-54.23</v>
+        <v>-51.49</v>
       </c>
       <c r="O103" t="n">
-        <v>-1.99</v>
+        <v>0.83</v>
       </c>
       <c r="P103" t="n">
-        <v>7.11</v>
+        <v>-24.38</v>
       </c>
       <c r="Q103" t="n">
-        <v>-46.94</v>
+        <v>-45.95</v>
       </c>
       <c r="R103" t="n">
-        <v>-32.84</v>
+        <v>-32.83</v>
       </c>
       <c r="S103" t="n">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="T103" t="n">
-        <v>93.7</v>
+        <v>94.98</v>
       </c>
       <c r="U103" t="n">
-        <v>-13.65</v>
+        <v>-19.1</v>
       </c>
       <c r="V103" t="n">
-        <v>4.99</v>
+        <v>5.04</v>
       </c>
       <c r="W103" t="n">
-        <v>-32.13</v>
+        <v>-32.4</v>
       </c>
       <c r="X103" t="n">
         <v>-34.82</v>
       </c>
       <c r="Y103" t="n">
-        <v>-31.09</v>
+        <v>-24.07</v>
       </c>
       <c r="Z103" t="n">
-        <v>-12.6</v>
+        <v>-13.46</v>
       </c>
       <c r="AA103" t="n">
-        <v>-57.74</v>
+        <v>-60.41</v>
       </c>
       <c r="AB103" t="n">
-        <v>-20.45</v>
+        <v>-14.75</v>
       </c>
       <c r="AC103" t="n">
-        <v>14.9</v>
+        <v>14.36</v>
       </c>
       <c r="AD103" t="n">
-        <v>46.17</v>
+        <v>46.01</v>
       </c>
       <c r="AE103" t="n">
-        <v>20.79</v>
+        <v>20.4</v>
       </c>
       <c r="AF103" t="n">
-        <v>16.09</v>
+        <v>13.54</v>
       </c>
       <c r="AG103" t="n">
-        <v>-4.79</v>
+        <v>-4.61</v>
       </c>
       <c r="AH103" t="n">
-        <v>175.75</v>
+        <v>172.61</v>
       </c>
       <c r="AI103" t="n">
-        <v>-28.62</v>
+        <v>-28.79</v>
       </c>
       <c r="AJ103" t="n">
         <v>6.88</v>
       </c>
       <c r="AK103" t="n">
-        <v>2.87</v>
+        <v>1.39</v>
       </c>
       <c r="AL103" t="n">
-        <v>-4.33</v>
+        <v>-9.95</v>
       </c>
       <c r="AM103" t="n">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AN103" t="n">
-        <v>9.36</v>
+        <v>10.82</v>
       </c>
       <c r="AO103" t="n">
-        <v>49.46</v>
+        <v>51.26</v>
       </c>
       <c r="AP103" t="n">
-        <v>-17.98</v>
+        <v>-18.4</v>
       </c>
       <c r="AQ103" t="n">
-        <v>-47.23</v>
+        <v>-47.7</v>
       </c>
       <c r="AR103" t="n">
         <v>-22.71</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.02</v>
+        <v>-0.08</v>
       </c>
       <c r="AT103" t="n">
-        <v>-52.48</v>
+        <v>-52.68</v>
       </c>
       <c r="AU103" t="n">
-        <v>2.84</v>
+        <v>3.54</v>
       </c>
       <c r="AV103" t="n">
-        <v>-41.87</v>
+        <v>-46.35</v>
       </c>
       <c r="AW103" t="n">
-        <v>4.31</v>
+        <v>6.49</v>
       </c>
       <c r="AX103" t="n">
-        <v>1.5</v>
+        <v>0.42</v>
       </c>
       <c r="AY103" t="n">
-        <v>-8.71</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="104">
@@ -16688,154 +16688,154 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>-31.06</v>
+        <v>-31.38</v>
       </c>
       <c r="C104" t="n">
-        <v>29.05</v>
+        <v>28.34</v>
       </c>
       <c r="D104" t="n">
-        <v>-48.43</v>
+        <v>-48.37</v>
       </c>
       <c r="E104" t="n">
-        <v>3.94</v>
+        <v>4.48</v>
       </c>
       <c r="F104" t="n">
-        <v>206.93</v>
+        <v>201.5</v>
       </c>
       <c r="G104" t="n">
-        <v>148.99</v>
+        <v>148.79</v>
       </c>
       <c r="H104" t="n">
-        <v>11.39</v>
+        <v>10.27</v>
       </c>
       <c r="I104" t="n">
-        <v>11.27</v>
+        <v>11.25</v>
       </c>
       <c r="J104" t="n">
-        <v>20.53</v>
+        <v>20.29</v>
       </c>
       <c r="K104" t="n">
-        <v>-42.96</v>
+        <v>-43.01</v>
       </c>
       <c r="L104" t="n">
-        <v>47.93</v>
+        <v>48.44</v>
       </c>
       <c r="M104" t="n">
-        <v>0.79</v>
+        <v>2.14</v>
       </c>
       <c r="N104" t="n">
-        <v>-42.72</v>
+        <v>-41.99</v>
       </c>
       <c r="O104" t="n">
-        <v>37.92</v>
+        <v>34.13</v>
       </c>
       <c r="P104" t="n">
-        <v>-25.29</v>
+        <v>-23.19</v>
       </c>
       <c r="Q104" t="n">
-        <v>-22.42</v>
+        <v>-22.61</v>
       </c>
       <c r="R104" t="n">
-        <v>-28.08</v>
+        <v>-33.01</v>
       </c>
       <c r="S104" t="n">
-        <v>507.97</v>
+        <v>509.24</v>
       </c>
       <c r="T104" t="n">
-        <v>-10.67</v>
+        <v>-9.11</v>
       </c>
       <c r="U104" t="n">
         <v>-8.42</v>
       </c>
       <c r="V104" t="n">
-        <v>52.16</v>
+        <v>53.96</v>
       </c>
       <c r="W104" t="n">
-        <v>33.6</v>
+        <v>33.21</v>
       </c>
       <c r="X104" t="n">
-        <v>-26.7</v>
+        <v>-27</v>
       </c>
       <c r="Y104" t="n">
-        <v>-37.99</v>
+        <v>-36.23</v>
       </c>
       <c r="Z104" t="n">
-        <v>-4.94</v>
+        <v>-4.82</v>
       </c>
       <c r="AA104" t="n">
-        <v>4.03</v>
+        <v>4.13</v>
       </c>
       <c r="AB104" t="n">
-        <v>12.64</v>
+        <v>10.32</v>
       </c>
       <c r="AC104" t="n">
-        <v>39.65</v>
+        <v>39.16</v>
       </c>
       <c r="AD104" t="n">
-        <v>65.43</v>
+        <v>65.25</v>
       </c>
       <c r="AE104" t="n">
-        <v>39.43</v>
+        <v>39.87</v>
       </c>
       <c r="AF104" t="n">
-        <v>33.9</v>
+        <v>32.3</v>
       </c>
       <c r="AG104" t="n">
-        <v>-3.11</v>
+        <v>-0.3</v>
       </c>
       <c r="AH104" t="n">
-        <v>702.88</v>
+        <v>702.85</v>
       </c>
       <c r="AI104" t="n">
-        <v>-6.43</v>
+        <v>-4.19</v>
       </c>
       <c r="AJ104" t="n">
         <v>72.17</v>
       </c>
       <c r="AK104" t="n">
-        <v>0.63</v>
+        <v>-10.49</v>
       </c>
       <c r="AL104" t="n">
-        <v>9.03</v>
+        <v>11.95</v>
       </c>
       <c r="AM104" t="n">
         <v>10.59</v>
       </c>
       <c r="AN104" t="n">
-        <v>61.18</v>
+        <v>61.82</v>
       </c>
       <c r="AO104" t="n">
-        <v>4.96</v>
+        <v>15.37</v>
       </c>
       <c r="AP104" t="n">
         <v>34.22</v>
       </c>
       <c r="AQ104" t="n">
-        <v>-37.27</v>
+        <v>-37.82</v>
       </c>
       <c r="AR104" t="n">
         <v>-11.67</v>
       </c>
       <c r="AS104" t="n">
-        <v>28.14</v>
+        <v>30.96</v>
       </c>
       <c r="AT104" t="n">
-        <v>-28.76</v>
+        <v>-29.25</v>
       </c>
       <c r="AU104" t="n">
-        <v>3.1</v>
+        <v>4.02</v>
       </c>
       <c r="AV104" t="n">
-        <v>13.72</v>
+        <v>6.83</v>
       </c>
       <c r="AW104" t="n">
-        <v>-4.09</v>
+        <v>-15.55</v>
       </c>
       <c r="AX104" t="n">
-        <v>19.93</v>
+        <v>48.98</v>
       </c>
       <c r="AY104" t="n">
-        <v>14.58</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="105">
@@ -16843,154 +16843,154 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>-22.11</v>
+        <v>-21.62</v>
       </c>
       <c r="C105" t="n">
-        <v>6.91</v>
+        <v>5.45</v>
       </c>
       <c r="D105" t="n">
-        <v>-21.77</v>
+        <v>-21.75</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.45</v>
+        <v>-3.3</v>
       </c>
       <c r="F105" t="n">
-        <v>-58.04</v>
+        <v>-59.69</v>
       </c>
       <c r="G105" t="n">
-        <v>-72.3</v>
+        <v>-72.51</v>
       </c>
       <c r="H105" t="n">
-        <v>44.02</v>
+        <v>40.46</v>
       </c>
       <c r="I105" t="n">
-        <v>0.96</v>
+        <v>4.37</v>
       </c>
       <c r="J105" t="n">
-        <v>16.27</v>
+        <v>13.97</v>
       </c>
       <c r="K105" t="n">
-        <v>-54.93</v>
+        <v>-54.75</v>
       </c>
       <c r="L105" t="n">
-        <v>24.15</v>
+        <v>24.21</v>
       </c>
       <c r="M105" t="n">
-        <v>-15.76</v>
+        <v>-11.67</v>
       </c>
       <c r="N105" t="n">
-        <v>17.24</v>
+        <v>20.82</v>
       </c>
       <c r="O105" t="n">
-        <v>59.62</v>
+        <v>68.78</v>
       </c>
       <c r="P105" t="n">
-        <v>-38.86</v>
+        <v>-39.03</v>
       </c>
       <c r="Q105" t="n">
-        <v>-10.13</v>
+        <v>-10.09</v>
       </c>
       <c r="R105" t="n">
-        <v>16.63</v>
+        <v>16.86</v>
       </c>
       <c r="S105" t="n">
-        <v>217.84</v>
+        <v>219.56</v>
       </c>
       <c r="T105" t="n">
-        <v>48.72</v>
+        <v>50.07</v>
       </c>
       <c r="U105" t="n">
-        <v>-18.17</v>
+        <v>-18.92</v>
       </c>
       <c r="V105" t="n">
-        <v>4.13</v>
+        <v>7.35</v>
       </c>
       <c r="W105" t="n">
-        <v>-46.98</v>
+        <v>-32.71</v>
       </c>
       <c r="X105" t="n">
         <v>9.15</v>
       </c>
       <c r="Y105" t="n">
-        <v>11.14</v>
+        <v>19.36</v>
       </c>
       <c r="Z105" t="n">
-        <v>-1.84</v>
+        <v>-1.91</v>
       </c>
       <c r="AA105" t="n">
-        <v>17.17</v>
+        <v>18.16</v>
       </c>
       <c r="AB105" t="n">
-        <v>-14.58</v>
+        <v>-13.38</v>
       </c>
       <c r="AC105" t="n">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="AD105" t="n">
         <v>79.24</v>
       </c>
       <c r="AE105" t="n">
-        <v>4.05</v>
+        <v>4.8</v>
       </c>
       <c r="AF105" t="n">
-        <v>-27.67</v>
+        <v>-27.94</v>
       </c>
       <c r="AG105" t="n">
-        <v>-29.95</v>
+        <v>-29.21</v>
       </c>
       <c r="AH105" t="n">
-        <v>-29.38</v>
+        <v>-28.66</v>
       </c>
       <c r="AI105" t="n">
-        <v>4.33</v>
+        <v>4.58</v>
       </c>
       <c r="AJ105" t="n">
         <v>106.79</v>
       </c>
       <c r="AK105" t="n">
-        <v>-14.83</v>
+        <v>-18.07</v>
       </c>
       <c r="AL105" t="n">
-        <v>16.5</v>
+        <v>18.05</v>
       </c>
       <c r="AM105" t="n">
-        <v>-3.32</v>
+        <v>-6.87</v>
       </c>
       <c r="AN105" t="n">
-        <v>61.28</v>
+        <v>68.54</v>
       </c>
       <c r="AO105" t="n">
-        <v>6.93</v>
+        <v>8.11</v>
       </c>
       <c r="AP105" t="n">
-        <v>98.86</v>
+        <v>98.87</v>
       </c>
       <c r="AQ105" t="n">
-        <v>-45.84</v>
+        <v>-47.47</v>
       </c>
       <c r="AR105" t="n">
-        <v>-25.57</v>
+        <v>-28.87</v>
       </c>
       <c r="AS105" t="n">
-        <v>30.11</v>
+        <v>29.99</v>
       </c>
       <c r="AT105" t="n">
-        <v>-5.74</v>
+        <v>-6.86</v>
       </c>
       <c r="AU105" t="n">
-        <v>-2.41</v>
+        <v>-1.7</v>
       </c>
       <c r="AV105" t="n">
-        <v>156.28</v>
+        <v>36.15</v>
       </c>
       <c r="AW105" t="n">
-        <v>-9.98</v>
+        <v>-6.49</v>
       </c>
       <c r="AX105" t="n">
-        <v>2.49</v>
+        <v>0.41</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.44</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="106">
@@ -16998,154 +16998,154 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>33.51</v>
+        <v>34.48</v>
       </c>
       <c r="C106" t="n">
-        <v>81.67</v>
+        <v>77.07</v>
       </c>
       <c r="D106" t="n">
-        <v>43.36</v>
+        <v>43.38</v>
       </c>
       <c r="E106" t="n">
-        <v>2.09</v>
+        <v>3.82</v>
       </c>
       <c r="F106" t="n">
-        <v>-8.96</v>
+        <v>-13.64</v>
       </c>
       <c r="G106" t="n">
-        <v>19.5</v>
+        <v>24.52</v>
       </c>
       <c r="H106" t="n">
-        <v>16.66</v>
+        <v>11.39</v>
       </c>
       <c r="I106" t="n">
-        <v>-7.11</v>
+        <v>-7.36</v>
       </c>
       <c r="J106" t="n">
-        <v>-4.95</v>
+        <v>-4.39</v>
       </c>
       <c r="K106" t="n">
-        <v>-63.56</v>
+        <v>-63.34</v>
       </c>
       <c r="L106" t="n">
-        <v>8.47</v>
+        <v>0.92</v>
       </c>
       <c r="M106" t="n">
-        <v>-12.88</v>
+        <v>-12.06</v>
       </c>
       <c r="N106" t="n">
-        <v>-33.12</v>
+        <v>-34.07</v>
       </c>
       <c r="O106" t="n">
-        <v>526.33</v>
+        <v>505.92</v>
       </c>
       <c r="P106" t="n">
-        <v>-5.9</v>
+        <v>-4.24</v>
       </c>
       <c r="Q106" t="n">
-        <v>-8.59</v>
+        <v>-28.92</v>
       </c>
       <c r="R106" t="n">
-        <v>-35.76</v>
+        <v>-35.41</v>
       </c>
       <c r="S106" t="n">
-        <v>53.91</v>
+        <v>56.93</v>
       </c>
       <c r="T106" t="n">
-        <v>11.97</v>
+        <v>11.98</v>
       </c>
       <c r="U106" t="n">
-        <v>-26.77</v>
+        <v>-29.79</v>
       </c>
       <c r="V106" t="n">
-        <v>69.11</v>
+        <v>56.35</v>
       </c>
       <c r="W106" t="n">
-        <v>-11.75</v>
+        <v>9.13</v>
       </c>
       <c r="X106" t="n">
-        <v>44.84</v>
+        <v>27.28</v>
       </c>
       <c r="Y106" t="n">
-        <v>-40.31</v>
+        <v>-38.92</v>
       </c>
       <c r="Z106" t="n">
-        <v>20.17</v>
+        <v>19.86</v>
       </c>
       <c r="AA106" t="n">
-        <v>-21.67</v>
+        <v>-21.9</v>
       </c>
       <c r="AB106" t="n">
-        <v>18.71</v>
+        <v>19.55</v>
       </c>
       <c r="AC106" t="n">
-        <v>64.86</v>
+        <v>61.71</v>
       </c>
       <c r="AD106" t="n">
-        <v>53.73</v>
+        <v>53.41</v>
       </c>
       <c r="AE106" t="n">
-        <v>56.3</v>
+        <v>51.44</v>
       </c>
       <c r="AF106" t="n">
-        <v>3.94</v>
+        <v>2.74</v>
       </c>
       <c r="AG106" t="n">
-        <v>-7.12</v>
+        <v>-6.53</v>
       </c>
       <c r="AH106" t="n">
-        <v>-25.67</v>
+        <v>-23.46</v>
       </c>
       <c r="AI106" t="n">
-        <v>19.65</v>
+        <v>20.2</v>
       </c>
       <c r="AJ106" t="n">
-        <v>118.45</v>
+        <v>117.63</v>
       </c>
       <c r="AK106" t="n">
-        <v>-55.67</v>
+        <v>-57.15</v>
       </c>
       <c r="AL106" t="n">
-        <v>44.94</v>
+        <v>36.53</v>
       </c>
       <c r="AM106" t="n">
-        <v>56.1</v>
+        <v>40.65</v>
       </c>
       <c r="AN106" t="n">
-        <v>-2.27</v>
+        <v>1.59</v>
       </c>
       <c r="AO106" t="n">
-        <v>15.21</v>
+        <v>15.55</v>
       </c>
       <c r="AP106" t="n">
-        <v>-24.83</v>
+        <v>-26.35</v>
       </c>
       <c r="AQ106" t="n">
-        <v>-2.37</v>
+        <v>-5.82</v>
       </c>
       <c r="AR106" t="n">
-        <v>86.01</v>
+        <v>3.25</v>
       </c>
       <c r="AS106" t="n">
-        <v>64.07</v>
+        <v>70.04</v>
       </c>
       <c r="AT106" t="n">
-        <v>3.75</v>
+        <v>-1.73</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.07</v>
+        <v>1.8</v>
       </c>
       <c r="AV106" t="n">
-        <v>80.86</v>
+        <v>9.2</v>
       </c>
       <c r="AW106" t="n">
-        <v>29.63</v>
+        <v>0.05</v>
       </c>
       <c r="AX106" t="n">
-        <v>25.09</v>
+        <v>18.84</v>
       </c>
       <c r="AY106" t="n">
-        <v>41.83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
@@ -17308,16 +17308,16 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-19.77</v>
+        <v>-17.86</v>
       </c>
       <c r="C108" t="n">
         <v>-4.26</v>
       </c>
       <c r="D108" t="n">
-        <v>17.76</v>
+        <v>21.48</v>
       </c>
       <c r="E108" t="n">
-        <v>-10.71</v>
+        <v>-10.67</v>
       </c>
       <c r="F108" t="n">
         <v>102.36</v>
@@ -17332,61 +17332,61 @@
         <v>20.49</v>
       </c>
       <c r="J108" t="n">
-        <v>-28.49</v>
+        <v>-17.39</v>
       </c>
       <c r="K108" t="n">
-        <v>-52.49</v>
+        <v>-47.43</v>
       </c>
       <c r="L108" t="n">
-        <v>-41.96</v>
+        <v>-37.17</v>
       </c>
       <c r="M108" t="n">
-        <v>-6.69</v>
+        <v>-3.93</v>
       </c>
       <c r="N108" t="n">
-        <v>-34.96</v>
+        <v>-32.61</v>
       </c>
       <c r="O108" t="n">
-        <v>5.1</v>
+        <v>50.31</v>
       </c>
       <c r="P108" t="n">
-        <v>-14.12</v>
+        <v>-15.84</v>
       </c>
       <c r="Q108" t="n">
-        <v>3.42</v>
+        <v>27.39</v>
       </c>
       <c r="R108" t="n">
-        <v>-14.19</v>
+        <v>-21.41</v>
       </c>
       <c r="S108" t="n">
-        <v>1.29</v>
+        <v>23.63</v>
       </c>
       <c r="T108" t="n">
-        <v>33.79</v>
+        <v>38.38</v>
       </c>
       <c r="U108" t="n">
         <v>30</v>
       </c>
       <c r="V108" t="n">
-        <v>-23.34</v>
+        <v>-11.08</v>
       </c>
       <c r="W108" t="n">
-        <v>-1.57</v>
+        <v>-2.18</v>
       </c>
       <c r="X108" t="n">
         <v>236.94</v>
       </c>
       <c r="Y108" t="n">
-        <v>33.42</v>
+        <v>30.07</v>
       </c>
       <c r="Z108" t="n">
-        <v>16.86</v>
+        <v>17.89</v>
       </c>
       <c r="AA108" t="n">
-        <v>-42.12</v>
+        <v>-31.8</v>
       </c>
       <c r="AB108" t="n">
-        <v>-21.21</v>
+        <v>-23.31</v>
       </c>
       <c r="AC108" t="n">
         <v>19.11</v>
@@ -17395,19 +17395,19 @@
         <v>9.07</v>
       </c>
       <c r="AE108" t="n">
-        <v>61.74</v>
+        <v>69.42</v>
       </c>
       <c r="AF108" t="n">
         <v>2.54</v>
       </c>
       <c r="AG108" t="n">
-        <v>21.11</v>
+        <v>10.78</v>
       </c>
       <c r="AH108" t="n">
-        <v>708.73</v>
+        <v>709.07</v>
       </c>
       <c r="AI108" t="n">
-        <v>-20</v>
+        <v>-26.75</v>
       </c>
       <c r="AJ108" t="n">
         <v>48.06</v>
@@ -17416,16 +17416,16 @@
         <v>-24.28</v>
       </c>
       <c r="AL108" t="n">
-        <v>25.77</v>
+        <v>40.32</v>
       </c>
       <c r="AM108" t="n">
         <v>25.55</v>
       </c>
       <c r="AN108" t="n">
-        <v>-32.16</v>
+        <v>-31.15</v>
       </c>
       <c r="AO108" t="n">
-        <v>20.3</v>
+        <v>15.07</v>
       </c>
       <c r="AP108" t="n">
         <v>-9.54</v>
@@ -17437,25 +17437,645 @@
         <v>-33.16</v>
       </c>
       <c r="AS108" t="n">
-        <v>103.29</v>
+        <v>104.22</v>
       </c>
       <c r="AT108" t="n">
         <v>-22.2</v>
       </c>
       <c r="AU108" t="n">
-        <v>-0.95</v>
+        <v>2.14</v>
       </c>
       <c r="AV108" t="n">
         <v>21.17</v>
       </c>
       <c r="AW108" t="n">
-        <v>30.47</v>
+        <v>46.87</v>
       </c>
       <c r="AX108" t="n">
-        <v>36.86</v>
+        <v>38.19</v>
       </c>
       <c r="AY108" t="n">
-        <v>27.52</v>
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B109" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-26.49</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-39.51</v>
+      </c>
+      <c r="E109" t="n">
+        <v>30.32</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-65.39</v>
+      </c>
+      <c r="G109" t="n">
+        <v>490.77</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-41.49</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-22.57</v>
+      </c>
+      <c r="J109" t="n">
+        <v>274.06</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-48.46</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M109" t="n">
+        <v>45.51</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>67.39</v>
+      </c>
+      <c r="P109" t="n">
+        <v>182.03</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>101.04</v>
+      </c>
+      <c r="R109" t="n">
+        <v>-16.99</v>
+      </c>
+      <c r="S109" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="T109" t="n">
+        <v>54.01</v>
+      </c>
+      <c r="U109" t="n">
+        <v>-43.03</v>
+      </c>
+      <c r="V109" t="n">
+        <v>68.59</v>
+      </c>
+      <c r="W109" t="n">
+        <v>-49.61</v>
+      </c>
+      <c r="X109" t="n">
+        <v>42.83</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>96.98</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>-19.7</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>48.33</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>56.08</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>221.62</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>84.28</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>57.29</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>70.85</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>56.17</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>31.88</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>-73.79</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B110" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-18.18</v>
+      </c>
+      <c r="D110" t="n">
+        <v>167.47</v>
+      </c>
+      <c r="E110" t="n">
+        <v>19.87</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-57.21</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-21.51</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-6.89</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-27.71</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-63.96</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-46.24</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-30.98</v>
+      </c>
+      <c r="M110" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-68.04</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="P110" t="n">
+        <v>61.93</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="S110" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="T110" t="n">
+        <v>66.16</v>
+      </c>
+      <c r="U110" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="V110" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="W110" t="n">
+        <v>-36.16</v>
+      </c>
+      <c r="X110" t="n">
+        <v>276.87</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>51.46</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>-16.56</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>-16.41</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>53.99</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1276.69</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>120.65</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>-8.09</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>19.61</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>-26.48</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>82.85</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>20.19</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>41.69</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-19.51</v>
+      </c>
+      <c r="C111" t="n">
+        <v>53.52</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-16.09</v>
+      </c>
+      <c r="E111" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-60.68</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-74.96</v>
+      </c>
+      <c r="H111" t="n">
+        <v>40.94</v>
+      </c>
+      <c r="I111" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-10.28</v>
+      </c>
+      <c r="K111" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-12.61</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-13.52</v>
+      </c>
+      <c r="O111" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="P111" t="n">
+        <v>68.36</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-19.05</v>
+      </c>
+      <c r="R111" t="n">
+        <v>33.18</v>
+      </c>
+      <c r="S111" t="n">
+        <v>38.16</v>
+      </c>
+      <c r="T111" t="n">
+        <v>46.12</v>
+      </c>
+      <c r="U111" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="V111" t="n">
+        <v>63.26</v>
+      </c>
+      <c r="W111" t="n">
+        <v>39.56</v>
+      </c>
+      <c r="X111" t="n">
+        <v>18.59</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>64.53</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>-42.9</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>-73.25</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>15.81</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>-33.25</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>-88.02</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>282.78</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>-6.13</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>53.41</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>-43.77</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>64.91</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>32.87</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>210.64</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>58.24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B112" t="n">
+        <v>16.99</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-27.09</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-33.74</v>
+      </c>
+      <c r="E112" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-30.16</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-81.66</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-46.85</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-18.44</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-45.11</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-36.49</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-5.63</v>
+      </c>
+      <c r="P112" t="n">
+        <v>63.04</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-48.84</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-17.06</v>
+      </c>
+      <c r="T112" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="U112" t="n">
+        <v>85.44</v>
+      </c>
+      <c r="V112" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="W112" t="n">
+        <v>-25.74</v>
+      </c>
+      <c r="X112" t="n">
+        <v>173.19</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>-9.18</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>37.74</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>-17.2</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>40.92</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>53.04</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>77.52</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>30.59</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>59.14</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>54.87</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>47.13</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>-10.75</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>21.27</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>-27.34</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>49.73</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>-17.76</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>394.95</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>-31.12</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>244.44</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>94.31</v>
       </c>
     </row>
   </sheetData>
@@ -33293,7 +33913,7 @@
         <v>0.06</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.47</v>
+        <v>-1.53</v>
       </c>
       <c r="E103" t="n">
         <v>0.02</v>
@@ -33305,7 +33925,7 @@
         <v>-0.69</v>
       </c>
       <c r="H103" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="I103" t="n">
         <v>1.15</v>
@@ -33317,7 +33937,7 @@
         <v>-0.03</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.81</v>
+        <v>-0.8</v>
       </c>
       <c r="M103" t="n">
         <v>-0.04</v>
@@ -33326,13 +33946,13 @@
         <v>-0.01</v>
       </c>
       <c r="O103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="P103" t="n">
         <v>-0.03</v>
       </c>
-      <c r="P103" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Q103" t="n">
-        <v>-2.06</v>
+        <v>-2.02</v>
       </c>
       <c r="R103" t="n">
         <v>-0.09</v>
@@ -33341,10 +33961,10 @@
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="U103" t="n">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="V103" t="n">
         <v>0.17</v>
@@ -33356,7 +33976,7 @@
         <v>-0.14</v>
       </c>
       <c r="Y103" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="Z103" t="n">
         <v>-0.01</v>
@@ -33365,16 +33985,16 @@
         <v>-0.03</v>
       </c>
       <c r="AB103" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="AC103" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AF103" t="n">
         <v>0.02</v>
@@ -33383,7 +34003,7 @@
         <v>-0.04</v>
       </c>
       <c r="AH103" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AI103" t="n">
         <v>-0.09</v>
@@ -33395,7 +34015,7 @@
         <v>0.01</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
       <c r="AM103" t="n">
         <v>0.01</v>
@@ -33416,25 +34036,25 @@
         <v>-0.04</v>
       </c>
       <c r="AS103" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="AT103" t="n">
-        <v>-6.65</v>
+        <v>-6.68</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="AV103" t="n">
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
       <c r="AW103" t="n">
         <v>0.01</v>
       </c>
       <c r="AX103" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="AY103" t="n">
-        <v>-8.71</v>
+        <v>-8.94</v>
       </c>
     </row>
     <row r="104">
@@ -33445,22 +34065,22 @@
         <v>-0.12</v>
       </c>
       <c r="C104" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="D104" t="n">
-        <v>-5.04</v>
+        <v>-5.03</v>
       </c>
       <c r="E104" t="n">
         <v>0.01</v>
       </c>
       <c r="F104" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="H104" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I104" t="n">
         <v>0.52</v>
@@ -33472,25 +34092,25 @@
         <v>-0.21</v>
       </c>
       <c r="L104" t="n">
-        <v>4.62</v>
+        <v>4.67</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N104" t="n">
         <v>-0.01</v>
       </c>
       <c r="O104" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="P104" t="n">
         <v>-0.03</v>
       </c>
       <c r="Q104" t="n">
-        <v>-0.99</v>
+        <v>-1</v>
       </c>
       <c r="R104" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="S104" t="n">
         <v>0.22</v>
@@ -33502,13 +34122,13 @@
         <v>-0.03</v>
       </c>
       <c r="V104" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="W104" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="X104" t="n">
-        <v>-0.12</v>
+        <v>-0.13</v>
       </c>
       <c r="Y104" t="n">
         <v>-0.02</v>
@@ -33523,34 +34143,34 @@
         <v>0</v>
       </c>
       <c r="AC104" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="AD104" t="n">
         <v>0.44</v>
       </c>
       <c r="AE104" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="AF104" t="n">
         <v>0.04</v>
       </c>
       <c r="AG104" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="AH104" t="n">
         <v>1.67</v>
       </c>
       <c r="AI104" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ104" t="n">
         <v>0.2</v>
       </c>
       <c r="AK104" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="AL104" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AM104" t="n">
         <v>0.04</v>
@@ -33559,7 +34179,7 @@
         <v>0.05</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AP104" t="n">
         <v>0.04</v>
@@ -33571,25 +34191,25 @@
         <v>-0.03</v>
       </c>
       <c r="AS104" t="n">
-        <v>7.26</v>
+        <v>7.98</v>
       </c>
       <c r="AT104" t="n">
-        <v>-3.31</v>
+        <v>-3.36</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="AV104" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AW104" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
       <c r="AX104" t="n">
-        <v>0.62</v>
+        <v>1.53</v>
       </c>
       <c r="AY104" t="n">
-        <v>14.58</v>
+        <v>16.15</v>
       </c>
     </row>
     <row r="105">
@@ -33597,10 +34217,10 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C105" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D105" t="n">
         <v>-2.52</v>
@@ -33609,16 +34229,16 @@
         <v>-0.01</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="G105" t="n">
         <v>-1.2</v>
       </c>
       <c r="H105" t="n">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="I105" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="J105" t="n">
         <v>0.01</v>
@@ -33630,13 +34250,13 @@
         <v>1.84</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.05</v>
+        <v>-0.04</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="P105" t="n">
         <v>-0.06</v>
@@ -33654,19 +34274,19 @@
         <v>0.1</v>
       </c>
       <c r="U105" t="n">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="V105" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="W105" t="n">
-        <v>-1.12</v>
+        <v>-0.78</v>
       </c>
       <c r="X105" t="n">
         <v>0.03</v>
       </c>
       <c r="Y105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z105" t="n">
         <v>0</v>
@@ -33678,22 +34298,22 @@
         <v>0</v>
       </c>
       <c r="AC105" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AD105" t="n">
         <v>0.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.05</v>
       </c>
       <c r="AG105" t="n">
-        <v>-0.27</v>
+        <v>-0.26</v>
       </c>
       <c r="AH105" t="n">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="AI105" t="n">
         <v>0.01</v>
@@ -33702,49 +34322,49 @@
         <v>0.18</v>
       </c>
       <c r="AK105" t="n">
-        <v>-0.06</v>
+        <v>-0.07</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="AM105" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AN105" t="n">
         <v>0.02</v>
       </c>
       <c r="AO105" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AP105" t="n">
         <v>0.12</v>
       </c>
       <c r="AQ105" t="n">
-        <v>-0.29</v>
+        <v>-0.3</v>
       </c>
       <c r="AR105" t="n">
-        <v>-0.08</v>
+        <v>-0.09</v>
       </c>
       <c r="AS105" t="n">
-        <v>9.56</v>
+        <v>9.52</v>
       </c>
       <c r="AT105" t="n">
-        <v>-0.46</v>
+        <v>-0.55</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="AV105" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="AW105" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="AX105" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.44</v>
+        <v>7.78</v>
       </c>
     </row>
     <row r="106">
@@ -33755,25 +34375,25 @@
         <v>0.08</v>
       </c>
       <c r="C106" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="D106" t="n">
         <v>5.12</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="G106" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I106" t="n">
-        <v>-0.35</v>
+        <v>-0.37</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -33782,7 +34402,7 @@
         <v>-0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>0.89</v>
+        <v>0.1</v>
       </c>
       <c r="M106" t="n">
         <v>-0.04</v>
@@ -33791,13 +34411,13 @@
         <v>-0.01</v>
       </c>
       <c r="O106" t="n">
-        <v>8.91</v>
+        <v>8.56</v>
       </c>
       <c r="P106" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>-0.32</v>
+        <v>-1.09</v>
       </c>
       <c r="R106" t="n">
         <v>-0.1</v>
@@ -33809,16 +34429,16 @@
         <v>0.03</v>
       </c>
       <c r="U106" t="n">
-        <v>-0.1</v>
+        <v>-0.11</v>
       </c>
       <c r="V106" t="n">
-        <v>1.84</v>
+        <v>1.5</v>
       </c>
       <c r="W106" t="n">
-        <v>-0.18</v>
+        <v>0.14</v>
       </c>
       <c r="X106" t="n">
-        <v>0.12</v>
+        <v>0.07</v>
       </c>
       <c r="Y106" t="n">
         <v>-0.03</v>
@@ -33833,13 +34453,13 @@
         <v>0</v>
       </c>
       <c r="AC106" t="n">
-        <v>0.69</v>
+        <v>0.66</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="AE106" t="n">
-        <v>5.72</v>
+        <v>5.23</v>
       </c>
       <c r="AF106" t="n">
         <v>0</v>
@@ -33848,7 +34468,7 @@
         <v>-0.07</v>
       </c>
       <c r="AH106" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="AI106" t="n">
         <v>0.04</v>
@@ -33857,13 +34477,13 @@
         <v>0.16</v>
       </c>
       <c r="AK106" t="n">
-        <v>-0.37</v>
+        <v>-0.38</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="AM106" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="AN106" t="n">
         <v>0</v>
@@ -33875,31 +34495,31 @@
         <v>-0.04</v>
       </c>
       <c r="AQ106" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AR106" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="AS106" t="n">
-        <v>17.12</v>
+        <v>18.71</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.27</v>
+        <v>-0.12</v>
       </c>
       <c r="AU106" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AW106" t="n">
         <v>0</v>
       </c>
-      <c r="AV106" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AW106" t="n">
-        <v>0.07</v>
-      </c>
       <c r="AX106" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="AY106" t="n">
-        <v>41.83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107">
@@ -34068,7 +34688,7 @@
         <v>-0.02</v>
       </c>
       <c r="D108" t="n">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="E108" t="n">
         <v>-0.02</v>
@@ -34089,43 +34709,43 @@
         <v>-0.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.25</v>
+        <v>-0.23</v>
       </c>
       <c r="L108" t="n">
-        <v>-5.53</v>
+        <v>-4.89</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="N108" t="n">
         <v>-0.01</v>
       </c>
       <c r="O108" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="P108" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.1</v>
+        <v>0.83</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.04</v>
+        <v>-0.07</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T108" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="U108" t="n">
         <v>0.09</v>
       </c>
       <c r="V108" t="n">
-        <v>-0.9</v>
+        <v>-0.43</v>
       </c>
       <c r="W108" t="n">
-        <v>-0.02</v>
+        <v>-0.03</v>
       </c>
       <c r="X108" t="n">
         <v>1.15</v>
@@ -34149,19 +34769,19 @@
         <v>0.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>4.97</v>
+        <v>5.58</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AH108" t="n">
         <v>1.9</v>
       </c>
       <c r="AI108" t="n">
-        <v>-0.07</v>
+        <v>-0.1</v>
       </c>
       <c r="AJ108" t="n">
         <v>0.19</v>
@@ -34170,7 +34790,7 @@
         <v>-0.11</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="AM108" t="n">
         <v>0.11</v>
@@ -34179,7 +34799,7 @@
         <v>-0.04</v>
       </c>
       <c r="AO108" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AP108" t="n">
         <v>-0.01</v>
@@ -34191,25 +34811,645 @@
         <v>-0.1</v>
       </c>
       <c r="AS108" t="n">
-        <v>25.54</v>
+        <v>25.77</v>
       </c>
       <c r="AT108" t="n">
         <v>-2.37</v>
       </c>
       <c r="AU108" t="n">
-        <v>-0.03</v>
+        <v>0.06</v>
       </c>
       <c r="AV108" t="n">
         <v>0.03</v>
       </c>
       <c r="AW108" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>31.34</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="R109" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U109" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W109" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AI109" t="n">
         <v>0.07</v>
       </c>
-      <c r="AX108" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AY108" t="n">
-        <v>27.52</v>
+      <c r="AJ109" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>17.27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C110" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="K110" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="L110" t="n">
+        <v>-3.31</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="R110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W110" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>36.83</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L111" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>54.9</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>58.24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="C112" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3.23</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W112" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>105.68</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>94.31</v>
       </c>
     </row>
   </sheetData>
@@ -55471,199 +56711,199 @@
         <v>45444</v>
       </c>
       <c r="B115" t="n">
-        <v>-25.18</v>
+        <v>-24.14</v>
       </c>
       <c r="C115" t="n">
-        <v>-7.26</v>
+        <v>-6.98</v>
       </c>
       <c r="D115" t="n">
-        <v>-8.81</v>
+        <v>-9.25</v>
       </c>
       <c r="E115" t="n">
-        <v>-10.11</v>
+        <v>-9.32</v>
       </c>
       <c r="F115" t="n">
-        <v>-7.75</v>
+        <v>-7.23</v>
       </c>
       <c r="G115" t="n">
-        <v>9.56</v>
+        <v>11.23</v>
       </c>
       <c r="H115" t="n">
-        <v>6.03</v>
+        <v>14.92</v>
       </c>
       <c r="I115" t="n">
-        <v>4.58</v>
+        <v>2.2</v>
       </c>
       <c r="J115" t="n">
-        <v>-10.77</v>
+        <v>-9.33</v>
       </c>
       <c r="K115" t="n">
-        <v>-2.71</v>
+        <v>-2.69</v>
       </c>
       <c r="L115" t="n">
-        <v>19.2</v>
+        <v>19.44</v>
       </c>
       <c r="M115" t="n">
         <v>-30.55</v>
       </c>
       <c r="N115" t="n">
-        <v>-7.02</v>
+        <v>-7</v>
       </c>
       <c r="O115" t="n">
-        <v>-64</v>
+        <v>-60.99</v>
       </c>
       <c r="P115" t="n">
-        <v>60.03</v>
+        <v>60.95</v>
       </c>
       <c r="Q115" t="n">
-        <v>-12.38</v>
+        <v>-11.29</v>
       </c>
       <c r="R115" t="n">
-        <v>27.23</v>
+        <v>28.91</v>
       </c>
       <c r="S115" t="n">
         <v>-19.04</v>
       </c>
       <c r="T115" t="n">
-        <v>-3.28</v>
+        <v>-4.31</v>
       </c>
       <c r="U115" t="n">
-        <v>39.02</v>
+        <v>21.05</v>
       </c>
       <c r="V115" t="n">
-        <v>-16.22</v>
+        <v>-16.11</v>
       </c>
       <c r="W115" t="n">
-        <v>-27.59</v>
+        <v>-27.36</v>
       </c>
       <c r="X115" t="n">
-        <v>-75.66</v>
+        <v>-75.67</v>
       </c>
       <c r="Y115" t="n">
-        <v>219.32</v>
+        <v>219.54</v>
       </c>
       <c r="Z115" t="n">
         <v>-55.65</v>
       </c>
       <c r="AA115" t="n">
-        <v>-4.64</v>
+        <v>-4.77</v>
       </c>
       <c r="AB115" t="n">
-        <v>0.63</v>
+        <v>-3.12</v>
       </c>
       <c r="AC115" t="n">
-        <v>-31.11</v>
+        <v>-30.95</v>
       </c>
       <c r="AD115" t="n">
-        <v>-27.31</v>
+        <v>-27.42</v>
       </c>
       <c r="AE115" t="n">
-        <v>-53.77</v>
+        <v>-55.42</v>
       </c>
       <c r="AF115" t="n">
-        <v>-3.3</v>
+        <v>-11.15</v>
       </c>
       <c r="AG115" t="n">
-        <v>-5.11</v>
+        <v>-5.07</v>
       </c>
       <c r="AH115" t="n">
-        <v>-7.47</v>
+        <v>-7.8</v>
       </c>
       <c r="AI115" t="n">
-        <v>114.8</v>
+        <v>104.17</v>
       </c>
       <c r="AJ115" t="n">
-        <v>-18.39</v>
+        <v>-17.95</v>
       </c>
       <c r="AK115" t="n">
-        <v>-21.58</v>
+        <v>-22.66</v>
       </c>
       <c r="AL115" t="n">
-        <v>-18.87</v>
+        <v>-19.67</v>
       </c>
       <c r="AM115" t="n">
-        <v>100.76</v>
+        <v>116.8</v>
       </c>
       <c r="AN115" t="n">
-        <v>-11.79</v>
+        <v>-10.76</v>
       </c>
       <c r="AO115" t="n">
-        <v>-10.95</v>
+        <v>-12.13</v>
       </c>
       <c r="AP115" t="n">
-        <v>-18.32</v>
+        <v>-18.1</v>
       </c>
       <c r="AQ115" t="n">
-        <v>3.02</v>
+        <v>1.58</v>
       </c>
       <c r="AR115" t="n">
-        <v>-8.26</v>
+        <v>-8.19</v>
       </c>
       <c r="AS115" t="n">
-        <v>48.33</v>
+        <v>45.79</v>
       </c>
       <c r="AT115" t="n">
-        <v>-7.92</v>
+        <v>-12.18</v>
       </c>
       <c r="AU115" t="n">
-        <v>0.58</v>
+        <v>2.14</v>
       </c>
       <c r="AV115" t="n">
-        <v>-36.54</v>
+        <v>-36.76</v>
       </c>
       <c r="AW115" t="n">
-        <v>88.12</v>
+        <v>86.33</v>
       </c>
       <c r="AX115" t="n">
-        <v>-19.12</v>
+        <v>-22.17</v>
       </c>
       <c r="AY115" t="n">
-        <v>-15.44</v>
+        <v>-19.83</v>
       </c>
       <c r="AZ115" t="n">
-        <v>-5.76</v>
+        <v>-5.75</v>
       </c>
       <c r="BA115" t="n">
-        <v>9.51</v>
+        <v>9.28</v>
       </c>
       <c r="BB115" t="n">
-        <v>56.61</v>
+        <v>57.02</v>
       </c>
       <c r="BC115" t="n">
-        <v>-29.65</v>
+        <v>-27.45</v>
       </c>
       <c r="BD115" t="n">
         <v>-11.43</v>
       </c>
       <c r="BE115" t="n">
-        <v>18.85</v>
+        <v>16.82</v>
       </c>
       <c r="BF115" t="n">
-        <v>-9.27</v>
+        <v>-11.04</v>
       </c>
       <c r="BG115" t="n">
-        <v>-21.39</v>
+        <v>-22.19</v>
       </c>
       <c r="BH115" t="n">
-        <v>7.95</v>
+        <v>1.75</v>
       </c>
       <c r="BI115" t="n">
-        <v>28.2</v>
+        <v>61.05</v>
       </c>
       <c r="BJ115" t="n">
-        <v>-2.53</v>
+        <v>-2.94</v>
       </c>
       <c r="BK115" t="n">
-        <v>-24.07</v>
+        <v>-24.12</v>
       </c>
       <c r="BL115" t="n">
-        <v>-2.81</v>
+        <v>-2.98</v>
       </c>
       <c r="BM115" t="n">
-        <v>-76.47</v>
+        <v>-77.28</v>
       </c>
       <c r="BN115" t="n">
-        <v>-76.47</v>
+        <v>-77.28</v>
       </c>
     </row>
     <row r="116">
@@ -55671,199 +56911,199 @@
         <v>45474</v>
       </c>
       <c r="B116" t="n">
-        <v>38.91</v>
+        <v>32.07</v>
       </c>
       <c r="C116" t="n">
-        <v>4.66</v>
+        <v>5.32</v>
       </c>
       <c r="D116" t="n">
-        <v>12.85</v>
+        <v>11.77</v>
       </c>
       <c r="E116" t="n">
-        <v>46.36</v>
+        <v>45.37</v>
       </c>
       <c r="F116" t="n">
-        <v>14.02</v>
+        <v>13.28</v>
       </c>
       <c r="G116" t="n">
-        <v>21.4</v>
+        <v>23.95</v>
       </c>
       <c r="H116" t="n">
-        <v>6.48</v>
+        <v>5</v>
       </c>
       <c r="I116" t="n">
-        <v>21.85</v>
+        <v>22.42</v>
       </c>
       <c r="J116" t="n">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="K116" t="n">
-        <v>11.71</v>
+        <v>12.5</v>
       </c>
       <c r="L116" t="n">
-        <v>31.78</v>
+        <v>31.13</v>
       </c>
       <c r="M116" t="n">
         <v>11517.45</v>
       </c>
       <c r="N116" t="n">
-        <v>-1.62</v>
+        <v>-2.57</v>
       </c>
       <c r="O116" t="n">
-        <v>-45.35</v>
+        <v>-46.62</v>
       </c>
       <c r="P116" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="Q116" t="n">
-        <v>60.38</v>
+        <v>61.68</v>
       </c>
       <c r="R116" t="n">
-        <v>35.49</v>
+        <v>36.15</v>
       </c>
       <c r="S116" t="n">
-        <v>-17.35</v>
+        <v>-16.9</v>
       </c>
       <c r="T116" t="n">
-        <v>22.87</v>
+        <v>23.47</v>
       </c>
       <c r="U116" t="n">
-        <v>18.67</v>
+        <v>18.88</v>
       </c>
       <c r="V116" t="n">
-        <v>16.75</v>
+        <v>19.96</v>
       </c>
       <c r="W116" t="n">
-        <v>-8.33</v>
+        <v>-7.85</v>
       </c>
       <c r="X116" t="n">
-        <v>-23.32</v>
+        <v>-23.23</v>
       </c>
       <c r="Y116" t="n">
-        <v>-29.06</v>
+        <v>-29.15</v>
       </c>
       <c r="Z116" t="n">
         <v>-96.79</v>
       </c>
       <c r="AA116" t="n">
-        <v>11.96</v>
+        <v>15.15</v>
       </c>
       <c r="AB116" t="n">
-        <v>31.96</v>
+        <v>33.8</v>
       </c>
       <c r="AC116" t="n">
-        <v>-31.35</v>
+        <v>-60.44</v>
       </c>
       <c r="AD116" t="n">
-        <v>36.54</v>
+        <v>36.24</v>
       </c>
       <c r="AE116" t="n">
-        <v>323.52</v>
+        <v>322.7</v>
       </c>
       <c r="AF116" t="n">
-        <v>-9.48</v>
+        <v>-11.62</v>
       </c>
       <c r="AG116" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="AH116" t="n">
-        <v>24.18</v>
+        <v>23.92</v>
       </c>
       <c r="AI116" t="n">
-        <v>116.72</v>
+        <v>161.14</v>
       </c>
       <c r="AJ116" t="n">
-        <v>29.5</v>
+        <v>30.52</v>
       </c>
       <c r="AK116" t="n">
-        <v>0.12</v>
+        <v>-0.5</v>
       </c>
       <c r="AL116" t="n">
-        <v>-9.33</v>
+        <v>-9.66</v>
       </c>
       <c r="AM116" t="n">
-        <v>63.02</v>
+        <v>71.07</v>
       </c>
       <c r="AN116" t="n">
-        <v>12.96</v>
+        <v>13.99</v>
       </c>
       <c r="AO116" t="n">
-        <v>-1.92</v>
+        <v>-1.79</v>
       </c>
       <c r="AP116" t="n">
-        <v>8.85</v>
+        <v>8.34</v>
       </c>
       <c r="AQ116" t="n">
-        <v>42.88</v>
+        <v>33.02</v>
       </c>
       <c r="AR116" t="n">
-        <v>10.16</v>
+        <v>12.63</v>
       </c>
       <c r="AS116" t="n">
-        <v>15.41</v>
+        <v>8.9</v>
       </c>
       <c r="AT116" t="n">
-        <v>12.7</v>
+        <v>11.33</v>
       </c>
       <c r="AU116" t="n">
-        <v>13.4</v>
+        <v>13.16</v>
       </c>
       <c r="AV116" t="n">
-        <v>-10.72</v>
+        <v>-11.97</v>
       </c>
       <c r="AW116" t="n">
-        <v>-6.3</v>
+        <v>-6.07</v>
       </c>
       <c r="AX116" t="n">
-        <v>-7.86</v>
+        <v>-9.49</v>
       </c>
       <c r="AY116" t="n">
-        <v>14.38</v>
+        <v>9.19</v>
       </c>
       <c r="AZ116" t="n">
-        <v>62.28</v>
+        <v>65.01</v>
       </c>
       <c r="BA116" t="n">
-        <v>36.31</v>
+        <v>28.74</v>
       </c>
       <c r="BB116" t="n">
-        <v>62.36</v>
+        <v>61.81</v>
       </c>
       <c r="BC116" t="n">
-        <v>-18.2</v>
+        <v>-20.6</v>
       </c>
       <c r="BD116" t="n">
-        <v>-4.21</v>
+        <v>-4.13</v>
       </c>
       <c r="BE116" t="n">
-        <v>29.6</v>
+        <v>26.9</v>
       </c>
       <c r="BF116" t="n">
-        <v>-4.02</v>
+        <v>-5.54</v>
       </c>
       <c r="BG116" t="n">
-        <v>-31.42</v>
+        <v>-26.35</v>
       </c>
       <c r="BH116" t="n">
-        <v>7.84</v>
+        <v>7.46</v>
       </c>
       <c r="BI116" t="n">
-        <v>2.78</v>
+        <v>10.43</v>
       </c>
       <c r="BJ116" t="n">
-        <v>19.54</v>
+        <v>35.26</v>
       </c>
       <c r="BK116" t="n">
-        <v>-5.81</v>
+        <v>-5.86</v>
       </c>
       <c r="BL116" t="n">
-        <v>19.96</v>
+        <v>19.52</v>
       </c>
       <c r="BM116" t="n">
-        <v>29.93</v>
+        <v>1692.41</v>
       </c>
       <c r="BN116" t="n">
-        <v>29.93</v>
+        <v>1692.41</v>
       </c>
     </row>
     <row r="117">
@@ -55871,199 +57111,199 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>19.64</v>
+        <v>25.4</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.46</v>
+        <v>-1.19</v>
       </c>
       <c r="D117" t="n">
-        <v>1.93</v>
+        <v>0.16</v>
       </c>
       <c r="E117" t="n">
-        <v>7.64</v>
+        <v>9.34</v>
       </c>
       <c r="F117" t="n">
-        <v>2.12</v>
+        <v>1.05</v>
       </c>
       <c r="G117" t="n">
-        <v>30.79</v>
+        <v>30.49</v>
       </c>
       <c r="H117" t="n">
-        <v>38.11</v>
+        <v>39.06</v>
       </c>
       <c r="I117" t="n">
-        <v>-8.61</v>
+        <v>-8.41</v>
       </c>
       <c r="J117" t="n">
-        <v>-6.61</v>
+        <v>-6.58</v>
       </c>
       <c r="K117" t="n">
-        <v>21.48</v>
+        <v>21.67</v>
       </c>
       <c r="L117" t="n">
-        <v>30.39</v>
+        <v>28.22</v>
       </c>
       <c r="M117" t="n">
         <v>647.38</v>
       </c>
       <c r="N117" t="n">
-        <v>-29.27</v>
+        <v>-31.98</v>
       </c>
       <c r="O117" t="n">
-        <v>-79.1</v>
+        <v>-78.75</v>
       </c>
       <c r="P117" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="Q117" t="n">
-        <v>11.05</v>
+        <v>11.42</v>
       </c>
       <c r="R117" t="n">
-        <v>47.26</v>
+        <v>47.73</v>
       </c>
       <c r="S117" t="n">
-        <v>-14.56</v>
+        <v>-14.7</v>
       </c>
       <c r="T117" t="n">
-        <v>40.74</v>
+        <v>38.57</v>
       </c>
       <c r="U117" t="n">
-        <v>40.54</v>
+        <v>40.49</v>
       </c>
       <c r="V117" t="n">
-        <v>5.1</v>
+        <v>12.63</v>
       </c>
       <c r="W117" t="n">
-        <v>-16.75</v>
+        <v>-15.66</v>
       </c>
       <c r="X117" t="n">
-        <v>-8.16</v>
+        <v>-8.17</v>
       </c>
       <c r="Y117" t="n">
-        <v>25.04</v>
+        <v>29.15</v>
       </c>
       <c r="Z117" t="n">
         <v>-65.86</v>
       </c>
       <c r="AA117" t="n">
-        <v>15.09</v>
+        <v>16.58</v>
       </c>
       <c r="AB117" t="n">
-        <v>26.9</v>
+        <v>26.91</v>
       </c>
       <c r="AC117" t="n">
-        <v>-91.5</v>
+        <v>-97.56</v>
       </c>
       <c r="AD117" t="n">
-        <v>-9.54</v>
+        <v>-10.58</v>
       </c>
       <c r="AE117" t="n">
-        <v>-88.57</v>
+        <v>-88.65</v>
       </c>
       <c r="AF117" t="n">
-        <v>13.94</v>
+        <v>4.84</v>
       </c>
       <c r="AG117" t="n">
-        <v>19.49</v>
+        <v>19.81</v>
       </c>
       <c r="AH117" t="n">
-        <v>22.78</v>
+        <v>18.69</v>
       </c>
       <c r="AI117" t="n">
-        <v>87.85</v>
+        <v>100.25</v>
       </c>
       <c r="AJ117" t="n">
-        <v>7.93</v>
+        <v>10.3</v>
       </c>
       <c r="AK117" t="n">
-        <v>-19.28</v>
+        <v>-19.98</v>
       </c>
       <c r="AL117" t="n">
-        <v>-5.31</v>
+        <v>-6.5</v>
       </c>
       <c r="AM117" t="n">
-        <v>7.77</v>
+        <v>-4.6</v>
       </c>
       <c r="AN117" t="n">
-        <v>-9.77</v>
+        <v>-16.37</v>
       </c>
       <c r="AO117" t="n">
-        <v>-17.13</v>
+        <v>-14.25</v>
       </c>
       <c r="AP117" t="n">
-        <v>-9.33</v>
+        <v>-7.03</v>
       </c>
       <c r="AQ117" t="n">
-        <v>24.87</v>
+        <v>4.04</v>
       </c>
       <c r="AR117" t="n">
-        <v>-1.77</v>
+        <v>-2.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>23.51</v>
+        <v>21.84</v>
       </c>
       <c r="AT117" t="n">
-        <v>-20.58</v>
+        <v>-25.1</v>
       </c>
       <c r="AU117" t="n">
-        <v>2.36</v>
+        <v>3.21</v>
       </c>
       <c r="AV117" t="n">
-        <v>-26.63</v>
+        <v>-31.69</v>
       </c>
       <c r="AW117" t="n">
-        <v>45.95</v>
+        <v>46.95</v>
       </c>
       <c r="AX117" t="n">
-        <v>-27.22</v>
+        <v>-35.33</v>
       </c>
       <c r="AY117" t="n">
-        <v>28.56</v>
+        <v>26.57</v>
       </c>
       <c r="AZ117" t="n">
-        <v>10.67</v>
+        <v>10.36</v>
       </c>
       <c r="BA117" t="n">
-        <v>-1.03</v>
+        <v>3.78</v>
       </c>
       <c r="BB117" t="n">
-        <v>63.94</v>
+        <v>63.56</v>
       </c>
       <c r="BC117" t="n">
-        <v>0.58</v>
+        <v>17.05</v>
       </c>
       <c r="BD117" t="n">
-        <v>-64.33</v>
+        <v>-51.07</v>
       </c>
       <c r="BE117" t="n">
-        <v>15.87</v>
+        <v>17.46</v>
       </c>
       <c r="BF117" t="n">
-        <v>2.32</v>
+        <v>0.75</v>
       </c>
       <c r="BG117" t="n">
-        <v>-8.18</v>
+        <v>-1.63</v>
       </c>
       <c r="BH117" t="n">
-        <v>-8.76</v>
+        <v>-5.63</v>
       </c>
       <c r="BI117" t="n">
-        <v>38.15</v>
+        <v>39.29</v>
       </c>
       <c r="BJ117" t="n">
-        <v>18.96</v>
+        <v>17.73</v>
       </c>
       <c r="BK117" t="n">
-        <v>-7.78</v>
+        <v>-7.79</v>
       </c>
       <c r="BL117" t="n">
-        <v>-4.41</v>
+        <v>-5.1</v>
       </c>
       <c r="BM117" t="n">
-        <v>-73.99</v>
+        <v>-74.19</v>
       </c>
       <c r="BN117" t="n">
-        <v>-73.99</v>
+        <v>-74.19</v>
       </c>
     </row>
     <row r="118">
@@ -56071,199 +57311,199 @@
         <v>45536</v>
       </c>
       <c r="B118" t="n">
-        <v>-36.42</v>
+        <v>-42.21</v>
       </c>
       <c r="C118" t="n">
-        <v>5.17</v>
+        <v>4.25</v>
       </c>
       <c r="D118" t="n">
-        <v>13.79</v>
+        <v>9.33</v>
       </c>
       <c r="E118" t="n">
-        <v>-9.35</v>
+        <v>-11.59</v>
       </c>
       <c r="F118" t="n">
-        <v>19.08</v>
+        <v>18.15</v>
       </c>
       <c r="G118" t="n">
-        <v>35.57</v>
+        <v>37.41</v>
       </c>
       <c r="H118" t="n">
-        <v>10.05</v>
+        <v>5.1</v>
       </c>
       <c r="I118" t="n">
-        <v>32.69</v>
+        <v>29.82</v>
       </c>
       <c r="J118" t="n">
-        <v>15.68</v>
+        <v>15.24</v>
       </c>
       <c r="K118" t="n">
-        <v>13.9</v>
+        <v>11.63</v>
       </c>
       <c r="L118" t="n">
-        <v>29.37</v>
+        <v>0.48</v>
       </c>
       <c r="M118" t="n">
         <v>300.21</v>
       </c>
       <c r="N118" t="n">
-        <v>11.51</v>
+        <v>5.74</v>
       </c>
       <c r="O118" t="n">
-        <v>-89.68</v>
+        <v>-89.67</v>
       </c>
       <c r="P118" t="n">
-        <v>-4.51</v>
+        <v>-3</v>
       </c>
       <c r="Q118" t="n">
-        <v>18.4</v>
+        <v>21.39</v>
       </c>
       <c r="R118" t="n">
-        <v>19.53</v>
+        <v>19.21</v>
       </c>
       <c r="S118" t="n">
-        <v>-26.98</v>
+        <v>-27.13</v>
       </c>
       <c r="T118" t="n">
-        <v>12.23</v>
+        <v>7.5</v>
       </c>
       <c r="U118" t="n">
-        <v>83.41</v>
+        <v>78.48</v>
       </c>
       <c r="V118" t="n">
-        <v>2.46</v>
+        <v>6.61</v>
       </c>
       <c r="W118" t="n">
-        <v>-11.18</v>
+        <v>-10.43</v>
       </c>
       <c r="X118" t="n">
-        <v>56.26</v>
+        <v>56.36</v>
       </c>
       <c r="Y118" t="n">
-        <v>-10.04</v>
+        <v>2.73</v>
       </c>
       <c r="Z118" t="n">
         <v>-44.65</v>
       </c>
       <c r="AA118" t="n">
-        <v>12.15</v>
+        <v>8.97</v>
       </c>
       <c r="AB118" t="n">
-        <v>10.22</v>
+        <v>16.61</v>
       </c>
       <c r="AC118" t="n">
-        <v>-90.5</v>
+        <v>-97.32</v>
       </c>
       <c r="AD118" t="n">
-        <v>39.67</v>
+        <v>37.24</v>
       </c>
       <c r="AE118" t="n">
-        <v>-82.05</v>
+        <v>-82.39</v>
       </c>
       <c r="AF118" t="n">
-        <v>-15.15</v>
+        <v>-15.49</v>
       </c>
       <c r="AG118" t="n">
-        <v>77.97</v>
+        <v>76.8</v>
       </c>
       <c r="AH118" t="n">
-        <v>17.16</v>
+        <v>13.21</v>
       </c>
       <c r="AI118" t="n">
-        <v>97.79</v>
+        <v>79.27</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0.09</v>
+        <v>3.8</v>
       </c>
       <c r="AK118" t="n">
-        <v>-3.34</v>
+        <v>-10.02</v>
       </c>
       <c r="AL118" t="n">
-        <v>-13.6</v>
+        <v>-16.27</v>
       </c>
       <c r="AM118" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AN118" t="n">
-        <v>-6.93</v>
+        <v>-18.99</v>
       </c>
       <c r="AO118" t="n">
-        <v>1.45</v>
+        <v>4.57</v>
       </c>
       <c r="AP118" t="n">
-        <v>13.07</v>
+        <v>12.25</v>
       </c>
       <c r="AQ118" t="n">
-        <v>14.46</v>
+        <v>8.23</v>
       </c>
       <c r="AR118" t="n">
-        <v>-6.36</v>
+        <v>-6.46</v>
       </c>
       <c r="AS118" t="n">
-        <v>4.57</v>
+        <v>3.06</v>
       </c>
       <c r="AT118" t="n">
-        <v>15.16</v>
+        <v>14.36</v>
       </c>
       <c r="AU118" t="n">
-        <v>4.43</v>
+        <v>2.08</v>
       </c>
       <c r="AV118" t="n">
-        <v>-38.83</v>
+        <v>-40.62</v>
       </c>
       <c r="AW118" t="n">
-        <v>47.7</v>
+        <v>45.94</v>
       </c>
       <c r="AX118" t="n">
-        <v>-25.99</v>
+        <v>-27.7</v>
       </c>
       <c r="AY118" t="n">
-        <v>2.62</v>
+        <v>-3.6</v>
       </c>
       <c r="AZ118" t="n">
-        <v>13.89</v>
+        <v>12.24</v>
       </c>
       <c r="BA118" t="n">
-        <v>1.56</v>
+        <v>-1.04</v>
       </c>
       <c r="BB118" t="n">
-        <v>41.58</v>
+        <v>40.22</v>
       </c>
       <c r="BC118" t="n">
-        <v>17.16</v>
+        <v>19.13</v>
       </c>
       <c r="BD118" t="n">
-        <v>41.9</v>
+        <v>61.81</v>
       </c>
       <c r="BE118" t="n">
-        <v>-5.27</v>
+        <v>-7.36</v>
       </c>
       <c r="BF118" t="n">
-        <v>-10.06</v>
+        <v>-9.62</v>
       </c>
       <c r="BG118" t="n">
-        <v>-30.6</v>
+        <v>-28.65</v>
       </c>
       <c r="BH118" t="n">
-        <v>7.69</v>
+        <v>3.99</v>
       </c>
       <c r="BI118" t="n">
-        <v>21.67</v>
+        <v>21.32</v>
       </c>
       <c r="BJ118" t="n">
-        <v>12.28</v>
+        <v>10.77</v>
       </c>
       <c r="BK118" t="n">
-        <v>-3.75</v>
+        <v>-5.59</v>
       </c>
       <c r="BL118" t="n">
-        <v>17.99</v>
+        <v>14.31</v>
       </c>
       <c r="BM118" t="n">
-        <v>3.02</v>
+        <v>-3.11</v>
       </c>
       <c r="BN118" t="n">
-        <v>3.02</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="119">
@@ -56471,37 +57711,37 @@
         <v>45597</v>
       </c>
       <c r="B120" t="n">
-        <v>-10.99</v>
+        <v>-8.44</v>
       </c>
       <c r="C120" t="n">
-        <v>6.56</v>
+        <v>6.89</v>
       </c>
       <c r="D120" t="n">
-        <v>28.92</v>
+        <v>28.78</v>
       </c>
       <c r="E120" t="n">
-        <v>7.92</v>
+        <v>10.86</v>
       </c>
       <c r="F120" t="n">
-        <v>3.85</v>
+        <v>2.53</v>
       </c>
       <c r="G120" t="n">
-        <v>31.29</v>
+        <v>37.49</v>
       </c>
       <c r="H120" t="n">
-        <v>-4.05</v>
+        <v>-3.84</v>
       </c>
       <c r="I120" t="n">
-        <v>6.67</v>
+        <v>0.6</v>
       </c>
       <c r="J120" t="n">
-        <v>-4.35</v>
+        <v>-3.27</v>
       </c>
       <c r="K120" t="n">
-        <v>-15.67</v>
+        <v>-15.3</v>
       </c>
       <c r="L120" t="n">
-        <v>-0.25</v>
+        <v>0.87</v>
       </c>
       <c r="M120" t="n">
         <v>-23.79</v>
@@ -56510,160 +57750,960 @@
         <v>-13.43</v>
       </c>
       <c r="O120" t="n">
-        <v>130.08</v>
+        <v>130.33</v>
       </c>
       <c r="P120" t="n">
-        <v>51.82</v>
+        <v>51.87</v>
       </c>
       <c r="Q120" t="n">
-        <v>12.73</v>
+        <v>11.12</v>
       </c>
       <c r="R120" t="n">
-        <v>13.19</v>
+        <v>12.61</v>
       </c>
       <c r="S120" t="n">
-        <v>-16.19</v>
+        <v>-16.87</v>
       </c>
       <c r="T120" t="n">
-        <v>20.61</v>
+        <v>17.42</v>
       </c>
       <c r="U120" t="n">
-        <v>155.58</v>
+        <v>164.25</v>
       </c>
       <c r="V120" t="n">
-        <v>18.15</v>
+        <v>22.62</v>
       </c>
       <c r="W120" t="n">
-        <v>-24.36</v>
+        <v>-20.94</v>
       </c>
       <c r="X120" t="n">
-        <v>-86</v>
+        <v>-85.74</v>
       </c>
       <c r="Y120" t="n">
-        <v>-30.75</v>
+        <v>-34.14</v>
       </c>
       <c r="Z120" t="n">
         <v>-16.41</v>
       </c>
       <c r="AA120" t="n">
-        <v>42.85</v>
+        <v>43.08</v>
       </c>
       <c r="AB120" t="n">
-        <v>-10.96</v>
+        <v>0.47</v>
       </c>
       <c r="AC120" t="n">
-        <v>16.74</v>
+        <v>-6.19</v>
       </c>
       <c r="AD120" t="n">
-        <v>-34.09</v>
+        <v>-33.32</v>
       </c>
       <c r="AE120" t="n">
-        <v>-84.35</v>
+        <v>-81.54</v>
       </c>
       <c r="AF120" t="n">
-        <v>-5.48</v>
+        <v>-5.69</v>
       </c>
       <c r="AG120" t="n">
-        <v>63.21</v>
+        <v>64.59</v>
       </c>
       <c r="AH120" t="n">
-        <v>10.86</v>
+        <v>11.11</v>
       </c>
       <c r="AI120" t="n">
-        <v>39.15</v>
+        <v>25.1</v>
       </c>
       <c r="AJ120" t="n">
-        <v>24.84</v>
+        <v>28.35</v>
       </c>
       <c r="AK120" t="n">
-        <v>1.36</v>
+        <v>-0.01</v>
       </c>
       <c r="AL120" t="n">
-        <v>-15.02</v>
+        <v>-14.73</v>
       </c>
       <c r="AM120" t="n">
-        <v>16.11</v>
+        <v>12.83</v>
       </c>
       <c r="AN120" t="n">
-        <v>8.72</v>
+        <v>7.68</v>
       </c>
       <c r="AO120" t="n">
-        <v>-5.59</v>
+        <v>-5.36</v>
       </c>
       <c r="AP120" t="n">
-        <v>12.2</v>
+        <v>15.39</v>
       </c>
       <c r="AQ120" t="n">
-        <v>30.2</v>
+        <v>28.82</v>
       </c>
       <c r="AR120" t="n">
-        <v>-7.22</v>
+        <v>-7.43</v>
       </c>
       <c r="AS120" t="n">
-        <v>30.66</v>
+        <v>34.09</v>
       </c>
       <c r="AT120" t="n">
-        <v>-46.25</v>
+        <v>-46.14</v>
       </c>
       <c r="AU120" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="AV120" t="n">
-        <v>-10.24</v>
+        <v>-9.88</v>
       </c>
       <c r="AW120" t="n">
-        <v>69.67</v>
+        <v>54</v>
       </c>
       <c r="AX120" t="n">
-        <v>0.01</v>
+        <v>-0.77</v>
       </c>
       <c r="AY120" t="n">
-        <v>0.97</v>
+        <v>5.22</v>
       </c>
       <c r="AZ120" t="n">
-        <v>81.93</v>
+        <v>82.35</v>
       </c>
       <c r="BA120" t="n">
-        <v>13.38</v>
+        <v>16.24</v>
       </c>
       <c r="BB120" t="n">
-        <v>54.05</v>
+        <v>53.58</v>
       </c>
       <c r="BC120" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="BD120" t="n">
-        <v>-59.58</v>
+        <v>138.03</v>
       </c>
       <c r="BE120" t="n">
-        <v>10.37</v>
+        <v>7.61</v>
       </c>
       <c r="BF120" t="n">
-        <v>3.56</v>
+        <v>4.49</v>
       </c>
       <c r="BG120" t="n">
-        <v>-10.89</v>
+        <v>-17.98</v>
       </c>
       <c r="BH120" t="n">
-        <v>-5.08</v>
+        <v>-3.98</v>
       </c>
       <c r="BI120" t="n">
-        <v>31.07</v>
+        <v>26.55</v>
       </c>
       <c r="BJ120" t="n">
-        <v>5.81</v>
+        <v>5.58</v>
       </c>
       <c r="BK120" t="n">
-        <v>-4.43</v>
+        <v>-5.83</v>
       </c>
       <c r="BL120" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B121" t="n">
+        <v>25.94</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.47</v>
+      </c>
+      <c r="D121" t="n">
+        <v>32.45</v>
+      </c>
+      <c r="E121" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="G121" t="n">
+        <v>36.78</v>
+      </c>
+      <c r="H121" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="I121" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="J121" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="K121" t="n">
+        <v>22.54</v>
+      </c>
+      <c r="L121" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="M121" t="n">
+        <v>352.47</v>
+      </c>
+      <c r="N121" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="O121" t="n">
+        <v>-39.74</v>
+      </c>
+      <c r="P121" t="n">
+        <v>-12.18</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="R121" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="S121" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="U121" t="n">
+        <v>110.94</v>
+      </c>
+      <c r="V121" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="W121" t="n">
+        <v>-14.44</v>
+      </c>
+      <c r="X121" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>-36.28</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>-6.58</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>513.75</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>-19.53</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>878.9</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>8.63</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>9.87</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>-40.14</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>-38.81</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>-5.22</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>-6.34</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>-35.21</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>9.14</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>-43.8</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>46.62</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>-20.82</v>
+      </c>
+      <c r="AY121" t="n">
         <v>5.39</v>
       </c>
-      <c r="BM120" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="BN120" t="n">
-        <v>13.77</v>
+      <c r="AZ121" t="n">
+        <v>59.71</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>15</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>-2.71</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>19.36</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="D122" t="n">
+        <v>37.15</v>
+      </c>
+      <c r="E122" t="n">
+        <v>-10.46</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-36.37</v>
+      </c>
+      <c r="G122" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-5.44</v>
+      </c>
+      <c r="I122" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K122" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="L122" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="M122" t="n">
+        <v>165.98</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-5.33</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-28.78</v>
+      </c>
+      <c r="P122" t="n">
+        <v>-64.08</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="R122" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="T122" t="n">
+        <v>35.04</v>
+      </c>
+      <c r="U122" t="n">
+        <v>134.98</v>
+      </c>
+      <c r="V122" t="n">
+        <v>-9.48</v>
+      </c>
+      <c r="W122" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="X122" t="n">
+        <v>23.56</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2103.13</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>432.81</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>-15.71</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>-9.19</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>-34.35</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>-35.05</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>-13.3</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>83.78</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>291.07</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>15.78</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>18.06</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>-12.82</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>39.78</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>-20.04</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>-47.26</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>-18.74</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>-35.93</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>-23.73</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>82.04</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>-8.78</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>-39.21</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>40.85</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>24.08</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>-2.63</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>-9.78</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>-9.71</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>35.03</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>25.09</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>-66.5</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>-66.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B123" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.21</v>
+      </c>
+      <c r="D123" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-7.71</v>
+      </c>
+      <c r="G123" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H123" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J123" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L123" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="M123" t="n">
+        <v>34.44</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-19.54</v>
+      </c>
+      <c r="O123" t="n">
+        <v>320</v>
+      </c>
+      <c r="P123" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>21.87</v>
+      </c>
+      <c r="R123" t="n">
+        <v>32.53</v>
+      </c>
+      <c r="S123" t="n">
+        <v>-18.76</v>
+      </c>
+      <c r="T123" t="n">
+        <v>29.79</v>
+      </c>
+      <c r="U123" t="n">
+        <v>127</v>
+      </c>
+      <c r="V123" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="X123" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>304.27</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>569.28</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>-17.26</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>196.51</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>-38.72</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>-85.26</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>154.88</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>172.52</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>-15.59</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>-2.17</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>-6.26</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>-24.59</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>-6.91</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>-14.69</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>29.49</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>-11.65</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>-17.76</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>-33.61</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>47.48</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>38.69</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>-5.98</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>-46.6</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>16.61</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>-10.11</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>-7.03</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>32.42</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>32.42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="D124" t="n">
+        <v>39.79</v>
+      </c>
+      <c r="E124" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="G124" t="n">
+        <v>9.54</v>
+      </c>
+      <c r="H124" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I124" t="n">
+        <v>39.94</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="K124" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="L124" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="M124" t="n">
+        <v>94.74</v>
+      </c>
+      <c r="N124" t="n">
+        <v>-16.89</v>
+      </c>
+      <c r="O124" t="n">
+        <v>1590.69</v>
+      </c>
+      <c r="P124" t="n">
+        <v>198.58</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>35.56</v>
+      </c>
+      <c r="R124" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="S124" t="n">
+        <v>-15.38</v>
+      </c>
+      <c r="T124" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="U124" t="n">
+        <v>49.72</v>
+      </c>
+      <c r="V124" t="n">
+        <v>-7.45</v>
+      </c>
+      <c r="W124" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="X124" t="n">
+        <v>-39.27</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>176.04</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>32.69</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>325.37</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>48.74</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>-92.13</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>243.29</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>27.89</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>29.34</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>-3.01</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>62.62</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>73.65</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>-13.45</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>-72.12</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>-10.09</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>67.9</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>13.69</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>-13.42</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>-13.42</v>
       </c>
     </row>
   </sheetData>
@@ -59031,22 +61071,22 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.42</v>
+        <v>-0.4</v>
       </c>
       <c r="C103" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.88</v>
+        <v>-8.96</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.29</v>
+        <v>-0.36</v>
       </c>
       <c r="F103" t="n">
         <v>-0.13</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.95</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="104">
@@ -59054,22 +61094,22 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="C104" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="D104" t="n">
-        <v>7.47</v>
+        <v>7.45</v>
       </c>
       <c r="E104" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="F104" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G104" t="n">
-        <v>1.17</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="105">
@@ -59077,22 +61117,22 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="C105" t="n">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="D105" t="n">
-        <v>6.97</v>
+        <v>6.77</v>
       </c>
       <c r="E105" t="n">
         <v>0.48</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.21</v>
+        <v>-0.24</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.94</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="106">
@@ -59100,22 +61140,22 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>0.89</v>
+        <v>0.33</v>
       </c>
       <c r="C106" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="D106" t="n">
-        <v>36.12</v>
+        <v>34.98</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1</v>
+        <v>-0.05</v>
       </c>
       <c r="F106" t="n">
-        <v>0.81</v>
+        <v>0.65</v>
       </c>
       <c r="G106" t="n">
-        <v>2.04</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="107">
@@ -59146,22 +61186,114 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="C108" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="D108" t="n">
-        <v>22.19</v>
+        <v>22.9</v>
       </c>
       <c r="E108" t="n">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="F108" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.58</v>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G109" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D110" t="n">
+        <v>34.37</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1.31</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D111" t="n">
+        <v>54.84</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1.07</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D112" t="n">
+        <v>94.78</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4.77</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -17153,154 +17153,154 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>22.15</v>
+        <v>22.18</v>
       </c>
       <c r="C107" t="n">
-        <v>50.65</v>
+        <v>37.74</v>
       </c>
       <c r="D107" t="n">
-        <v>46.23</v>
+        <v>38.44</v>
       </c>
       <c r="E107" t="n">
-        <v>-40.71</v>
+        <v>-40.57</v>
       </c>
       <c r="F107" t="n">
-        <v>44.47</v>
+        <v>29.55</v>
       </c>
       <c r="G107" t="n">
-        <v>-30</v>
+        <v>-33.27</v>
       </c>
       <c r="H107" t="n">
-        <v>-37.55</v>
+        <v>-42.1</v>
       </c>
       <c r="I107" t="n">
-        <v>-7.09</v>
+        <v>-7.57</v>
       </c>
       <c r="J107" t="n">
-        <v>-15.61</v>
+        <v>-14.92</v>
       </c>
       <c r="K107" t="n">
-        <v>-53.35</v>
+        <v>-53.33</v>
       </c>
       <c r="L107" t="n">
-        <v>-14.51</v>
+        <v>-14.43</v>
       </c>
       <c r="M107" t="n">
-        <v>11.09</v>
+        <v>12.9</v>
       </c>
       <c r="N107" t="n">
-        <v>-17.78</v>
+        <v>-13.27</v>
       </c>
       <c r="O107" t="n">
-        <v>29.99</v>
+        <v>29.85</v>
       </c>
       <c r="P107" t="n">
-        <v>30.28</v>
+        <v>32.05</v>
       </c>
       <c r="Q107" t="n">
-        <v>3.72</v>
+        <v>4.95</v>
       </c>
       <c r="R107" t="n">
-        <v>73.99</v>
+        <v>75.52</v>
       </c>
       <c r="S107" t="n">
-        <v>4.57</v>
+        <v>4.16</v>
       </c>
       <c r="T107" t="n">
-        <v>40.47</v>
+        <v>39.41</v>
       </c>
       <c r="U107" t="n">
-        <v>-11.35</v>
+        <v>-13.42</v>
       </c>
       <c r="V107" t="n">
-        <v>3.42</v>
+        <v>3.04</v>
       </c>
       <c r="W107" t="n">
-        <v>-37.94</v>
+        <v>-33.85</v>
       </c>
       <c r="X107" t="n">
-        <v>-20.01</v>
+        <v>-24.83</v>
       </c>
       <c r="Y107" t="n">
-        <v>-25.55</v>
+        <v>-24.15</v>
       </c>
       <c r="Z107" t="n">
-        <v>16.52</v>
+        <v>16.22</v>
       </c>
       <c r="AA107" t="n">
-        <v>-13.13</v>
+        <v>-11.14</v>
       </c>
       <c r="AB107" t="n">
-        <v>9.52</v>
+        <v>11.16</v>
       </c>
       <c r="AC107" t="n">
-        <v>55.57</v>
+        <v>32.91</v>
       </c>
       <c r="AD107" t="n">
-        <v>69.18</v>
+        <v>68.6</v>
       </c>
       <c r="AE107" t="n">
-        <v>66.3</v>
+        <v>66.54</v>
       </c>
       <c r="AF107" t="n">
-        <v>93.19</v>
+        <v>73.96</v>
       </c>
       <c r="AG107" t="n">
-        <v>22.5</v>
+        <v>23.06</v>
       </c>
       <c r="AH107" t="n">
-        <v>-22.33</v>
+        <v>-21.88</v>
       </c>
       <c r="AI107" t="n">
-        <v>26.57</v>
+        <v>27.3</v>
       </c>
       <c r="AJ107" t="n">
         <v>5.67</v>
       </c>
       <c r="AK107" t="n">
-        <v>-2.22</v>
+        <v>-6.39</v>
       </c>
       <c r="AL107" t="n">
-        <v>6.87</v>
+        <v>9.04</v>
       </c>
       <c r="AM107" t="n">
-        <v>25.59</v>
+        <v>3.43</v>
       </c>
       <c r="AN107" t="n">
-        <v>4.59</v>
+        <v>5.22</v>
       </c>
       <c r="AO107" t="n">
-        <v>4.61</v>
+        <v>2.76</v>
       </c>
       <c r="AP107" t="n">
-        <v>-5.28</v>
+        <v>-8.04</v>
       </c>
       <c r="AQ107" t="n">
-        <v>12.41</v>
+        <v>6.64</v>
       </c>
       <c r="AR107" t="n">
-        <v>13.23</v>
+        <v>-1.22</v>
       </c>
       <c r="AS107" t="n">
-        <v>41.8</v>
+        <v>45.36</v>
       </c>
       <c r="AT107" t="n">
-        <v>21.25</v>
+        <v>15.49</v>
       </c>
       <c r="AU107" t="n">
-        <v>-5.76</v>
+        <v>-3.34</v>
       </c>
       <c r="AV107" t="n">
-        <v>154.02</v>
+        <v>16.6</v>
       </c>
       <c r="AW107" t="n">
-        <v>0.19</v>
+        <v>-8.37</v>
       </c>
       <c r="AX107" t="n">
-        <v>71.97</v>
+        <v>71.8</v>
       </c>
       <c r="AY107" t="n">
-        <v>21.42</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="108">
@@ -17928,22 +17928,22 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>16.99</v>
+        <v>-3.15</v>
       </c>
       <c r="C112" t="n">
         <v>-27.09</v>
       </c>
       <c r="D112" t="n">
-        <v>-33.74</v>
+        <v>-33.91</v>
       </c>
       <c r="E112" t="n">
-        <v>27.75</v>
+        <v>38.14</v>
       </c>
       <c r="F112" t="n">
         <v>-30.16</v>
       </c>
       <c r="G112" t="n">
-        <v>-81.66</v>
+        <v>-57.22</v>
       </c>
       <c r="H112" t="n">
         <v>-46.85</v>
@@ -17952,61 +17952,61 @@
         <v>-18.44</v>
       </c>
       <c r="J112" t="n">
-        <v>0.7</v>
+        <v>2.16</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.4</v>
+        <v>-4.79</v>
       </c>
       <c r="L112" t="n">
-        <v>-45.11</v>
+        <v>-37.24</v>
       </c>
       <c r="M112" t="n">
-        <v>-1.3</v>
+        <v>-1.17</v>
       </c>
       <c r="N112" t="n">
-        <v>-36.49</v>
+        <v>-34.73</v>
       </c>
       <c r="O112" t="n">
-        <v>-5.63</v>
+        <v>8.53</v>
       </c>
       <c r="P112" t="n">
-        <v>63.04</v>
+        <v>59.65</v>
       </c>
       <c r="Q112" t="n">
-        <v>4.66</v>
+        <v>4.79</v>
       </c>
       <c r="R112" t="n">
-        <v>-48.84</v>
+        <v>-48.58</v>
       </c>
       <c r="S112" t="n">
-        <v>-17.06</v>
+        <v>-18.04</v>
       </c>
       <c r="T112" t="n">
-        <v>12.14</v>
+        <v>11.67</v>
       </c>
       <c r="U112" t="n">
         <v>85.44</v>
       </c>
       <c r="V112" t="n">
-        <v>25.3</v>
+        <v>25.49</v>
       </c>
       <c r="W112" t="n">
-        <v>-25.74</v>
+        <v>-5.03</v>
       </c>
       <c r="X112" t="n">
         <v>173.19</v>
       </c>
       <c r="Y112" t="n">
-        <v>16.19</v>
+        <v>15.73</v>
       </c>
       <c r="Z112" t="n">
-        <v>7.52</v>
+        <v>7.23</v>
       </c>
       <c r="AA112" t="n">
-        <v>5.32</v>
+        <v>-0.65</v>
       </c>
       <c r="AB112" t="n">
-        <v>-9.18</v>
+        <v>-2.43</v>
       </c>
       <c r="AC112" t="n">
         <v>37.74</v>
@@ -18015,19 +18015,19 @@
         <v>-17.2</v>
       </c>
       <c r="AE112" t="n">
-        <v>40.92</v>
+        <v>42.04</v>
       </c>
       <c r="AF112" t="n">
         <v>53.04</v>
       </c>
       <c r="AG112" t="n">
-        <v>77.52</v>
+        <v>76.35</v>
       </c>
       <c r="AH112" t="n">
-        <v>-10.38</v>
+        <v>-10.73</v>
       </c>
       <c r="AI112" t="n">
-        <v>30.59</v>
+        <v>30.08</v>
       </c>
       <c r="AJ112" t="n">
         <v>59.14</v>
@@ -18036,16 +18036,16 @@
         <v>54.87</v>
       </c>
       <c r="AL112" t="n">
-        <v>47.13</v>
+        <v>43.79</v>
       </c>
       <c r="AM112" t="n">
         <v>-10.75</v>
       </c>
       <c r="AN112" t="n">
-        <v>21.27</v>
+        <v>20.88</v>
       </c>
       <c r="AO112" t="n">
-        <v>10.47</v>
+        <v>1.28</v>
       </c>
       <c r="AP112" t="n">
         <v>-27.34</v>
@@ -18057,25 +18057,180 @@
         <v>-17.76</v>
       </c>
       <c r="AS112" t="n">
-        <v>394.95</v>
+        <v>401.33</v>
       </c>
       <c r="AT112" t="n">
         <v>-31.12</v>
       </c>
       <c r="AU112" t="n">
-        <v>4.1</v>
+        <v>3.13</v>
       </c>
       <c r="AV112" t="n">
         <v>244.44</v>
       </c>
       <c r="AW112" t="n">
-        <v>26.74</v>
+        <v>27.65</v>
       </c>
       <c r="AX112" t="n">
-        <v>22.89</v>
+        <v>22.02</v>
       </c>
       <c r="AY112" t="n">
-        <v>94.31</v>
+        <v>98.68</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-8.02</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-33.78</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-41.83</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-68.63</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-19.59</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K113" t="n">
+        <v>23</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-31.06</v>
+      </c>
+      <c r="M113" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="N113" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="O113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="P113" t="n">
+        <v>57.17</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-18.73</v>
+      </c>
+      <c r="R113" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="S113" t="n">
+        <v>30.02</v>
+      </c>
+      <c r="T113" t="n">
+        <v>42.87</v>
+      </c>
+      <c r="U113" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V113" t="n">
+        <v>-5.85</v>
+      </c>
+      <c r="W113" t="n">
+        <v>-41.64</v>
+      </c>
+      <c r="X113" t="n">
+        <v>123.43</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>-7.99</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>9.21</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>-15.94</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1659.68</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>37.03</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>20.43</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>-47.19</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>-30.85</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>31.47</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>-16.88</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>25.39</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>48.58</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>103.71</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>12.65</v>
       </c>
     </row>
   </sheetData>
@@ -34530,25 +34685,25 @@
         <v>0.06</v>
       </c>
       <c r="C107" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="D107" t="n">
-        <v>3.45</v>
+        <v>2.87</v>
       </c>
       <c r="E107" t="n">
         <v>-0.09</v>
       </c>
       <c r="F107" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.63</v>
+        <v>-0.7</v>
       </c>
       <c r="H107" t="n">
-        <v>-1.01</v>
+        <v>-1.13</v>
       </c>
       <c r="I107" t="n">
-        <v>-0.36</v>
+        <v>-0.39</v>
       </c>
       <c r="J107" t="n">
         <v>-0.01</v>
@@ -34557,25 +34712,25 @@
         <v>-0.24</v>
       </c>
       <c r="L107" t="n">
-        <v>-1.88</v>
+        <v>-1.87</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="P107" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="R107" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="S107" t="n">
         <v>0</v>
@@ -34587,13 +34742,13 @@
         <v>-0.04</v>
       </c>
       <c r="V107" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="W107" t="n">
-        <v>-1.02</v>
+        <v>-0.91</v>
       </c>
       <c r="X107" t="n">
-        <v>-0.1</v>
+        <v>-0.12</v>
       </c>
       <c r="Y107" t="n">
         <v>-0.02</v>
@@ -34608,22 +34763,22 @@
         <v>0</v>
       </c>
       <c r="AC107" t="n">
-        <v>0.62</v>
+        <v>0.36</v>
       </c>
       <c r="AD107" t="n">
         <v>0.48</v>
       </c>
       <c r="AE107" t="n">
-        <v>6.56</v>
+        <v>6.58</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AG107" t="n">
         <v>0.19</v>
       </c>
       <c r="AH107" t="n">
-        <v>-0.46</v>
+        <v>-0.45</v>
       </c>
       <c r="AI107" t="n">
         <v>0.06</v>
@@ -34632,13 +34787,13 @@
         <v>0.01</v>
       </c>
       <c r="AK107" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="AM107" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AN107" t="n">
         <v>0</v>
@@ -34650,31 +34805,31 @@
         <v>-0.01</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="AR107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AV107" t="n">
         <v>0.02</v>
       </c>
-      <c r="AS107" t="n">
-        <v>11.51</v>
-      </c>
-      <c r="AT107" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AU107" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="AV107" t="n">
-        <v>0.18</v>
-      </c>
       <c r="AW107" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AX107" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AY107" t="n">
-        <v>21.42</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="108">
@@ -35302,22 +35457,22 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="C112" t="n">
         <v>-0.21</v>
       </c>
       <c r="D112" t="n">
-        <v>-3.23</v>
+        <v>-3.25</v>
       </c>
       <c r="E112" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F112" t="n">
         <v>-0.28</v>
       </c>
       <c r="G112" t="n">
-        <v>-4.01</v>
+        <v>-2.81</v>
       </c>
       <c r="H112" t="n">
         <v>-1.1</v>
@@ -35332,7 +35487,7 @@
         <v>-0.01</v>
       </c>
       <c r="L112" t="n">
-        <v>-4.38</v>
+        <v>-3.61</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -35341,13 +35496,13 @@
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.09</v>
+        <v>0.13</v>
       </c>
       <c r="P112" t="n">
         <v>0.05</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="R112" t="n">
         <v>-0.19</v>
@@ -35356,16 +35511,16 @@
         <v>-0.01</v>
       </c>
       <c r="T112" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U112" t="n">
         <v>0.15</v>
       </c>
       <c r="V112" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.65</v>
+        <v>-0.13</v>
       </c>
       <c r="X112" t="n">
         <v>0.55</v>
@@ -35389,7 +35544,7 @@
         <v>-0.28</v>
       </c>
       <c r="AE112" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="AF112" t="n">
         <v>0.05</v>
@@ -35410,7 +35565,7 @@
         <v>0.19</v>
       </c>
       <c r="AL112" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="AM112" t="n">
         <v>-0.05</v>
@@ -35419,7 +35574,7 @@
         <v>0.01</v>
       </c>
       <c r="AO112" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AP112" t="n">
         <v>-0.03</v>
@@ -35431,13 +35586,13 @@
         <v>-0.03</v>
       </c>
       <c r="AS112" t="n">
-        <v>105.68</v>
+        <v>107.39</v>
       </c>
       <c r="AT112" t="n">
         <v>-2.94</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.09</v>
+        <v>0.07</v>
       </c>
       <c r="AV112" t="n">
         <v>0.28</v>
@@ -35446,10 +35601,165 @@
         <v>0.05</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AY112" t="n">
-        <v>94.31</v>
+        <v>98.68</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="H113" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V113" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="W113" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>12.65</v>
       </c>
     </row>
   </sheetData>
@@ -57511,199 +57821,199 @@
         <v>45566</v>
       </c>
       <c r="B119" t="n">
-        <v>71.05</v>
+        <v>63.41</v>
       </c>
       <c r="C119" t="n">
-        <v>9.91</v>
+        <v>10.27</v>
       </c>
       <c r="D119" t="n">
-        <v>43.93</v>
+        <v>41.81</v>
       </c>
       <c r="E119" t="n">
-        <v>-16.08</v>
+        <v>-17.3</v>
       </c>
       <c r="F119" t="n">
-        <v>20.38</v>
+        <v>19.95</v>
       </c>
       <c r="G119" t="n">
-        <v>33.5</v>
+        <v>36.61</v>
       </c>
       <c r="H119" t="n">
-        <v>27.59</v>
+        <v>30.95</v>
       </c>
       <c r="I119" t="n">
-        <v>19.79</v>
+        <v>17.4</v>
       </c>
       <c r="J119" t="n">
-        <v>18.18</v>
+        <v>11.03</v>
       </c>
       <c r="K119" t="n">
-        <v>24.96</v>
+        <v>23.18</v>
       </c>
       <c r="L119" t="n">
-        <v>16.91</v>
+        <v>12.79</v>
       </c>
       <c r="M119" t="n">
-        <v>-28.94</v>
+        <v>-24.85</v>
       </c>
       <c r="N119" t="n">
-        <v>-11.64</v>
+        <v>-15.16</v>
       </c>
       <c r="O119" t="n">
-        <v>-78.88</v>
+        <v>-78.83</v>
       </c>
       <c r="P119" t="n">
         <v>5.63</v>
       </c>
       <c r="Q119" t="n">
-        <v>16.32</v>
+        <v>20.4</v>
       </c>
       <c r="R119" t="n">
-        <v>161.46</v>
+        <v>161.5</v>
       </c>
       <c r="S119" t="n">
-        <v>-22.43</v>
+        <v>-22.2</v>
       </c>
       <c r="T119" t="n">
-        <v>8.84</v>
+        <v>-0.21</v>
       </c>
       <c r="U119" t="n">
-        <v>17.66</v>
+        <v>13.22</v>
       </c>
       <c r="V119" t="n">
-        <v>-1.22</v>
+        <v>-1.43</v>
       </c>
       <c r="W119" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="X119" t="n">
-        <v>-38.18</v>
+        <v>-83.98</v>
       </c>
       <c r="Y119" t="n">
-        <v>-78.39</v>
+        <v>-62.01</v>
       </c>
       <c r="Z119" t="n">
         <v>208.66</v>
       </c>
       <c r="AA119" t="n">
-        <v>26.98</v>
+        <v>26.64</v>
       </c>
       <c r="AB119" t="n">
-        <v>-7.15</v>
+        <v>-1.65</v>
       </c>
       <c r="AC119" t="n">
-        <v>32.32</v>
+        <v>-0.99</v>
       </c>
       <c r="AD119" t="n">
-        <v>-31.04</v>
+        <v>-32.47</v>
       </c>
       <c r="AE119" t="n">
-        <v>-47.19</v>
+        <v>-47.21</v>
       </c>
       <c r="AF119" t="n">
-        <v>40.21</v>
+        <v>35.44</v>
       </c>
       <c r="AG119" t="n">
-        <v>50.26</v>
+        <v>47.37</v>
       </c>
       <c r="AH119" t="n">
-        <v>25.8</v>
+        <v>24.55</v>
       </c>
       <c r="AI119" t="n">
-        <v>129.28</v>
+        <v>125.92</v>
       </c>
       <c r="AJ119" t="n">
         <v>11.52</v>
       </c>
       <c r="AK119" t="n">
-        <v>7.53</v>
+        <v>8.76</v>
       </c>
       <c r="AL119" t="n">
-        <v>-5.56</v>
+        <v>-7.23</v>
       </c>
       <c r="AM119" t="n">
-        <v>47.55</v>
+        <v>30.11</v>
       </c>
       <c r="AN119" t="n">
-        <v>-19.77</v>
+        <v>-22.6</v>
       </c>
       <c r="AO119" t="n">
-        <v>0.04</v>
+        <v>1.66</v>
       </c>
       <c r="AP119" t="n">
-        <v>164.44</v>
+        <v>9.1</v>
       </c>
       <c r="AQ119" t="n">
-        <v>24.62</v>
+        <v>9.62</v>
       </c>
       <c r="AR119" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="AS119" t="n">
-        <v>38.54</v>
+        <v>36.52</v>
       </c>
       <c r="AT119" t="n">
-        <v>-27.84</v>
+        <v>-27.67</v>
       </c>
       <c r="AU119" t="n">
-        <v>4.71</v>
+        <v>4.06</v>
       </c>
       <c r="AV119" t="n">
-        <v>38.38</v>
+        <v>110.22</v>
       </c>
       <c r="AW119" t="n">
-        <v>13.64</v>
+        <v>11.38</v>
       </c>
       <c r="AX119" t="n">
-        <v>4.04</v>
+        <v>5.93</v>
       </c>
       <c r="AY119" t="n">
-        <v>28.13</v>
+        <v>13.84</v>
       </c>
       <c r="AZ119" t="n">
-        <v>27.46</v>
+        <v>22.64</v>
       </c>
       <c r="BA119" t="n">
-        <v>51.44</v>
+        <v>46.9</v>
       </c>
       <c r="BB119" t="n">
-        <v>64.98</v>
+        <v>63.34</v>
       </c>
       <c r="BC119" t="n">
-        <v>-6.1</v>
+        <v>-6.88</v>
       </c>
       <c r="BD119" t="n">
-        <v>-82.17</v>
+        <v>-49.27</v>
       </c>
       <c r="BE119" t="n">
-        <v>66.59</v>
+        <v>63.12</v>
       </c>
       <c r="BF119" t="n">
-        <v>9.82</v>
+        <v>14.9</v>
       </c>
       <c r="BG119" t="n">
-        <v>44.1</v>
+        <v>32.08</v>
       </c>
       <c r="BH119" t="n">
-        <v>15.7</v>
+        <v>14.63</v>
       </c>
       <c r="BI119" t="n">
-        <v>62.44</v>
+        <v>67.6</v>
       </c>
       <c r="BJ119" t="n">
-        <v>4.37</v>
+        <v>3.82</v>
       </c>
       <c r="BK119" t="n">
-        <v>5.35</v>
+        <v>2.71</v>
       </c>
       <c r="BL119" t="n">
-        <v>22.65</v>
+        <v>20.63</v>
       </c>
       <c r="BM119" t="n">
-        <v>33.31</v>
+        <v>30.96</v>
       </c>
       <c r="BN119" t="n">
-        <v>33.31</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="120">
@@ -58511,199 +58821,399 @@
         <v>45717</v>
       </c>
       <c r="B124" t="n">
-        <v>6.3</v>
+        <v>6.99</v>
       </c>
       <c r="C124" t="n">
-        <v>11.93</v>
+        <v>12.72</v>
       </c>
       <c r="D124" t="n">
-        <v>39.79</v>
+        <v>43.26</v>
       </c>
       <c r="E124" t="n">
-        <v>39.38</v>
+        <v>35.99</v>
       </c>
       <c r="F124" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="G124" t="n">
-        <v>9.54</v>
+        <v>9.6</v>
       </c>
       <c r="H124" t="n">
-        <v>24.4</v>
+        <v>12.31</v>
       </c>
       <c r="I124" t="n">
-        <v>39.94</v>
+        <v>39.92</v>
       </c>
       <c r="J124" t="n">
-        <v>-1.37</v>
+        <v>-0.93</v>
       </c>
       <c r="K124" t="n">
-        <v>5.79</v>
+        <v>5.66</v>
       </c>
       <c r="L124" t="n">
-        <v>-1.36</v>
+        <v>-0.62</v>
       </c>
       <c r="M124" t="n">
-        <v>94.74</v>
+        <v>94.68</v>
       </c>
       <c r="N124" t="n">
-        <v>-16.89</v>
+        <v>-16.58</v>
       </c>
       <c r="O124" t="n">
-        <v>1590.69</v>
+        <v>1594.29</v>
       </c>
       <c r="P124" t="n">
-        <v>198.58</v>
+        <v>198.77</v>
       </c>
       <c r="Q124" t="n">
-        <v>35.56</v>
+        <v>31.89</v>
       </c>
       <c r="R124" t="n">
-        <v>21.12</v>
+        <v>21.68</v>
       </c>
       <c r="S124" t="n">
-        <v>-15.38</v>
+        <v>-15.23</v>
       </c>
       <c r="T124" t="n">
-        <v>14.77</v>
+        <v>14.73</v>
       </c>
       <c r="U124" t="n">
-        <v>49.72</v>
+        <v>49.67</v>
       </c>
       <c r="V124" t="n">
-        <v>-7.45</v>
+        <v>-2.48</v>
       </c>
       <c r="W124" t="n">
-        <v>6.55</v>
+        <v>1.97</v>
       </c>
       <c r="X124" t="n">
-        <v>-39.27</v>
+        <v>-39.48</v>
       </c>
       <c r="Y124" t="n">
-        <v>176.04</v>
+        <v>175.99</v>
       </c>
       <c r="Z124" t="n">
         <v>32.69</v>
       </c>
       <c r="AA124" t="n">
-        <v>0.65</v>
+        <v>20.07</v>
       </c>
       <c r="AB124" t="n">
-        <v>16.67</v>
+        <v>15.68</v>
       </c>
       <c r="AC124" t="n">
-        <v>325.37</v>
+        <v>314.93</v>
       </c>
       <c r="AD124" t="n">
-        <v>48.74</v>
+        <v>48.73</v>
       </c>
       <c r="AE124" t="n">
-        <v>-92.13</v>
+        <v>-92.18</v>
       </c>
       <c r="AF124" t="n">
-        <v>8.16</v>
+        <v>8.11</v>
       </c>
       <c r="AG124" t="n">
-        <v>243.29</v>
+        <v>244.52</v>
       </c>
       <c r="AH124" t="n">
-        <v>10.4</v>
+        <v>10.48</v>
       </c>
       <c r="AI124" t="n">
-        <v>7.58</v>
+        <v>8.8</v>
       </c>
       <c r="AJ124" t="n">
-        <v>15.89</v>
+        <v>16.2</v>
       </c>
       <c r="AK124" t="n">
-        <v>13.34</v>
+        <v>13.57</v>
       </c>
       <c r="AL124" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AM124" t="n">
-        <v>27.89</v>
+        <v>27.8</v>
       </c>
       <c r="AN124" t="n">
-        <v>29.34</v>
+        <v>28.93</v>
       </c>
       <c r="AO124" t="n">
-        <v>-1.42</v>
+        <v>-0.45</v>
       </c>
       <c r="AP124" t="n">
-        <v>-0.31</v>
+        <v>-2.68</v>
       </c>
       <c r="AQ124" t="n">
-        <v>23.75</v>
+        <v>21.53</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AS124" t="n">
-        <v>11.32</v>
+        <v>11.66</v>
       </c>
       <c r="AT124" t="n">
-        <v>-3.01</v>
+        <v>-3.07</v>
       </c>
       <c r="AU124" t="n">
-        <v>10.27</v>
+        <v>9.3</v>
       </c>
       <c r="AV124" t="n">
-        <v>24.34</v>
+        <v>24.25</v>
       </c>
       <c r="AW124" t="n">
-        <v>62.62</v>
+        <v>61.54</v>
       </c>
       <c r="AX124" t="n">
-        <v>15.22</v>
+        <v>-5.02</v>
       </c>
       <c r="AY124" t="n">
-        <v>25.03</v>
+        <v>23.35</v>
       </c>
       <c r="AZ124" t="n">
-        <v>73.65</v>
+        <v>92.78</v>
       </c>
       <c r="BA124" t="n">
-        <v>13.49</v>
+        <v>2.28</v>
       </c>
       <c r="BB124" t="n">
-        <v>14.22</v>
+        <v>14.03</v>
       </c>
       <c r="BC124" t="n">
-        <v>-13.45</v>
+        <v>-13.71</v>
       </c>
       <c r="BD124" t="n">
-        <v>-72.12</v>
+        <v>-17.65</v>
       </c>
       <c r="BE124" t="n">
-        <v>-10.09</v>
+        <v>-1.59</v>
       </c>
       <c r="BF124" t="n">
-        <v>26.71</v>
+        <v>27.34</v>
       </c>
       <c r="BG124" t="n">
-        <v>10.75</v>
+        <v>5.59</v>
       </c>
       <c r="BH124" t="n">
-        <v>14.03</v>
+        <v>15.78</v>
       </c>
       <c r="BI124" t="n">
-        <v>67.9</v>
+        <v>66.34</v>
       </c>
       <c r="BJ124" t="n">
-        <v>-3.61</v>
+        <v>-3.52</v>
       </c>
       <c r="BK124" t="n">
-        <v>2.33</v>
+        <v>2.74</v>
       </c>
       <c r="BL124" t="n">
-        <v>13.69</v>
+        <v>13.06</v>
       </c>
       <c r="BM124" t="n">
-        <v>-13.42</v>
+        <v>-11.77</v>
       </c>
       <c r="BN124" t="n">
-        <v>-13.42</v>
+        <v>-11.77</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B125" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="C125" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="D125" t="n">
+        <v>41.33</v>
+      </c>
+      <c r="E125" t="n">
+        <v>55.72</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G125" t="n">
+        <v>17.68</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="I125" t="n">
+        <v>43.37</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="K125" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="L125" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="M125" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="N125" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="O125" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="P125" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>69.57</v>
+      </c>
+      <c r="R125" t="n">
+        <v>48.02</v>
+      </c>
+      <c r="S125" t="n">
+        <v>-11.17</v>
+      </c>
+      <c r="T125" t="n">
+        <v>48.21</v>
+      </c>
+      <c r="U125" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="V125" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="W125" t="n">
+        <v>9.29</v>
+      </c>
+      <c r="X125" t="n">
+        <v>194.85</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>-71.14</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>433.07</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>39.75</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>210.34</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>-22.12</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>-2.13</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>34.71</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>-15.12</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>37.63</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>-35.92</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>-14.53</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>119.04</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>-21.03</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>-86.08</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>59.12</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>-7.83</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>368.7</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>368.7</v>
       </c>
     </row>
   </sheetData>
@@ -61163,22 +61673,22 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="C107" t="n">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
       <c r="D107" t="n">
-        <v>17.77</v>
+        <v>16.24</v>
       </c>
       <c r="E107" t="n">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="F107" t="n">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
       <c r="G107" t="n">
-        <v>-3.29</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="108">
@@ -61278,22 +61788,45 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>1.04</v>
+        <v>1.09</v>
       </c>
       <c r="C112" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="D112" t="n">
-        <v>94.78</v>
+        <v>95.22</v>
       </c>
       <c r="E112" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="F112" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="G112" t="n">
-        <v>-4.77</v>
+        <v>-1.06</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2.1</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -17308,154 +17308,154 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-17.86</v>
+        <v>-17.69</v>
       </c>
       <c r="C108" t="n">
-        <v>-4.26</v>
+        <v>-8.93</v>
       </c>
       <c r="D108" t="n">
-        <v>21.48</v>
+        <v>21.5</v>
       </c>
       <c r="E108" t="n">
-        <v>-10.67</v>
+        <v>-12.32</v>
       </c>
       <c r="F108" t="n">
-        <v>102.36</v>
+        <v>65.33</v>
       </c>
       <c r="G108" t="n">
-        <v>-23.87</v>
+        <v>-24.84</v>
       </c>
       <c r="H108" t="n">
-        <v>-37.41</v>
+        <v>-38.77</v>
       </c>
       <c r="I108" t="n">
-        <v>20.49</v>
+        <v>13.62</v>
       </c>
       <c r="J108" t="n">
-        <v>-17.39</v>
+        <v>-17.38</v>
       </c>
       <c r="K108" t="n">
-        <v>-47.43</v>
+        <v>-54.26</v>
       </c>
       <c r="L108" t="n">
-        <v>-37.17</v>
+        <v>-37.21</v>
       </c>
       <c r="M108" t="n">
-        <v>-3.93</v>
+        <v>-3.51</v>
       </c>
       <c r="N108" t="n">
-        <v>-32.61</v>
+        <v>-33.95</v>
       </c>
       <c r="O108" t="n">
-        <v>50.31</v>
+        <v>51.69</v>
       </c>
       <c r="P108" t="n">
-        <v>-15.84</v>
+        <v>-15.97</v>
       </c>
       <c r="Q108" t="n">
-        <v>27.39</v>
+        <v>25.52</v>
       </c>
       <c r="R108" t="n">
-        <v>-21.41</v>
+        <v>-21.01</v>
       </c>
       <c r="S108" t="n">
-        <v>23.63</v>
+        <v>23</v>
       </c>
       <c r="T108" t="n">
-        <v>38.38</v>
+        <v>36.51</v>
       </c>
       <c r="U108" t="n">
-        <v>30</v>
+        <v>26.61</v>
       </c>
       <c r="V108" t="n">
-        <v>-11.08</v>
+        <v>-13.04</v>
       </c>
       <c r="W108" t="n">
-        <v>-2.18</v>
+        <v>-6.25</v>
       </c>
       <c r="X108" t="n">
-        <v>236.94</v>
+        <v>103.7</v>
       </c>
       <c r="Y108" t="n">
-        <v>30.07</v>
+        <v>43.6</v>
       </c>
       <c r="Z108" t="n">
-        <v>17.89</v>
+        <v>17.63</v>
       </c>
       <c r="AA108" t="n">
-        <v>-31.8</v>
+        <v>-30.61</v>
       </c>
       <c r="AB108" t="n">
-        <v>-23.31</v>
+        <v>-24.83</v>
       </c>
       <c r="AC108" t="n">
-        <v>19.11</v>
+        <v>4.41</v>
       </c>
       <c r="AD108" t="n">
-        <v>9.07</v>
+        <v>8.94</v>
       </c>
       <c r="AE108" t="n">
-        <v>69.42</v>
+        <v>69.11</v>
       </c>
       <c r="AF108" t="n">
-        <v>2.54</v>
+        <v>-0.05</v>
       </c>
       <c r="AG108" t="n">
-        <v>10.78</v>
+        <v>10.43</v>
       </c>
       <c r="AH108" t="n">
-        <v>709.07</v>
+        <v>707.94</v>
       </c>
       <c r="AI108" t="n">
-        <v>-26.75</v>
+        <v>-26.94</v>
       </c>
       <c r="AJ108" t="n">
-        <v>48.06</v>
+        <v>24.32</v>
       </c>
       <c r="AK108" t="n">
-        <v>-24.28</v>
+        <v>-26.35</v>
       </c>
       <c r="AL108" t="n">
-        <v>40.32</v>
+        <v>38.29</v>
       </c>
       <c r="AM108" t="n">
-        <v>25.55</v>
+        <v>13.65</v>
       </c>
       <c r="AN108" t="n">
-        <v>-31.15</v>
+        <v>-31.27</v>
       </c>
       <c r="AO108" t="n">
-        <v>15.07</v>
+        <v>12.01</v>
       </c>
       <c r="AP108" t="n">
         <v>-9.54</v>
       </c>
       <c r="AQ108" t="n">
-        <v>-2.65</v>
+        <v>-34.75</v>
       </c>
       <c r="AR108" t="n">
-        <v>-33.16</v>
+        <v>-43.36</v>
       </c>
       <c r="AS108" t="n">
-        <v>104.22</v>
+        <v>101.64</v>
       </c>
       <c r="AT108" t="n">
-        <v>-22.2</v>
+        <v>-24.83</v>
       </c>
       <c r="AU108" t="n">
-        <v>2.14</v>
+        <v>1.46</v>
       </c>
       <c r="AV108" t="n">
-        <v>21.17</v>
+        <v>-6.82</v>
       </c>
       <c r="AW108" t="n">
-        <v>46.87</v>
+        <v>4.32</v>
       </c>
       <c r="AX108" t="n">
-        <v>38.19</v>
+        <v>29.58</v>
       </c>
       <c r="AY108" t="n">
-        <v>31.34</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="109">
@@ -18083,16 +18083,16 @@
         <v>45748</v>
       </c>
       <c r="B113" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="C113" t="n">
-        <v>-8.02</v>
+        <v>-8.17</v>
       </c>
       <c r="D113" t="n">
-        <v>-33.78</v>
+        <v>-33.8</v>
       </c>
       <c r="E113" t="n">
-        <v>4.05</v>
+        <v>7.97</v>
       </c>
       <c r="F113" t="n">
         <v>-26.5</v>
@@ -18104,64 +18104,64 @@
         <v>-68.63</v>
       </c>
       <c r="I113" t="n">
-        <v>-19.59</v>
+        <v>-19.6</v>
       </c>
       <c r="J113" t="n">
-        <v>3.99</v>
+        <v>2.84</v>
       </c>
       <c r="K113" t="n">
-        <v>23</v>
+        <v>16.3</v>
       </c>
       <c r="L113" t="n">
-        <v>-31.06</v>
+        <v>-30.85</v>
       </c>
       <c r="M113" t="n">
-        <v>10.16</v>
+        <v>23.71</v>
       </c>
       <c r="N113" t="n">
-        <v>28.42</v>
+        <v>29.2</v>
       </c>
       <c r="O113" t="n">
-        <v>3.75</v>
+        <v>3.94</v>
       </c>
       <c r="P113" t="n">
-        <v>57.17</v>
+        <v>54.55</v>
       </c>
       <c r="Q113" t="n">
-        <v>-18.73</v>
+        <v>-22.08</v>
       </c>
       <c r="R113" t="n">
-        <v>20.59</v>
+        <v>20.15</v>
       </c>
       <c r="S113" t="n">
-        <v>30.02</v>
+        <v>32.53</v>
       </c>
       <c r="T113" t="n">
-        <v>42.87</v>
+        <v>43.72</v>
       </c>
       <c r="U113" t="n">
         <v>4.75</v>
       </c>
       <c r="V113" t="n">
-        <v>-5.85</v>
+        <v>-5.61</v>
       </c>
       <c r="W113" t="n">
-        <v>-41.64</v>
+        <v>-33.79</v>
       </c>
       <c r="X113" t="n">
         <v>123.43</v>
       </c>
       <c r="Y113" t="n">
-        <v>5.94</v>
+        <v>11.5</v>
       </c>
       <c r="Z113" t="n">
-        <v>38.79</v>
+        <v>12.21</v>
       </c>
       <c r="AA113" t="n">
-        <v>1.69</v>
+        <v>1.08</v>
       </c>
       <c r="AB113" t="n">
-        <v>6.07</v>
+        <v>2.5</v>
       </c>
       <c r="AC113" t="n">
         <v>-7.99</v>
@@ -18170,19 +18170,19 @@
         <v>9.21</v>
       </c>
       <c r="AE113" t="n">
-        <v>14.74</v>
+        <v>14.94</v>
       </c>
       <c r="AF113" t="n">
         <v>14</v>
       </c>
       <c r="AG113" t="n">
-        <v>-15.94</v>
+        <v>-16.62</v>
       </c>
       <c r="AH113" t="n">
-        <v>1659.68</v>
+        <v>1660.04</v>
       </c>
       <c r="AI113" t="n">
-        <v>19.28</v>
+        <v>18.71</v>
       </c>
       <c r="AJ113" t="n">
         <v>37.03</v>
@@ -18191,16 +18191,16 @@
         <v>20.43</v>
       </c>
       <c r="AL113" t="n">
-        <v>-47.19</v>
+        <v>-48.07</v>
       </c>
       <c r="AM113" t="n">
         <v>-30.85</v>
       </c>
       <c r="AN113" t="n">
-        <v>31.47</v>
+        <v>30.02</v>
       </c>
       <c r="AO113" t="n">
-        <v>-16.88</v>
+        <v>-16.3</v>
       </c>
       <c r="AP113" t="n">
         <v>0.55</v>
@@ -18215,22 +18215,177 @@
         <v>48.58</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="AU113" t="n">
-        <v>14.15</v>
+        <v>12.7</v>
       </c>
       <c r="AV113" t="n">
         <v>103.71</v>
       </c>
       <c r="AW113" t="n">
-        <v>15.1</v>
+        <v>-1.3</v>
       </c>
       <c r="AX113" t="n">
-        <v>13.14</v>
+        <v>13.61</v>
       </c>
       <c r="AY113" t="n">
-        <v>12.65</v>
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-18.63</v>
+      </c>
+      <c r="C114" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.21</v>
+      </c>
+      <c r="E114" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F114" t="n">
+        <v>217.34</v>
+      </c>
+      <c r="G114" t="n">
+        <v>308.3</v>
+      </c>
+      <c r="H114" t="n">
+        <v>25.31</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-19.69</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-23.02</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-41.04</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="N114" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O114" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="P114" t="n">
+        <v>58.81</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-20.22</v>
+      </c>
+      <c r="S114" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="T114" t="n">
+        <v>84.91</v>
+      </c>
+      <c r="U114" t="n">
+        <v>-16.53</v>
+      </c>
+      <c r="V114" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="W114" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="X114" t="n">
+        <v>43.39</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>-22.59</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>81.85</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>-28.03</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>-17.59</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>711.74</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>476.88</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>-23.93</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>35.35</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>-19.11</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>-68.89</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>-6.45</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>161.35</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>34.11</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>86.49</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>18.09</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>38.15</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>-11.69</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>29.34</v>
       </c>
     </row>
   </sheetData>
@@ -34840,7 +34995,7 @@
         <v>-0.06</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="D108" t="n">
         <v>1.57</v>
@@ -34849,25 +35004,25 @@
         <v>-0.02</v>
       </c>
       <c r="F108" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.42</v>
+        <v>-0.44</v>
       </c>
       <c r="H108" t="n">
-        <v>-0.98</v>
+        <v>-1.02</v>
       </c>
       <c r="I108" t="n">
-        <v>0.93</v>
+        <v>0.62</v>
       </c>
       <c r="J108" t="n">
         <v>-0.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.23</v>
+        <v>-0.26</v>
       </c>
       <c r="L108" t="n">
-        <v>-4.89</v>
+        <v>-4.9</v>
       </c>
       <c r="M108" t="n">
         <v>-0.01</v>
@@ -34876,13 +35031,13 @@
         <v>-0.01</v>
       </c>
       <c r="O108" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="P108" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="R108" t="n">
         <v>-0.07</v>
@@ -34894,16 +35049,16 @@
         <v>0.11</v>
       </c>
       <c r="U108" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="V108" t="n">
-        <v>-0.43</v>
+        <v>-0.5</v>
       </c>
       <c r="W108" t="n">
-        <v>-0.03</v>
+        <v>-0.1</v>
       </c>
       <c r="X108" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="Y108" t="n">
         <v>0.02</v>
@@ -34918,13 +35073,13 @@
         <v>-0.01</v>
       </c>
       <c r="AC108" t="n">
-        <v>0.32</v>
+        <v>0.07</v>
       </c>
       <c r="AD108" t="n">
         <v>0.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>5.58</v>
+        <v>5.56</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -34939,16 +35094,16 @@
         <v>-0.1</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="AK108" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AM108" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="AN108" t="n">
         <v>-0.04</v>
@@ -34960,31 +35115,31 @@
         <v>-0.01</v>
       </c>
       <c r="AQ108" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>25.13</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AV108" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AR108" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="AS108" t="n">
-        <v>25.77</v>
-      </c>
-      <c r="AT108" t="n">
-        <v>-2.37</v>
-      </c>
-      <c r="AU108" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AV108" t="n">
-        <v>0.03</v>
-      </c>
       <c r="AW108" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="AX108" t="n">
-        <v>1.13</v>
+        <v>0.87</v>
       </c>
       <c r="AY108" t="n">
-        <v>31.34</v>
+        <v>28.11</v>
       </c>
     </row>
     <row r="109">
@@ -35639,13 +35794,13 @@
         <v>0</v>
       </c>
       <c r="K113" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="M113" t="n">
         <v>0.05</v>
-      </c>
-      <c r="L113" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.02</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -35657,10 +35812,10 @@
         <v>0.05</v>
       </c>
       <c r="Q113" t="n">
-        <v>-0.49</v>
+        <v>-0.57</v>
       </c>
       <c r="R113" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="S113" t="n">
         <v>0.01</v>
@@ -35672,10 +35827,10 @@
         <v>0.01</v>
       </c>
       <c r="V113" t="n">
-        <v>-0.17</v>
+        <v>-0.16</v>
       </c>
       <c r="W113" t="n">
-        <v>-0.71</v>
+        <v>-0.58</v>
       </c>
       <c r="X113" t="n">
         <v>0.43</v>
@@ -35684,7 +35839,7 @@
         <v>0</v>
       </c>
       <c r="Z113" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AA113" t="n">
         <v>0</v>
@@ -35699,13 +35854,13 @@
         <v>0.1</v>
       </c>
       <c r="AE113" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AF113" t="n">
         <v>0.02</v>
       </c>
       <c r="AG113" t="n">
-        <v>-0.13</v>
+        <v>-0.14</v>
       </c>
       <c r="AH113" t="n">
         <v>3.72</v>
@@ -35720,7 +35875,7 @@
         <v>0.08</v>
       </c>
       <c r="AL113" t="n">
-        <v>-0.43</v>
+        <v>-0.44</v>
       </c>
       <c r="AM113" t="n">
         <v>-0.11</v>
@@ -35747,19 +35902,174 @@
         <v>0.02</v>
       </c>
       <c r="AU113" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AV113" t="n">
         <v>0.12</v>
       </c>
       <c r="AW113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.03</v>
       </c>
-      <c r="AX113" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AY113" t="n">
-        <v>12.65</v>
+      <c r="F114" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-3.86</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R114" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="U114" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>29.34</v>
       </c>
     </row>
   </sheetData>
@@ -58021,199 +58331,199 @@
         <v>45597</v>
       </c>
       <c r="B120" t="n">
-        <v>-8.44</v>
+        <v>-9.56</v>
       </c>
       <c r="C120" t="n">
-        <v>6.89</v>
+        <v>5.17</v>
       </c>
       <c r="D120" t="n">
-        <v>28.78</v>
+        <v>27.05</v>
       </c>
       <c r="E120" t="n">
-        <v>10.86</v>
+        <v>11.13</v>
       </c>
       <c r="F120" t="n">
-        <v>2.53</v>
+        <v>1.85</v>
       </c>
       <c r="G120" t="n">
-        <v>37.49</v>
+        <v>37.89</v>
       </c>
       <c r="H120" t="n">
-        <v>-3.84</v>
+        <v>9.21</v>
       </c>
       <c r="I120" t="n">
-        <v>0.6</v>
+        <v>-0.96</v>
       </c>
       <c r="J120" t="n">
-        <v>-3.27</v>
+        <v>-3.79</v>
       </c>
       <c r="K120" t="n">
-        <v>-15.3</v>
+        <v>-17.39</v>
       </c>
       <c r="L120" t="n">
-        <v>0.87</v>
+        <v>-15.56</v>
       </c>
       <c r="M120" t="n">
         <v>-23.79</v>
       </c>
       <c r="N120" t="n">
-        <v>-13.43</v>
+        <v>-16.55</v>
       </c>
       <c r="O120" t="n">
-        <v>130.33</v>
+        <v>130.34</v>
       </c>
       <c r="P120" t="n">
-        <v>51.87</v>
+        <v>51.9</v>
       </c>
       <c r="Q120" t="n">
-        <v>11.12</v>
+        <v>13.46</v>
       </c>
       <c r="R120" t="n">
-        <v>12.61</v>
+        <v>12.24</v>
       </c>
       <c r="S120" t="n">
-        <v>-16.87</v>
+        <v>-17.09</v>
       </c>
       <c r="T120" t="n">
-        <v>17.42</v>
+        <v>14.64</v>
       </c>
       <c r="U120" t="n">
-        <v>164.25</v>
+        <v>149.57</v>
       </c>
       <c r="V120" t="n">
-        <v>22.62</v>
+        <v>18.28</v>
       </c>
       <c r="W120" t="n">
-        <v>-20.94</v>
+        <v>-20.65</v>
       </c>
       <c r="X120" t="n">
-        <v>-85.74</v>
+        <v>-85.72</v>
       </c>
       <c r="Y120" t="n">
-        <v>-34.14</v>
+        <v>50.29</v>
       </c>
       <c r="Z120" t="n">
         <v>-16.41</v>
       </c>
       <c r="AA120" t="n">
-        <v>43.08</v>
+        <v>38.4</v>
       </c>
       <c r="AB120" t="n">
-        <v>0.47</v>
+        <v>1.88</v>
       </c>
       <c r="AC120" t="n">
-        <v>-6.19</v>
+        <v>20.52</v>
       </c>
       <c r="AD120" t="n">
-        <v>-33.32</v>
+        <v>-36.12</v>
       </c>
       <c r="AE120" t="n">
-        <v>-81.54</v>
+        <v>-84.61</v>
       </c>
       <c r="AF120" t="n">
-        <v>-5.69</v>
+        <v>-8.63</v>
       </c>
       <c r="AG120" t="n">
-        <v>64.59</v>
+        <v>62.77</v>
       </c>
       <c r="AH120" t="n">
-        <v>11.11</v>
+        <v>8.7</v>
       </c>
       <c r="AI120" t="n">
-        <v>25.1</v>
+        <v>35.05</v>
       </c>
       <c r="AJ120" t="n">
-        <v>28.35</v>
+        <v>22.07</v>
       </c>
       <c r="AK120" t="n">
-        <v>-0.01</v>
+        <v>-0.54</v>
       </c>
       <c r="AL120" t="n">
-        <v>-14.73</v>
+        <v>-16.1</v>
       </c>
       <c r="AM120" t="n">
-        <v>12.83</v>
+        <v>5</v>
       </c>
       <c r="AN120" t="n">
-        <v>7.68</v>
+        <v>1.28</v>
       </c>
       <c r="AO120" t="n">
-        <v>-5.36</v>
+        <v>-5.78</v>
       </c>
       <c r="AP120" t="n">
-        <v>15.39</v>
+        <v>9.28</v>
       </c>
       <c r="AQ120" t="n">
-        <v>28.82</v>
+        <v>16.76</v>
       </c>
       <c r="AR120" t="n">
-        <v>-7.43</v>
+        <v>-12.17</v>
       </c>
       <c r="AS120" t="n">
-        <v>34.09</v>
+        <v>29.12</v>
       </c>
       <c r="AT120" t="n">
-        <v>-46.14</v>
+        <v>-45.96</v>
       </c>
       <c r="AU120" t="n">
-        <v>2.66</v>
+        <v>-0.03</v>
       </c>
       <c r="AV120" t="n">
-        <v>-9.88</v>
+        <v>-11.19</v>
       </c>
       <c r="AW120" t="n">
-        <v>54</v>
+        <v>44.27</v>
       </c>
       <c r="AX120" t="n">
-        <v>-0.77</v>
+        <v>-5.84</v>
       </c>
       <c r="AY120" t="n">
-        <v>5.22</v>
+        <v>-0.64</v>
       </c>
       <c r="AZ120" t="n">
-        <v>82.35</v>
+        <v>52.69</v>
       </c>
       <c r="BA120" t="n">
-        <v>16.24</v>
+        <v>6.37</v>
       </c>
       <c r="BB120" t="n">
-        <v>53.58</v>
+        <v>50.24</v>
       </c>
       <c r="BC120" t="n">
-        <v>1.2</v>
+        <v>-5.78</v>
       </c>
       <c r="BD120" t="n">
-        <v>138.03</v>
+        <v>137.66</v>
       </c>
       <c r="BE120" t="n">
-        <v>7.61</v>
+        <v>-0.48</v>
       </c>
       <c r="BF120" t="n">
-        <v>4.49</v>
+        <v>2.98</v>
       </c>
       <c r="BG120" t="n">
-        <v>-17.98</v>
+        <v>-23.33</v>
       </c>
       <c r="BH120" t="n">
-        <v>-3.98</v>
+        <v>-5.8</v>
       </c>
       <c r="BI120" t="n">
-        <v>26.55</v>
+        <v>22.46</v>
       </c>
       <c r="BJ120" t="n">
-        <v>5.58</v>
+        <v>2.73</v>
       </c>
       <c r="BK120" t="n">
-        <v>-5.83</v>
+        <v>-7.31</v>
       </c>
       <c r="BL120" t="n">
-        <v>5.29</v>
+        <v>2</v>
       </c>
       <c r="BM120" t="n">
-        <v>8.17</v>
+        <v>3.1</v>
       </c>
       <c r="BN120" t="n">
-        <v>8.17</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="121">
@@ -59021,199 +59331,399 @@
         <v>45748</v>
       </c>
       <c r="B125" t="n">
-        <v>20.92</v>
+        <v>22.29</v>
       </c>
       <c r="C125" t="n">
-        <v>29.12</v>
+        <v>29.39</v>
       </c>
       <c r="D125" t="n">
-        <v>41.33</v>
+        <v>41.18</v>
       </c>
       <c r="E125" t="n">
-        <v>55.72</v>
+        <v>64.66</v>
       </c>
       <c r="F125" t="n">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="G125" t="n">
-        <v>17.68</v>
+        <v>18.38</v>
       </c>
       <c r="H125" t="n">
-        <v>-1.05</v>
+        <v>-15.07</v>
       </c>
       <c r="I125" t="n">
-        <v>43.37</v>
+        <v>43.11</v>
       </c>
       <c r="J125" t="n">
-        <v>6.09</v>
+        <v>6.45</v>
       </c>
       <c r="K125" t="n">
-        <v>-4.52</v>
+        <v>-4.38</v>
       </c>
       <c r="L125" t="n">
-        <v>6.99</v>
+        <v>7.57</v>
       </c>
       <c r="M125" t="n">
         <v>199.95</v>
       </c>
       <c r="N125" t="n">
-        <v>7.96</v>
+        <v>7.39</v>
       </c>
       <c r="O125" t="n">
-        <v>10.11</v>
+        <v>8.35</v>
       </c>
       <c r="P125" t="n">
         <v>76.33</v>
       </c>
       <c r="Q125" t="n">
-        <v>69.57</v>
+        <v>69.72</v>
       </c>
       <c r="R125" t="n">
-        <v>48.02</v>
+        <v>48.12</v>
       </c>
       <c r="S125" t="n">
-        <v>-11.17</v>
+        <v>-11.3</v>
       </c>
       <c r="T125" t="n">
-        <v>48.21</v>
+        <v>49.62</v>
       </c>
       <c r="U125" t="n">
-        <v>9.24</v>
+        <v>1.83</v>
       </c>
       <c r="V125" t="n">
-        <v>20.45</v>
+        <v>21.96</v>
       </c>
       <c r="W125" t="n">
-        <v>9.29</v>
+        <v>84.52</v>
       </c>
       <c r="X125" t="n">
-        <v>194.85</v>
+        <v>197.51</v>
       </c>
       <c r="Y125" t="n">
-        <v>-71.14</v>
+        <v>-71.33</v>
       </c>
       <c r="Z125" t="n">
         <v>433.07</v>
       </c>
       <c r="AA125" t="n">
-        <v>39.75</v>
+        <v>39.94</v>
       </c>
       <c r="AB125" t="n">
-        <v>-10.5</v>
+        <v>-10.07</v>
       </c>
       <c r="AC125" t="n">
-        <v>210.34</v>
+        <v>209.9</v>
       </c>
       <c r="AD125" t="n">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AE125" t="n">
-        <v>-22.12</v>
+        <v>-22.1</v>
       </c>
       <c r="AF125" t="n">
-        <v>2.06</v>
+        <v>1.58</v>
       </c>
       <c r="AG125" t="n">
-        <v>23.6</v>
+        <v>23.57</v>
       </c>
       <c r="AH125" t="n">
-        <v>-2.13</v>
+        <v>-2.03</v>
       </c>
       <c r="AI125" t="n">
-        <v>8.31</v>
+        <v>7.13</v>
       </c>
       <c r="AJ125" t="n">
-        <v>22.4</v>
+        <v>21.84</v>
       </c>
       <c r="AK125" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="AL125" t="n">
-        <v>-1.35</v>
+        <v>-3.69</v>
       </c>
       <c r="AM125" t="n">
         <v>34.71</v>
       </c>
       <c r="AN125" t="n">
-        <v>-15.12</v>
+        <v>-15.59</v>
       </c>
       <c r="AO125" t="n">
-        <v>37.63</v>
+        <v>38.71</v>
       </c>
       <c r="AP125" t="n">
-        <v>1.06</v>
+        <v>0.37</v>
       </c>
       <c r="AQ125" t="n">
-        <v>13.1</v>
+        <v>12.97</v>
       </c>
       <c r="AR125" t="n">
-        <v>2.19</v>
+        <v>2.08</v>
       </c>
       <c r="AS125" t="n">
-        <v>12.06</v>
+        <v>14.32</v>
       </c>
       <c r="AT125" t="n">
-        <v>-0.43</v>
+        <v>2.55</v>
       </c>
       <c r="AU125" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>-35.7</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>-15.75</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>118.52</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>-22.25</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>-82.82</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>60.47</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>368.61</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>368.61</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B126" t="n">
+        <v>-19.57</v>
+      </c>
+      <c r="C126" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="D126" t="n">
+        <v>25.63</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-8.85</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="I126" t="n">
+        <v>30.93</v>
+      </c>
+      <c r="J126" t="n">
         <v>5.65</v>
       </c>
-      <c r="AV125" t="n">
-        <v>-35.92</v>
-      </c>
-      <c r="AW125" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AX125" t="n">
-        <v>-14.53</v>
-      </c>
-      <c r="AY125" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AZ125" t="n">
-        <v>119.04</v>
-      </c>
-      <c r="BA125" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="BB125" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="BC125" t="n">
-        <v>-21.03</v>
-      </c>
-      <c r="BD125" t="n">
-        <v>-86.08</v>
-      </c>
-      <c r="BE125" t="n">
-        <v>59.12</v>
-      </c>
-      <c r="BF125" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="BG125" t="n">
-        <v>-7.83</v>
-      </c>
-      <c r="BH125" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="BI125" t="n">
-        <v>11.97</v>
-      </c>
-      <c r="BJ125" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="BK125" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="BL125" t="n">
-        <v>8.09</v>
-      </c>
-      <c r="BM125" t="n">
-        <v>368.7</v>
-      </c>
-      <c r="BN125" t="n">
-        <v>368.7</v>
+      <c r="K126" t="n">
+        <v>-14.83</v>
+      </c>
+      <c r="L126" t="n">
+        <v>-7.89</v>
+      </c>
+      <c r="M126" t="n">
+        <v>345.19</v>
+      </c>
+      <c r="N126" t="n">
+        <v>-2.88</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-44.37</v>
+      </c>
+      <c r="P126" t="n">
+        <v>306.95</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="S126" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="T126" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="U126" t="n">
+        <v>23.07</v>
+      </c>
+      <c r="V126" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="W126" t="n">
+        <v>166.6</v>
+      </c>
+      <c r="X126" t="n">
+        <v>-42.04</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>159.2</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>-35.48</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>333.74</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>73.94</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>-14.78</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>-10.35</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>-9.41</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>-31.41</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>-6.61</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>-5.94</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>97.65</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>-9.04</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>-43.41</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>-13.83</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>96</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>-14.42</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>-11.95</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>-37.78</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>-7.09</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>6.26</v>
       </c>
     </row>
   </sheetData>
@@ -61696,22 +62206,22 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>0.66</v>
+        <v>0.35</v>
       </c>
       <c r="C108" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="D108" t="n">
-        <v>22.9</v>
+        <v>21.63</v>
       </c>
       <c r="E108" t="n">
-        <v>2.49</v>
+        <v>1.5</v>
       </c>
       <c r="F108" t="n">
-        <v>0.28</v>
+        <v>0.11</v>
       </c>
       <c r="G108" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="109">
@@ -61811,22 +62321,45 @@
         <v>45748</v>
       </c>
       <c r="B113" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="C113" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="D113" t="n">
-        <v>10.8</v>
+        <v>10.73</v>
       </c>
       <c r="E113" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="F113" t="n">
         <v>0.35</v>
       </c>
       <c r="G113" t="n">
-        <v>-2.1</v>
+        <v>-1.97</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C114" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="D114" t="n">
+        <v>28</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -17463,154 +17463,154 @@
         <v>45627</v>
       </c>
       <c r="B109" t="n">
-        <v>33.18</v>
+        <v>16.24</v>
       </c>
       <c r="C109" t="n">
-        <v>-26.49</v>
+        <v>-30.78</v>
       </c>
       <c r="D109" t="n">
-        <v>-39.51</v>
+        <v>-29</v>
       </c>
       <c r="E109" t="n">
-        <v>30.32</v>
+        <v>2.08</v>
       </c>
       <c r="F109" t="n">
-        <v>-65.39</v>
+        <v>-72.04</v>
       </c>
       <c r="G109" t="n">
-        <v>490.77</v>
+        <v>489.69</v>
       </c>
       <c r="H109" t="n">
-        <v>-41.49</v>
+        <v>-43.48</v>
       </c>
       <c r="I109" t="n">
-        <v>-22.57</v>
+        <v>-24.49</v>
       </c>
       <c r="J109" t="n">
-        <v>274.06</v>
+        <v>279.69</v>
       </c>
       <c r="K109" t="n">
-        <v>-48.46</v>
+        <v>-52.21</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06</v>
+        <v>0.9</v>
       </c>
       <c r="M109" t="n">
-        <v>45.51</v>
+        <v>35.42</v>
       </c>
       <c r="N109" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="O109" t="n">
-        <v>67.39</v>
+        <v>66.93</v>
       </c>
       <c r="P109" t="n">
-        <v>182.03</v>
+        <v>189.13</v>
       </c>
       <c r="Q109" t="n">
-        <v>101.04</v>
+        <v>92.39</v>
       </c>
       <c r="R109" t="n">
-        <v>-16.99</v>
+        <v>-28.66</v>
       </c>
       <c r="S109" t="n">
-        <v>-15.6</v>
+        <v>-37.35</v>
       </c>
       <c r="T109" t="n">
-        <v>54.01</v>
+        <v>50.21</v>
       </c>
       <c r="U109" t="n">
-        <v>-43.03</v>
+        <v>-43.95</v>
       </c>
       <c r="V109" t="n">
-        <v>68.59</v>
+        <v>33.5</v>
       </c>
       <c r="W109" t="n">
-        <v>-49.61</v>
+        <v>-50.48</v>
       </c>
       <c r="X109" t="n">
-        <v>42.83</v>
+        <v>29.36</v>
       </c>
       <c r="Y109" t="n">
-        <v>96.98</v>
+        <v>98.98</v>
       </c>
       <c r="Z109" t="n">
-        <v>101.1</v>
+        <v>101.01</v>
       </c>
       <c r="AA109" t="n">
-        <v>14.07</v>
+        <v>13.66</v>
       </c>
       <c r="AB109" t="n">
-        <v>-19.7</v>
+        <v>-27.76</v>
       </c>
       <c r="AC109" t="n">
-        <v>5.58</v>
+        <v>2.6</v>
       </c>
       <c r="AD109" t="n">
-        <v>48.33</v>
+        <v>47.94</v>
       </c>
       <c r="AE109" t="n">
-        <v>6.76</v>
+        <v>-0.88</v>
       </c>
       <c r="AF109" t="n">
-        <v>1.19</v>
+        <v>-2.4</v>
       </c>
       <c r="AG109" t="n">
-        <v>15.95</v>
+        <v>10.95</v>
       </c>
       <c r="AH109" t="n">
-        <v>25.74</v>
+        <v>14.5</v>
       </c>
       <c r="AI109" t="n">
-        <v>56.08</v>
+        <v>38.52</v>
       </c>
       <c r="AJ109" t="n">
-        <v>221.62</v>
+        <v>154.96</v>
       </c>
       <c r="AK109" t="n">
-        <v>5.06</v>
+        <v>0.11</v>
       </c>
       <c r="AL109" t="n">
-        <v>84.28</v>
+        <v>80.24</v>
       </c>
       <c r="AM109" t="n">
-        <v>4.18</v>
+        <v>0.83</v>
       </c>
       <c r="AN109" t="n">
-        <v>57.29</v>
+        <v>62.43</v>
       </c>
       <c r="AO109" t="n">
-        <v>70.85</v>
+        <v>73.61</v>
       </c>
       <c r="AP109" t="n">
-        <v>9.56</v>
+        <v>7.28</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0.69</v>
+        <v>-6.52</v>
       </c>
       <c r="AR109" t="n">
-        <v>56.17</v>
+        <v>5.13</v>
       </c>
       <c r="AS109" t="n">
-        <v>31.88</v>
+        <v>32.53</v>
       </c>
       <c r="AT109" t="n">
-        <v>15.46</v>
+        <v>8.98</v>
       </c>
       <c r="AU109" t="n">
-        <v>14.59</v>
+        <v>12.28</v>
       </c>
       <c r="AV109" t="n">
-        <v>-73.79</v>
+        <v>-77.45</v>
       </c>
       <c r="AW109" t="n">
-        <v>29.36</v>
+        <v>-13.48</v>
       </c>
       <c r="AX109" t="n">
-        <v>39.09</v>
+        <v>22.2</v>
       </c>
       <c r="AY109" t="n">
-        <v>17.27</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="110">
@@ -18238,22 +18238,22 @@
         <v>45778</v>
       </c>
       <c r="B114" t="n">
-        <v>-18.63</v>
+        <v>-8.83</v>
       </c>
       <c r="C114" t="n">
-        <v>21.69</v>
+        <v>20.51</v>
       </c>
       <c r="D114" t="n">
-        <v>8.21</v>
+        <v>9.78</v>
       </c>
       <c r="E114" t="n">
-        <v>16.51</v>
+        <v>16.15</v>
       </c>
       <c r="F114" t="n">
         <v>217.34</v>
       </c>
       <c r="G114" t="n">
-        <v>308.3</v>
+        <v>351.6</v>
       </c>
       <c r="H114" t="n">
         <v>25.31</v>
@@ -18262,61 +18262,61 @@
         <v>-19.69</v>
       </c>
       <c r="J114" t="n">
-        <v>6.46</v>
+        <v>6.21</v>
       </c>
       <c r="K114" t="n">
-        <v>-23.02</v>
+        <v>-20.74</v>
       </c>
       <c r="L114" t="n">
-        <v>-41.04</v>
+        <v>-38.66</v>
       </c>
       <c r="M114" t="n">
-        <v>3.01</v>
+        <v>22.18</v>
       </c>
       <c r="N114" t="n">
-        <v>3.85</v>
+        <v>2.21</v>
       </c>
       <c r="O114" t="n">
-        <v>23.8</v>
+        <v>27.22</v>
       </c>
       <c r="P114" t="n">
-        <v>58.81</v>
+        <v>70.52</v>
       </c>
       <c r="Q114" t="n">
-        <v>22.11</v>
+        <v>28.28</v>
       </c>
       <c r="R114" t="n">
-        <v>-20.22</v>
+        <v>-19.97</v>
       </c>
       <c r="S114" t="n">
-        <v>16.6</v>
+        <v>22.35</v>
       </c>
       <c r="T114" t="n">
-        <v>84.91</v>
+        <v>87.97</v>
       </c>
       <c r="U114" t="n">
         <v>-16.53</v>
       </c>
       <c r="V114" t="n">
-        <v>-0.08</v>
+        <v>2.07</v>
       </c>
       <c r="W114" t="n">
-        <v>9.96</v>
+        <v>21.34</v>
       </c>
       <c r="X114" t="n">
         <v>43.39</v>
       </c>
       <c r="Y114" t="n">
-        <v>-22.59</v>
+        <v>-32.37</v>
       </c>
       <c r="Z114" t="n">
-        <v>81.85</v>
+        <v>84.63</v>
       </c>
       <c r="AA114" t="n">
-        <v>-28.03</v>
+        <v>-24.41</v>
       </c>
       <c r="AB114" t="n">
-        <v>2.26</v>
+        <v>5.01</v>
       </c>
       <c r="AC114" t="n">
         <v>-17.59</v>
@@ -18325,19 +18325,19 @@
         <v>-3.72</v>
       </c>
       <c r="AE114" t="n">
-        <v>12.08</v>
+        <v>13.38</v>
       </c>
       <c r="AF114" t="n">
         <v>711.74</v>
       </c>
       <c r="AG114" t="n">
-        <v>3.73</v>
+        <v>4.3</v>
       </c>
       <c r="AH114" t="n">
-        <v>476.88</v>
+        <v>472.58</v>
       </c>
       <c r="AI114" t="n">
-        <v>11.86</v>
+        <v>11.09</v>
       </c>
       <c r="AJ114" t="n">
         <v>-23.93</v>
@@ -18346,46 +18346,201 @@
         <v>-1</v>
       </c>
       <c r="AL114" t="n">
-        <v>35.35</v>
+        <v>44.49</v>
       </c>
       <c r="AM114" t="n">
         <v>-19.11</v>
       </c>
       <c r="AN114" t="n">
-        <v>14.99</v>
+        <v>36.31</v>
       </c>
       <c r="AO114" t="n">
-        <v>-68.89</v>
+        <v>-66.85</v>
       </c>
       <c r="AP114" t="n">
         <v>-6.45</v>
       </c>
       <c r="AQ114" t="n">
-        <v>161.35</v>
+        <v>160.27</v>
       </c>
       <c r="AR114" t="n">
         <v>34.11</v>
       </c>
       <c r="AS114" t="n">
-        <v>86.49</v>
+        <v>90.16</v>
       </c>
       <c r="AT114" t="n">
         <v>0.65</v>
       </c>
       <c r="AU114" t="n">
-        <v>5.52</v>
+        <v>6.1</v>
       </c>
       <c r="AV114" t="n">
         <v>18.09</v>
       </c>
       <c r="AW114" t="n">
-        <v>38.15</v>
+        <v>-33.8</v>
       </c>
       <c r="AX114" t="n">
         <v>-11.69</v>
       </c>
       <c r="AY114" t="n">
-        <v>29.34</v>
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-38.87</v>
+      </c>
+      <c r="D115" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="E115" t="n">
+        <v>39.84</v>
+      </c>
+      <c r="F115" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="H115" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-28.77</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-7.04</v>
+      </c>
+      <c r="K115" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-6.64</v>
+      </c>
+      <c r="M115" t="n">
+        <v>17.07</v>
+      </c>
+      <c r="N115" t="n">
+        <v>85.13</v>
+      </c>
+      <c r="O115" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="P115" t="n">
+        <v>49.98</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="R115" t="n">
+        <v>-11.43</v>
+      </c>
+      <c r="S115" t="n">
+        <v>46.79</v>
+      </c>
+      <c r="T115" t="n">
+        <v>65.66</v>
+      </c>
+      <c r="U115" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="V115" t="n">
+        <v>-8.59</v>
+      </c>
+      <c r="W115" t="n">
+        <v>-22.47</v>
+      </c>
+      <c r="X115" t="n">
+        <v>660.86</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>8.05</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>95.29</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>29.29</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>32.71</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>61.47</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>165.46</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>55.32</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>99.44</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>45.76</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>-6.01</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>-8.19</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>88.71</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>31.67</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>-23.4</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>4.81</v>
       </c>
     </row>
   </sheetData>
@@ -35147,40 +35302,40 @@
         <v>45627</v>
       </c>
       <c r="B109" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.14</v>
+        <v>-0.16</v>
       </c>
       <c r="D109" t="n">
-        <v>-3</v>
+        <v>-2.2</v>
       </c>
       <c r="E109" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>-0.3</v>
+        <v>-0.33</v>
       </c>
       <c r="G109" t="n">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="H109" t="n">
-        <v>-0.93</v>
+        <v>-0.98</v>
       </c>
       <c r="I109" t="n">
-        <v>-1.41</v>
+        <v>-1.53</v>
       </c>
       <c r="J109" t="n">
         <v>0.05</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.24</v>
+        <v>-0.26</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M109" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -35189,31 +35344,31 @@
         <v>0.96</v>
       </c>
       <c r="P109" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.71</v>
+        <v>2.48</v>
       </c>
       <c r="R109" t="n">
-        <v>-0.04</v>
+        <v>-0.07</v>
       </c>
       <c r="S109" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="T109" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="U109" t="n">
         <v>-0.2</v>
       </c>
       <c r="V109" t="n">
-        <v>1.49</v>
+        <v>0.73</v>
       </c>
       <c r="W109" t="n">
-        <v>-1.14</v>
+        <v>-1.16</v>
       </c>
       <c r="X109" t="n">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="Y109" t="n">
         <v>0.04</v>
@@ -35228,37 +35383,37 @@
         <v>-0.01</v>
       </c>
       <c r="AC109" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="AD109" t="n">
         <v>0.63</v>
       </c>
       <c r="AE109" t="n">
-        <v>0.83</v>
+        <v>-0.11</v>
       </c>
       <c r="AF109" t="n">
         <v>0</v>
       </c>
       <c r="AG109" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="AH109" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="AI109" t="n">
-        <v>0.07</v>
+        <v>0.05</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0.37</v>
+        <v>0.26</v>
       </c>
       <c r="AK109" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AL109" t="n">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="AM109" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AN109" t="n">
         <v>0.02</v>
@@ -35270,31 +35425,31 @@
         <v>0.01</v>
       </c>
       <c r="AQ109" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="AR109" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="AS109" t="n">
-        <v>9.87</v>
+        <v>10.07</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.97</v>
+        <v>0.57</v>
       </c>
       <c r="AU109" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
       <c r="AV109" t="n">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="AW109" t="n">
-        <v>0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AX109" t="n">
-        <v>1.51</v>
+        <v>0.86</v>
       </c>
       <c r="AY109" t="n">
-        <v>17.27</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="110">
@@ -35922,13 +36077,13 @@
         <v>45778</v>
       </c>
       <c r="B114" t="n">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
       <c r="C114" t="n">
         <v>0.09</v>
       </c>
       <c r="D114" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="E114" t="n">
         <v>0.03</v>
@@ -35937,7 +36092,7 @@
         <v>0.35</v>
       </c>
       <c r="G114" t="n">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="H114" t="n">
         <v>0.39</v>
@@ -35949,25 +36104,25 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="L114" t="n">
-        <v>-3.86</v>
+        <v>-3.64</v>
       </c>
       <c r="M114" t="n">
-        <v>0.01</v>
+        <v>0.07</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="P114" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="R114" t="n">
         <v>-0.06</v>
@@ -35976,22 +36131,22 @@
         <v>0.01</v>
       </c>
       <c r="T114" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="U114" t="n">
         <v>-0.05</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="W114" t="n">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="X114" t="n">
         <v>0.2</v>
       </c>
       <c r="Y114" t="n">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="Z114" t="n">
         <v>0.03</v>
@@ -36009,7 +36164,7 @@
         <v>-0.05</v>
       </c>
       <c r="AE114" t="n">
-        <v>1.48</v>
+        <v>1.64</v>
       </c>
       <c r="AF114" t="n">
         <v>0.98</v>
@@ -36018,7 +36173,7 @@
         <v>0.03</v>
       </c>
       <c r="AH114" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AI114" t="n">
         <v>0.02</v>
@@ -36030,13 +36185,13 @@
         <v>0</v>
       </c>
       <c r="AL114" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="AM114" t="n">
         <v>-0.07</v>
       </c>
       <c r="AN114" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="AO114" t="n">
         <v>-0.14</v>
@@ -36051,25 +36206,180 @@
         <v>0.07</v>
       </c>
       <c r="AS114" t="n">
-        <v>27.17</v>
+        <v>28.32</v>
       </c>
       <c r="AT114" t="n">
         <v>0.05</v>
       </c>
       <c r="AU114" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="AV114" t="n">
         <v>0.03</v>
       </c>
       <c r="AW114" t="n">
-        <v>0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="AX114" t="n">
         <v>-0.42</v>
       </c>
       <c r="AY114" t="n">
-        <v>29.34</v>
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="R115" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="W115" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="X115" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>-7.95</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>4.81</v>
       </c>
     </row>
   </sheetData>
@@ -58531,199 +58841,199 @@
         <v>45627</v>
       </c>
       <c r="B121" t="n">
-        <v>25.94</v>
+        <v>20.96</v>
       </c>
       <c r="C121" t="n">
-        <v>12.47</v>
+        <v>9.54</v>
       </c>
       <c r="D121" t="n">
-        <v>32.45</v>
+        <v>29.41</v>
       </c>
       <c r="E121" t="n">
-        <v>22.64</v>
+        <v>18.41</v>
       </c>
       <c r="F121" t="n">
-        <v>4.78</v>
+        <v>4.75</v>
       </c>
       <c r="G121" t="n">
-        <v>36.78</v>
+        <v>32.15</v>
       </c>
       <c r="H121" t="n">
-        <v>12.43</v>
+        <v>31.3</v>
       </c>
       <c r="I121" t="n">
-        <v>8.24</v>
+        <v>3.75</v>
       </c>
       <c r="J121" t="n">
-        <v>7.72</v>
+        <v>5.58</v>
       </c>
       <c r="K121" t="n">
-        <v>22.54</v>
+        <v>17.82</v>
       </c>
       <c r="L121" t="n">
-        <v>5.59</v>
+        <v>-1.26</v>
       </c>
       <c r="M121" t="n">
-        <v>352.47</v>
+        <v>372.44</v>
       </c>
       <c r="N121" t="n">
-        <v>6.63</v>
+        <v>0.17</v>
       </c>
       <c r="O121" t="n">
-        <v>-39.74</v>
+        <v>-39.38</v>
       </c>
       <c r="P121" t="n">
         <v>-12.18</v>
       </c>
       <c r="Q121" t="n">
-        <v>48.84</v>
+        <v>47.88</v>
       </c>
       <c r="R121" t="n">
-        <v>16.06</v>
+        <v>15.95</v>
       </c>
       <c r="S121" t="n">
-        <v>-1.99</v>
+        <v>-2.28</v>
       </c>
       <c r="T121" t="n">
-        <v>0.43</v>
+        <v>-6.06</v>
       </c>
       <c r="U121" t="n">
-        <v>110.94</v>
+        <v>106.35</v>
       </c>
       <c r="V121" t="n">
-        <v>7.25</v>
+        <v>-2.7</v>
       </c>
       <c r="W121" t="n">
-        <v>-14.44</v>
+        <v>62.06</v>
       </c>
       <c r="X121" t="n">
-        <v>21.5</v>
+        <v>-56.56</v>
       </c>
       <c r="Y121" t="n">
-        <v>17.14</v>
+        <v>13.2</v>
       </c>
       <c r="Z121" t="n">
         <v>-36.28</v>
       </c>
       <c r="AA121" t="n">
-        <v>1.15</v>
+        <v>-5.9</v>
       </c>
       <c r="AB121" t="n">
-        <v>-6.58</v>
+        <v>-5.46</v>
       </c>
       <c r="AC121" t="n">
-        <v>513.75</v>
+        <v>484.69</v>
       </c>
       <c r="AD121" t="n">
-        <v>-19.53</v>
+        <v>-23.75</v>
       </c>
       <c r="AE121" t="n">
-        <v>878.9</v>
+        <v>878.25</v>
       </c>
       <c r="AF121" t="n">
-        <v>24.07</v>
+        <v>15.61</v>
       </c>
       <c r="AG121" t="n">
-        <v>8.63</v>
+        <v>7.58</v>
       </c>
       <c r="AH121" t="n">
-        <v>39.77</v>
+        <v>21.05</v>
       </c>
       <c r="AI121" t="n">
-        <v>-4.28</v>
+        <v>2.02</v>
       </c>
       <c r="AJ121" t="n">
-        <v>6.11</v>
+        <v>3.15</v>
       </c>
       <c r="AK121" t="n">
-        <v>2.37</v>
+        <v>1.44</v>
       </c>
       <c r="AL121" t="n">
-        <v>9.87</v>
+        <v>-12.73</v>
       </c>
       <c r="AM121" t="n">
-        <v>-40.14</v>
+        <v>-40.86</v>
       </c>
       <c r="AN121" t="n">
-        <v>-38.81</v>
+        <v>-39.3</v>
       </c>
       <c r="AO121" t="n">
-        <v>-5.22</v>
+        <v>-0.34</v>
       </c>
       <c r="AP121" t="n">
-        <v>13.54</v>
+        <v>11.16</v>
       </c>
       <c r="AQ121" t="n">
-        <v>16.6</v>
+        <v>4.24</v>
       </c>
       <c r="AR121" t="n">
-        <v>-6.34</v>
+        <v>-7.95</v>
       </c>
       <c r="AS121" t="n">
-        <v>15.9</v>
+        <v>2.21</v>
       </c>
       <c r="AT121" t="n">
-        <v>-35.21</v>
+        <v>-29.72</v>
       </c>
       <c r="AU121" t="n">
-        <v>9.14</v>
+        <v>5.9</v>
       </c>
       <c r="AV121" t="n">
-        <v>-43.8</v>
+        <v>-45.14</v>
       </c>
       <c r="AW121" t="n">
-        <v>46.62</v>
+        <v>39.94</v>
       </c>
       <c r="AX121" t="n">
-        <v>-20.82</v>
+        <v>-21.83</v>
       </c>
       <c r="AY121" t="n">
-        <v>5.39</v>
+        <v>-14.67</v>
       </c>
       <c r="AZ121" t="n">
-        <v>59.71</v>
+        <v>49.3</v>
       </c>
       <c r="BA121" t="n">
-        <v>9.08</v>
+        <v>2.01</v>
       </c>
       <c r="BB121" t="n">
-        <v>37.59</v>
+        <v>35.47</v>
       </c>
       <c r="BC121" t="n">
-        <v>26.55</v>
+        <v>20.49</v>
       </c>
       <c r="BD121" t="n">
-        <v>38.6</v>
+        <v>53.89</v>
       </c>
       <c r="BE121" t="n">
-        <v>18.48</v>
+        <v>0.69</v>
       </c>
       <c r="BF121" t="n">
-        <v>15</v>
+        <v>16.09</v>
       </c>
       <c r="BG121" t="n">
-        <v>-2.71</v>
+        <v>-8.81</v>
       </c>
       <c r="BH121" t="n">
-        <v>-1.52</v>
+        <v>-3.53</v>
       </c>
       <c r="BI121" t="n">
-        <v>1.12</v>
+        <v>1.02</v>
       </c>
       <c r="BJ121" t="n">
-        <v>0.39</v>
+        <v>-0.85</v>
       </c>
       <c r="BK121" t="n">
-        <v>12.99</v>
+        <v>8.82</v>
       </c>
       <c r="BL121" t="n">
-        <v>22.94</v>
+        <v>12.84</v>
       </c>
       <c r="BM121" t="n">
-        <v>19.36</v>
+        <v>19.3</v>
       </c>
       <c r="BN121" t="n">
-        <v>19.36</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="122">
@@ -59531,199 +59841,399 @@
         <v>45778</v>
       </c>
       <c r="B126" t="n">
-        <v>-19.57</v>
+        <v>-18.69</v>
       </c>
       <c r="C126" t="n">
-        <v>17.8</v>
+        <v>22.72</v>
       </c>
       <c r="D126" t="n">
-        <v>25.63</v>
+        <v>26.64</v>
       </c>
       <c r="E126" t="n">
-        <v>3.63</v>
+        <v>-1.97</v>
       </c>
       <c r="F126" t="n">
-        <v>-8.85</v>
+        <v>-7.95</v>
       </c>
       <c r="G126" t="n">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="H126" t="n">
-        <v>-1.61</v>
+        <v>-2.12</v>
       </c>
       <c r="I126" t="n">
-        <v>30.93</v>
+        <v>30.92</v>
       </c>
       <c r="J126" t="n">
-        <v>5.65</v>
+        <v>7.82</v>
       </c>
       <c r="K126" t="n">
-        <v>-14.83</v>
+        <v>-14.8</v>
       </c>
       <c r="L126" t="n">
-        <v>-7.89</v>
+        <v>-7.98</v>
       </c>
       <c r="M126" t="n">
         <v>345.19</v>
       </c>
       <c r="N126" t="n">
-        <v>-2.88</v>
+        <v>-2.29</v>
       </c>
       <c r="O126" t="n">
-        <v>-44.37</v>
+        <v>9.34</v>
       </c>
       <c r="P126" t="n">
         <v>306.95</v>
       </c>
       <c r="Q126" t="n">
-        <v>5.94</v>
+        <v>6.67</v>
       </c>
       <c r="R126" t="n">
-        <v>0.34</v>
+        <v>0.19</v>
       </c>
       <c r="S126" t="n">
         <v>-12.4</v>
       </c>
       <c r="T126" t="n">
-        <v>17.07</v>
+        <v>17.44</v>
       </c>
       <c r="U126" t="n">
-        <v>23.07</v>
+        <v>22.08</v>
       </c>
       <c r="V126" t="n">
-        <v>-1.76</v>
+        <v>0.05</v>
       </c>
       <c r="W126" t="n">
-        <v>166.6</v>
+        <v>25.26</v>
       </c>
       <c r="X126" t="n">
-        <v>-42.04</v>
+        <v>-45.11</v>
       </c>
       <c r="Y126" t="n">
-        <v>33.31</v>
+        <v>33.38</v>
       </c>
       <c r="Z126" t="n">
         <v>159.2</v>
       </c>
       <c r="AA126" t="n">
-        <v>-8.9</v>
+        <v>-2.88</v>
       </c>
       <c r="AB126" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>158.66</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>-35.2</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>333.37</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>-13.75</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>74.29</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>-14.79</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>-10.24</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>-31.42</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>-7.39</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>-3.14</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>98.62</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>-8.98</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>-43.52</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>-14.17</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>103.65</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>-15.06</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>-12.03</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>88.49</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>17.56</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>-3.72</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="C127" t="n">
+        <v>28.32</v>
+      </c>
+      <c r="D127" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="E127" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="G127" t="n">
+        <v>32.51</v>
+      </c>
+      <c r="H127" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="I127" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="J127" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="K127" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="L127" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="M127" t="n">
+        <v>51.13</v>
+      </c>
+      <c r="N127" t="n">
+        <v>-14</v>
+      </c>
+      <c r="O127" t="n">
+        <v>84.66</v>
+      </c>
+      <c r="P127" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="R127" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="S127" t="n">
+        <v>-18.77</v>
+      </c>
+      <c r="T127" t="n">
+        <v>31.21</v>
+      </c>
+      <c r="U127" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="V127" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="W127" t="n">
+        <v>146.47</v>
+      </c>
+      <c r="X127" t="n">
+        <v>120.56</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>-84.23</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>274.29</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>26.54</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>399.2</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>-29.91</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>-31.11</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>8.88</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>-6.07</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>39.8</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>-53.82</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>-21.96</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>-40.02</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>-45.53</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>-24.38</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>26.24</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>204.45</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>-15.73</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>-19.9</v>
+      </c>
+      <c r="BJ127" t="n">
         <v>5.27</v>
       </c>
-      <c r="AC126" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="AD126" t="n">
-        <v>-35.48</v>
-      </c>
-      <c r="AE126" t="n">
-        <v>333.74</v>
-      </c>
-      <c r="AF126" t="n">
-        <v>-15.06</v>
-      </c>
-      <c r="AG126" t="n">
-        <v>73.94</v>
-      </c>
-      <c r="AH126" t="n">
-        <v>-14.78</v>
-      </c>
-      <c r="AI126" t="n">
-        <v>24.79</v>
-      </c>
-      <c r="AJ126" t="n">
-        <v>8.26</v>
-      </c>
-      <c r="AK126" t="n">
-        <v>-10.35</v>
-      </c>
-      <c r="AL126" t="n">
-        <v>-9.41</v>
-      </c>
-      <c r="AM126" t="n">
-        <v>-31.41</v>
-      </c>
-      <c r="AN126" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AO126" t="n">
-        <v>-6.61</v>
-      </c>
-      <c r="AP126" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="AQ126" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="AR126" t="n">
-        <v>-5.94</v>
-      </c>
-      <c r="AS126" t="n">
-        <v>97.65</v>
-      </c>
-      <c r="AT126" t="n">
-        <v>-9.04</v>
-      </c>
-      <c r="AU126" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV126" t="n">
-        <v>-43.41</v>
-      </c>
-      <c r="AW126" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AX126" t="n">
-        <v>-13.83</v>
-      </c>
-      <c r="AY126" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="AZ126" t="n">
-        <v>96</v>
-      </c>
-      <c r="BA126" t="n">
-        <v>-14.42</v>
-      </c>
-      <c r="BB126" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="BC126" t="n">
-        <v>-11.95</v>
-      </c>
-      <c r="BD126" t="n">
-        <v>-37.78</v>
-      </c>
-      <c r="BE126" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="BF126" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="BG126" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="BH126" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="BI126" t="n">
-        <v>-1.99</v>
-      </c>
-      <c r="BJ126" t="n">
-        <v>-7.09</v>
-      </c>
-      <c r="BK126" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="BL126" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="BM126" t="n">
-        <v>6.26</v>
-      </c>
-      <c r="BN126" t="n">
-        <v>6.26</v>
+      <c r="BK127" t="n">
+        <v>26.57</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>-41.97</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>-41.97</v>
       </c>
     </row>
   </sheetData>
@@ -62229,22 +62739,22 @@
         <v>45627</v>
       </c>
       <c r="B109" t="n">
-        <v>1.69</v>
+        <v>1.36</v>
       </c>
       <c r="C109" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="D109" t="n">
-        <v>7.38</v>
+        <v>5.17</v>
       </c>
       <c r="E109" t="n">
-        <v>1.53</v>
+        <v>0.87</v>
       </c>
       <c r="F109" t="n">
-        <v>1.07</v>
+        <v>0.6</v>
       </c>
       <c r="G109" t="n">
-        <v>3.45</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="110">
@@ -62344,22 +62854,45 @@
         <v>45778</v>
       </c>
       <c r="B114" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.07</v>
+        <v>-0.12</v>
       </c>
       <c r="D114" t="n">
-        <v>28</v>
+        <v>28.42</v>
       </c>
       <c r="E114" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.73</v>
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.48</v>
       </c>
     </row>
   </sheetData>

--- a/EXPORT_DATA_DOWNLOAD_ALL.xlsx
+++ b/EXPORT_DATA_DOWNLOAD_ALL.xlsx
@@ -15893,7 +15893,7 @@
         <v>15.01</v>
       </c>
       <c r="AU98" t="n">
-        <v>9.83</v>
+        <v>2.49</v>
       </c>
       <c r="AV98" t="n">
         <v>-37.81</v>
@@ -15905,7 +15905,7 @@
         <v>-4.01</v>
       </c>
       <c r="AY98" t="n">
-        <v>22.01</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="99">
@@ -16533,16 +16533,16 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-21.86</v>
+        <v>-19.57</v>
       </c>
       <c r="C103" t="n">
         <v>13.02</v>
       </c>
       <c r="D103" t="n">
-        <v>-17.22</v>
+        <v>-17.1</v>
       </c>
       <c r="E103" t="n">
-        <v>19.39</v>
+        <v>20.58</v>
       </c>
       <c r="F103" t="n">
         <v>4.99</v>
@@ -16557,43 +16557,43 @@
         <v>27.85</v>
       </c>
       <c r="J103" t="n">
-        <v>23.26</v>
+        <v>31.25</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.72</v>
+        <v>-10.78</v>
       </c>
       <c r="L103" t="n">
-        <v>-10.96</v>
+        <v>-9.94</v>
       </c>
       <c r="M103" t="n">
-        <v>-12.11</v>
+        <v>-8.87</v>
       </c>
       <c r="N103" t="n">
-        <v>-51.49</v>
+        <v>-50.08</v>
       </c>
       <c r="O103" t="n">
-        <v>0.83</v>
+        <v>2</v>
       </c>
       <c r="P103" t="n">
-        <v>-24.38</v>
+        <v>-23.06</v>
       </c>
       <c r="Q103" t="n">
-        <v>-45.95</v>
+        <v>-45.23</v>
       </c>
       <c r="R103" t="n">
-        <v>-32.83</v>
+        <v>-32.35</v>
       </c>
       <c r="S103" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
       <c r="T103" t="n">
-        <v>94.98</v>
+        <v>95.39</v>
       </c>
       <c r="U103" t="n">
         <v>-19.1</v>
       </c>
       <c r="V103" t="n">
-        <v>5.04</v>
+        <v>5.63</v>
       </c>
       <c r="W103" t="n">
         <v>-32.4</v>
@@ -16602,16 +16602,16 @@
         <v>-34.82</v>
       </c>
       <c r="Y103" t="n">
-        <v>-24.07</v>
+        <v>-22.66</v>
       </c>
       <c r="Z103" t="n">
-        <v>-13.46</v>
+        <v>-12.91</v>
       </c>
       <c r="AA103" t="n">
-        <v>-60.41</v>
+        <v>-59.14</v>
       </c>
       <c r="AB103" t="n">
-        <v>-14.75</v>
+        <v>-11.51</v>
       </c>
       <c r="AC103" t="n">
         <v>14.36</v>
@@ -16620,19 +16620,19 @@
         <v>46.01</v>
       </c>
       <c r="AE103" t="n">
-        <v>20.4</v>
+        <v>20.77</v>
       </c>
       <c r="AF103" t="n">
         <v>13.54</v>
       </c>
       <c r="AG103" t="n">
-        <v>-4.61</v>
+        <v>-3.47</v>
       </c>
       <c r="AH103" t="n">
-        <v>172.61</v>
+        <v>173.07</v>
       </c>
       <c r="AI103" t="n">
-        <v>-28.79</v>
+        <v>-28.33</v>
       </c>
       <c r="AJ103" t="n">
         <v>6.88</v>
@@ -16641,16 +16641,16 @@
         <v>1.39</v>
       </c>
       <c r="AL103" t="n">
-        <v>-9.95</v>
+        <v>-6.84</v>
       </c>
       <c r="AM103" t="n">
         <v>2.31</v>
       </c>
       <c r="AN103" t="n">
-        <v>10.82</v>
+        <v>13.2</v>
       </c>
       <c r="AO103" t="n">
-        <v>51.26</v>
+        <v>51.83</v>
       </c>
       <c r="AP103" t="n">
         <v>-18.4</v>
@@ -16668,19 +16668,19 @@
         <v>-52.68</v>
       </c>
       <c r="AU103" t="n">
-        <v>3.54</v>
+        <v>5.46</v>
       </c>
       <c r="AV103" t="n">
         <v>-46.35</v>
       </c>
       <c r="AW103" t="n">
-        <v>6.49</v>
+        <v>-25.5</v>
       </c>
       <c r="AX103" t="n">
         <v>0.42</v>
       </c>
       <c r="AY103" t="n">
-        <v>-8.94</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="104">
@@ -16688,16 +16688,16 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>-31.38</v>
+        <v>-29.76</v>
       </c>
       <c r="C104" t="n">
         <v>28.34</v>
       </c>
       <c r="D104" t="n">
-        <v>-48.37</v>
+        <v>-48.29</v>
       </c>
       <c r="E104" t="n">
-        <v>4.48</v>
+        <v>5.43</v>
       </c>
       <c r="F104" t="n">
         <v>201.5</v>
@@ -16712,43 +16712,43 @@
         <v>11.25</v>
       </c>
       <c r="J104" t="n">
-        <v>20.29</v>
+        <v>21.47</v>
       </c>
       <c r="K104" t="n">
-        <v>-43.01</v>
+        <v>-42.42</v>
       </c>
       <c r="L104" t="n">
-        <v>48.44</v>
+        <v>49.23</v>
       </c>
       <c r="M104" t="n">
-        <v>2.14</v>
+        <v>6.2</v>
       </c>
       <c r="N104" t="n">
-        <v>-41.99</v>
+        <v>-38.66</v>
       </c>
       <c r="O104" t="n">
-        <v>34.13</v>
+        <v>47.02</v>
       </c>
       <c r="P104" t="n">
-        <v>-23.19</v>
+        <v>-20.72</v>
       </c>
       <c r="Q104" t="n">
-        <v>-22.61</v>
+        <v>-20.57</v>
       </c>
       <c r="R104" t="n">
-        <v>-33.01</v>
+        <v>-32.47</v>
       </c>
       <c r="S104" t="n">
-        <v>509.24</v>
+        <v>509.71</v>
       </c>
       <c r="T104" t="n">
-        <v>-9.11</v>
+        <v>-8.41</v>
       </c>
       <c r="U104" t="n">
         <v>-8.42</v>
       </c>
       <c r="V104" t="n">
-        <v>53.96</v>
+        <v>54.67</v>
       </c>
       <c r="W104" t="n">
         <v>33.21</v>
@@ -16757,16 +16757,16 @@
         <v>-27</v>
       </c>
       <c r="Y104" t="n">
-        <v>-36.23</v>
+        <v>-33.31</v>
       </c>
       <c r="Z104" t="n">
-        <v>-4.82</v>
+        <v>-4.26</v>
       </c>
       <c r="AA104" t="n">
-        <v>4.13</v>
+        <v>8.94</v>
       </c>
       <c r="AB104" t="n">
-        <v>10.32</v>
+        <v>12.4</v>
       </c>
       <c r="AC104" t="n">
         <v>39.16</v>
@@ -16775,16 +16775,16 @@
         <v>65.25</v>
       </c>
       <c r="AE104" t="n">
-        <v>39.87</v>
+        <v>39.66</v>
       </c>
       <c r="AF104" t="n">
         <v>32.3</v>
       </c>
       <c r="AG104" t="n">
-        <v>-0.3</v>
+        <v>0.38</v>
       </c>
       <c r="AH104" t="n">
-        <v>702.85</v>
+        <v>703.16</v>
       </c>
       <c r="AI104" t="n">
         <v>-4.19</v>
@@ -16796,16 +16796,16 @@
         <v>-10.49</v>
       </c>
       <c r="AL104" t="n">
-        <v>11.95</v>
+        <v>14.1</v>
       </c>
       <c r="AM104" t="n">
         <v>10.59</v>
       </c>
       <c r="AN104" t="n">
-        <v>61.82</v>
+        <v>62.85</v>
       </c>
       <c r="AO104" t="n">
-        <v>15.37</v>
+        <v>15.93</v>
       </c>
       <c r="AP104" t="n">
         <v>34.22</v>
@@ -16823,19 +16823,19 @@
         <v>-29.25</v>
       </c>
       <c r="AU104" t="n">
-        <v>4.02</v>
+        <v>6.17</v>
       </c>
       <c r="AV104" t="n">
         <v>6.83</v>
       </c>
       <c r="AW104" t="n">
-        <v>-15.55</v>
+        <v>-41.14</v>
       </c>
       <c r="AX104" t="n">
         <v>48.98</v>
       </c>
       <c r="AY104" t="n">
-        <v>16.15</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="105">
@@ -16843,16 +16843,16 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>-21.62</v>
+        <v>-19.95</v>
       </c>
       <c r="C105" t="n">
         <v>5.45</v>
       </c>
       <c r="D105" t="n">
-        <v>-21.75</v>
+        <v>-21.68</v>
       </c>
       <c r="E105" t="n">
-        <v>-3.3</v>
+        <v>-2.03</v>
       </c>
       <c r="F105" t="n">
         <v>-59.69</v>
@@ -16867,43 +16867,43 @@
         <v>4.37</v>
       </c>
       <c r="J105" t="n">
-        <v>13.97</v>
+        <v>14.24</v>
       </c>
       <c r="K105" t="n">
-        <v>-54.75</v>
+        <v>-54.47</v>
       </c>
       <c r="L105" t="n">
-        <v>24.21</v>
+        <v>19.93</v>
       </c>
       <c r="M105" t="n">
-        <v>-11.67</v>
+        <v>-8.27</v>
       </c>
       <c r="N105" t="n">
-        <v>20.82</v>
+        <v>26.54</v>
       </c>
       <c r="O105" t="n">
-        <v>68.78</v>
+        <v>71.61</v>
       </c>
       <c r="P105" t="n">
-        <v>-39.03</v>
+        <v>-38.49</v>
       </c>
       <c r="Q105" t="n">
-        <v>-10.09</v>
+        <v>1.18</v>
       </c>
       <c r="R105" t="n">
-        <v>16.86</v>
+        <v>17.85</v>
       </c>
       <c r="S105" t="n">
-        <v>219.56</v>
+        <v>219.98</v>
       </c>
       <c r="T105" t="n">
-        <v>50.07</v>
+        <v>50.61</v>
       </c>
       <c r="U105" t="n">
         <v>-18.92</v>
       </c>
       <c r="V105" t="n">
-        <v>7.35</v>
+        <v>7.65</v>
       </c>
       <c r="W105" t="n">
         <v>-32.71</v>
@@ -16912,16 +16912,16 @@
         <v>9.15</v>
       </c>
       <c r="Y105" t="n">
-        <v>19.36</v>
+        <v>23.54</v>
       </c>
       <c r="Z105" t="n">
-        <v>-1.91</v>
+        <v>-0.99</v>
       </c>
       <c r="AA105" t="n">
-        <v>18.16</v>
+        <v>22.14</v>
       </c>
       <c r="AB105" t="n">
-        <v>-13.38</v>
+        <v>-13.2</v>
       </c>
       <c r="AC105" t="n">
         <v>1.04</v>
@@ -16930,19 +16930,19 @@
         <v>79.24</v>
       </c>
       <c r="AE105" t="n">
-        <v>4.8</v>
+        <v>5.11</v>
       </c>
       <c r="AF105" t="n">
         <v>-27.94</v>
       </c>
       <c r="AG105" t="n">
-        <v>-29.21</v>
+        <v>-28.5</v>
       </c>
       <c r="AH105" t="n">
-        <v>-28.66</v>
+        <v>-28.47</v>
       </c>
       <c r="AI105" t="n">
-        <v>4.58</v>
+        <v>4.87</v>
       </c>
       <c r="AJ105" t="n">
         <v>106.79</v>
@@ -16951,16 +16951,16 @@
         <v>-18.07</v>
       </c>
       <c r="AL105" t="n">
-        <v>18.05</v>
+        <v>20.1</v>
       </c>
       <c r="AM105" t="n">
         <v>-6.87</v>
       </c>
       <c r="AN105" t="n">
-        <v>68.54</v>
+        <v>71.82</v>
       </c>
       <c r="AO105" t="n">
-        <v>8.11</v>
+        <v>8.77</v>
       </c>
       <c r="AP105" t="n">
         <v>98.87</v>
@@ -16978,19 +16978,19 @@
         <v>-6.86</v>
       </c>
       <c r="AU105" t="n">
-        <v>-1.7</v>
+        <v>0.2</v>
       </c>
       <c r="AV105" t="n">
         <v>36.15</v>
       </c>
       <c r="AW105" t="n">
-        <v>-6.49</v>
+        <v>-33.44</v>
       </c>
       <c r="AX105" t="n">
         <v>0.41</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.78</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="106">
@@ -16998,16 +16998,16 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>34.48</v>
+        <v>36.79</v>
       </c>
       <c r="C106" t="n">
         <v>77.07</v>
       </c>
       <c r="D106" t="n">
-        <v>43.38</v>
+        <v>43.51</v>
       </c>
       <c r="E106" t="n">
-        <v>3.82</v>
+        <v>4.64</v>
       </c>
       <c r="F106" t="n">
         <v>-13.64</v>
@@ -17022,43 +17022,43 @@
         <v>-7.36</v>
       </c>
       <c r="J106" t="n">
-        <v>-4.39</v>
+        <v>-4.52</v>
       </c>
       <c r="K106" t="n">
-        <v>-63.34</v>
+        <v>-62.8</v>
       </c>
       <c r="L106" t="n">
-        <v>0.92</v>
+        <v>6.21</v>
       </c>
       <c r="M106" t="n">
-        <v>-12.06</v>
+        <v>-7.5</v>
       </c>
       <c r="N106" t="n">
-        <v>-34.07</v>
+        <v>-29.98</v>
       </c>
       <c r="O106" t="n">
-        <v>505.92</v>
+        <v>507.12</v>
       </c>
       <c r="P106" t="n">
-        <v>-4.24</v>
+        <v>-0.25</v>
       </c>
       <c r="Q106" t="n">
-        <v>-28.92</v>
+        <v>-27.81</v>
       </c>
       <c r="R106" t="n">
-        <v>-35.41</v>
+        <v>-35.26</v>
       </c>
       <c r="S106" t="n">
-        <v>56.93</v>
+        <v>56.94</v>
       </c>
       <c r="T106" t="n">
-        <v>11.98</v>
+        <v>12.48</v>
       </c>
       <c r="U106" t="n">
         <v>-29.79</v>
       </c>
       <c r="V106" t="n">
-        <v>56.35</v>
+        <v>56.84</v>
       </c>
       <c r="W106" t="n">
         <v>9.13</v>
@@ -17067,16 +17067,16 @@
         <v>27.28</v>
       </c>
       <c r="Y106" t="n">
-        <v>-38.92</v>
+        <v>-34.6</v>
       </c>
       <c r="Z106" t="n">
-        <v>19.86</v>
+        <v>21.34</v>
       </c>
       <c r="AA106" t="n">
-        <v>-21.9</v>
+        <v>-21.2</v>
       </c>
       <c r="AB106" t="n">
-        <v>19.55</v>
+        <v>19.58</v>
       </c>
       <c r="AC106" t="n">
         <v>61.71</v>
@@ -17085,19 +17085,19 @@
         <v>53.41</v>
       </c>
       <c r="AE106" t="n">
-        <v>51.44</v>
+        <v>51.7</v>
       </c>
       <c r="AF106" t="n">
         <v>2.74</v>
       </c>
       <c r="AG106" t="n">
-        <v>-6.53</v>
+        <v>-5.94</v>
       </c>
       <c r="AH106" t="n">
-        <v>-23.46</v>
+        <v>-22.84</v>
       </c>
       <c r="AI106" t="n">
-        <v>20.2</v>
+        <v>20.56</v>
       </c>
       <c r="AJ106" t="n">
         <v>117.63</v>
@@ -17106,16 +17106,16 @@
         <v>-57.15</v>
       </c>
       <c r="AL106" t="n">
-        <v>36.53</v>
+        <v>38.02</v>
       </c>
       <c r="AM106" t="n">
         <v>40.65</v>
       </c>
       <c r="AN106" t="n">
-        <v>1.59</v>
+        <v>2.05</v>
       </c>
       <c r="AO106" t="n">
-        <v>15.55</v>
+        <v>15.73</v>
       </c>
       <c r="AP106" t="n">
         <v>-26.35</v>
@@ -17133,19 +17133,19 @@
         <v>-1.73</v>
       </c>
       <c r="AU106" t="n">
-        <v>1.8</v>
+        <v>3.36</v>
       </c>
       <c r="AV106" t="n">
         <v>9.2</v>
       </c>
       <c r="AW106" t="n">
-        <v>0.05</v>
+        <v>-31.85</v>
       </c>
       <c r="AX106" t="n">
         <v>18.84</v>
       </c>
       <c r="AY106" t="n">
-        <v>40</v>
+        <v>40.69</v>
       </c>
     </row>
     <row r="107">
@@ -17153,16 +17153,16 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>22.18</v>
+        <v>24.42</v>
       </c>
       <c r="C107" t="n">
         <v>37.74</v>
       </c>
       <c r="D107" t="n">
-        <v>38.44</v>
+        <v>39.48</v>
       </c>
       <c r="E107" t="n">
-        <v>-40.57</v>
+        <v>-40.52</v>
       </c>
       <c r="F107" t="n">
         <v>29.55</v>
@@ -17177,43 +17177,43 @@
         <v>-7.57</v>
       </c>
       <c r="J107" t="n">
-        <v>-14.92</v>
+        <v>-14.96</v>
       </c>
       <c r="K107" t="n">
-        <v>-53.33</v>
+        <v>-52.5</v>
       </c>
       <c r="L107" t="n">
-        <v>-14.43</v>
+        <v>-14.13</v>
       </c>
       <c r="M107" t="n">
-        <v>12.9</v>
+        <v>19.26</v>
       </c>
       <c r="N107" t="n">
-        <v>-13.27</v>
+        <v>-8.57</v>
       </c>
       <c r="O107" t="n">
-        <v>29.85</v>
+        <v>31.53</v>
       </c>
       <c r="P107" t="n">
-        <v>32.05</v>
+        <v>34.56</v>
       </c>
       <c r="Q107" t="n">
-        <v>4.95</v>
+        <v>6.5</v>
       </c>
       <c r="R107" t="n">
-        <v>75.52</v>
+        <v>75.99</v>
       </c>
       <c r="S107" t="n">
         <v>4.16</v>
       </c>
       <c r="T107" t="n">
-        <v>39.41</v>
+        <v>40.41</v>
       </c>
       <c r="U107" t="n">
         <v>-13.42</v>
       </c>
       <c r="V107" t="n">
-        <v>3.04</v>
+        <v>3.46</v>
       </c>
       <c r="W107" t="n">
         <v>-33.85</v>
@@ -17222,16 +17222,16 @@
         <v>-24.83</v>
       </c>
       <c r="Y107" t="n">
-        <v>-24.15</v>
+        <v>-20.65</v>
       </c>
       <c r="Z107" t="n">
-        <v>16.22</v>
+        <v>23.5</v>
       </c>
       <c r="AA107" t="n">
-        <v>-11.14</v>
+        <v>-10.17</v>
       </c>
       <c r="AB107" t="n">
-        <v>11.16</v>
+        <v>11.11</v>
       </c>
       <c r="AC107" t="n">
         <v>32.91</v>
@@ -17240,19 +17240,19 @@
         <v>68.6</v>
       </c>
       <c r="AE107" t="n">
-        <v>66.54</v>
+        <v>66.87</v>
       </c>
       <c r="AF107" t="n">
         <v>73.96</v>
       </c>
       <c r="AG107" t="n">
-        <v>23.06</v>
+        <v>23.45</v>
       </c>
       <c r="AH107" t="n">
-        <v>-21.88</v>
+        <v>-21.82</v>
       </c>
       <c r="AI107" t="n">
-        <v>27.3</v>
+        <v>27.59</v>
       </c>
       <c r="AJ107" t="n">
         <v>5.67</v>
@@ -17261,16 +17261,16 @@
         <v>-6.39</v>
       </c>
       <c r="AL107" t="n">
-        <v>9.04</v>
+        <v>11.44</v>
       </c>
       <c r="AM107" t="n">
         <v>3.43</v>
       </c>
       <c r="AN107" t="n">
-        <v>5.22</v>
+        <v>5.4</v>
       </c>
       <c r="AO107" t="n">
-        <v>2.76</v>
+        <v>3.85</v>
       </c>
       <c r="AP107" t="n">
         <v>-8.04</v>
@@ -17288,19 +17288,19 @@
         <v>15.49</v>
       </c>
       <c r="AU107" t="n">
-        <v>-3.34</v>
+        <v>-2.19</v>
       </c>
       <c r="AV107" t="n">
         <v>16.6</v>
       </c>
       <c r="AW107" t="n">
-        <v>-8.37</v>
+        <v>-35.88</v>
       </c>
       <c r="AX107" t="n">
         <v>71.8</v>
       </c>
       <c r="AY107" t="n">
-        <v>20.81</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="108">
@@ -17308,16 +17308,16 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-17.69</v>
+        <v>-15.49</v>
       </c>
       <c r="C108" t="n">
         <v>-8.93</v>
       </c>
       <c r="D108" t="n">
-        <v>21.5</v>
+        <v>21.75</v>
       </c>
       <c r="E108" t="n">
-        <v>-12.32</v>
+        <v>-11.96</v>
       </c>
       <c r="F108" t="n">
         <v>65.33</v>
@@ -17332,43 +17332,43 @@
         <v>13.62</v>
       </c>
       <c r="J108" t="n">
-        <v>-17.38</v>
+        <v>-17.16</v>
       </c>
       <c r="K108" t="n">
-        <v>-54.26</v>
+        <v>-53.38</v>
       </c>
       <c r="L108" t="n">
-        <v>-37.21</v>
+        <v>-35.96</v>
       </c>
       <c r="M108" t="n">
-        <v>-3.51</v>
+        <v>18.42</v>
       </c>
       <c r="N108" t="n">
-        <v>-33.95</v>
+        <v>-32.22</v>
       </c>
       <c r="O108" t="n">
-        <v>51.69</v>
+        <v>54.68</v>
       </c>
       <c r="P108" t="n">
-        <v>-15.97</v>
+        <v>-14.12</v>
       </c>
       <c r="Q108" t="n">
-        <v>25.52</v>
+        <v>26.73</v>
       </c>
       <c r="R108" t="n">
-        <v>-21.01</v>
+        <v>-20.73</v>
       </c>
       <c r="S108" t="n">
-        <v>23</v>
+        <v>23.75</v>
       </c>
       <c r="T108" t="n">
-        <v>36.51</v>
+        <v>36.91</v>
       </c>
       <c r="U108" t="n">
         <v>26.61</v>
       </c>
       <c r="V108" t="n">
-        <v>-13.04</v>
+        <v>-12.69</v>
       </c>
       <c r="W108" t="n">
         <v>-6.25</v>
@@ -17377,16 +17377,16 @@
         <v>103.7</v>
       </c>
       <c r="Y108" t="n">
-        <v>43.6</v>
+        <v>44.1</v>
       </c>
       <c r="Z108" t="n">
-        <v>17.63</v>
+        <v>18.11</v>
       </c>
       <c r="AA108" t="n">
-        <v>-30.61</v>
+        <v>-29.71</v>
       </c>
       <c r="AB108" t="n">
-        <v>-24.83</v>
+        <v>-23.66</v>
       </c>
       <c r="AC108" t="n">
         <v>4.41</v>
@@ -17395,19 +17395,19 @@
         <v>8.94</v>
       </c>
       <c r="AE108" t="n">
-        <v>69.11</v>
+        <v>70.02</v>
       </c>
       <c r="AF108" t="n">
         <v>-0.05</v>
       </c>
       <c r="AG108" t="n">
-        <v>10.43</v>
+        <v>11.05</v>
       </c>
       <c r="AH108" t="n">
-        <v>707.94</v>
+        <v>708.61</v>
       </c>
       <c r="AI108" t="n">
-        <v>-26.94</v>
+        <v>-26.48</v>
       </c>
       <c r="AJ108" t="n">
         <v>24.32</v>
@@ -17416,16 +17416,16 @@
         <v>-26.35</v>
       </c>
       <c r="AL108" t="n">
-        <v>38.29</v>
+        <v>41.52</v>
       </c>
       <c r="AM108" t="n">
         <v>13.65</v>
       </c>
       <c r="AN108" t="n">
-        <v>-31.27</v>
+        <v>-28.76</v>
       </c>
       <c r="AO108" t="n">
-        <v>12.01</v>
+        <v>12.54</v>
       </c>
       <c r="AP108" t="n">
         <v>-9.54</v>
@@ -17443,19 +17443,19 @@
         <v>-24.83</v>
       </c>
       <c r="AU108" t="n">
-        <v>1.46</v>
+        <v>3.77</v>
       </c>
       <c r="AV108" t="n">
         <v>-6.82</v>
       </c>
       <c r="AW108" t="n">
-        <v>4.32</v>
+        <v>-28.65</v>
       </c>
       <c r="AX108" t="n">
         <v>29.58</v>
       </c>
       <c r="AY108" t="n">
-        <v>28.11</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="109">
@@ -17618,154 +17618,154 @@
         <v>45658</v>
       </c>
       <c r="B110" t="n">
-        <v>11.43</v>
+        <v>12.48</v>
       </c>
       <c r="C110" t="n">
-        <v>-18.18</v>
+        <v>-22.46</v>
       </c>
       <c r="D110" t="n">
-        <v>167.47</v>
+        <v>43.19</v>
       </c>
       <c r="E110" t="n">
-        <v>19.87</v>
+        <v>19.52</v>
       </c>
       <c r="F110" t="n">
-        <v>-57.21</v>
+        <v>-60.68</v>
       </c>
       <c r="G110" t="n">
-        <v>-21.51</v>
+        <v>-27.07</v>
       </c>
       <c r="H110" t="n">
-        <v>-6.89</v>
+        <v>-10.01</v>
       </c>
       <c r="I110" t="n">
-        <v>-27.71</v>
+        <v>-24.2</v>
       </c>
       <c r="J110" t="n">
-        <v>-63.96</v>
+        <v>-64.46</v>
       </c>
       <c r="K110" t="n">
-        <v>-46.24</v>
+        <v>-45.34</v>
       </c>
       <c r="L110" t="n">
-        <v>-30.98</v>
+        <v>-34.19</v>
       </c>
       <c r="M110" t="n">
-        <v>11.15</v>
+        <v>15.19</v>
       </c>
       <c r="N110" t="n">
-        <v>-68.04</v>
+        <v>-67.23</v>
       </c>
       <c r="O110" t="n">
-        <v>5.77</v>
+        <v>6.75</v>
       </c>
       <c r="P110" t="n">
-        <v>61.93</v>
+        <v>62.62</v>
       </c>
       <c r="Q110" t="n">
-        <v>20.42</v>
+        <v>21.62</v>
       </c>
       <c r="R110" t="n">
-        <v>-2.26</v>
+        <v>-3.45</v>
       </c>
       <c r="S110" t="n">
-        <v>20.2</v>
+        <v>13.47</v>
       </c>
       <c r="T110" t="n">
-        <v>66.16</v>
+        <v>67.02</v>
       </c>
       <c r="U110" t="n">
-        <v>25.82</v>
+        <v>30.03</v>
       </c>
       <c r="V110" t="n">
-        <v>22.54</v>
+        <v>22.86</v>
       </c>
       <c r="W110" t="n">
-        <v>-36.16</v>
+        <v>-36.2</v>
       </c>
       <c r="X110" t="n">
-        <v>276.87</v>
+        <v>265.21</v>
       </c>
       <c r="Y110" t="n">
-        <v>-3.4</v>
+        <v>-0.74</v>
       </c>
       <c r="Z110" t="n">
-        <v>51.46</v>
+        <v>49.52</v>
       </c>
       <c r="AA110" t="n">
-        <v>-0.06</v>
+        <v>2.65</v>
       </c>
       <c r="AB110" t="n">
-        <v>-16.56</v>
+        <v>-9.35</v>
       </c>
       <c r="AC110" t="n">
-        <v>17.3</v>
+        <v>14.38</v>
       </c>
       <c r="AD110" t="n">
-        <v>-16.41</v>
+        <v>-13.75</v>
       </c>
       <c r="AE110" t="n">
-        <v>-2.25</v>
+        <v>-2.22</v>
       </c>
       <c r="AF110" t="n">
-        <v>32.02</v>
+        <v>8.14</v>
       </c>
       <c r="AG110" t="n">
-        <v>53.99</v>
+        <v>56.28</v>
       </c>
       <c r="AH110" t="n">
-        <v>1276.69</v>
+        <v>1292.52</v>
       </c>
       <c r="AI110" t="n">
-        <v>1.43</v>
+        <v>1.76</v>
       </c>
       <c r="AJ110" t="n">
-        <v>39.47</v>
+        <v>45.14</v>
       </c>
       <c r="AK110" t="n">
-        <v>-4</v>
+        <v>-23.6</v>
       </c>
       <c r="AL110" t="n">
-        <v>120.65</v>
+        <v>128.39</v>
       </c>
       <c r="AM110" t="n">
-        <v>-1.8</v>
+        <v>12.41</v>
       </c>
       <c r="AN110" t="n">
-        <v>-8.09</v>
+        <v>-8.16</v>
       </c>
       <c r="AO110" t="n">
-        <v>19.61</v>
+        <v>20.54</v>
       </c>
       <c r="AP110" t="n">
-        <v>8.45</v>
+        <v>6.05</v>
       </c>
       <c r="AQ110" t="n">
-        <v>17.28</v>
+        <v>10.22</v>
       </c>
       <c r="AR110" t="n">
-        <v>-26.48</v>
+        <v>-23.11</v>
       </c>
       <c r="AS110" t="n">
-        <v>82.85</v>
+        <v>90.73</v>
       </c>
       <c r="AT110" t="n">
-        <v>-22.25</v>
+        <v>-21.99</v>
       </c>
       <c r="AU110" t="n">
-        <v>-2.72</v>
+        <v>5.96</v>
       </c>
       <c r="AV110" t="n">
-        <v>20.19</v>
+        <v>16.56</v>
       </c>
       <c r="AW110" t="n">
-        <v>41.69</v>
+        <v>-26.17</v>
       </c>
       <c r="AX110" t="n">
-        <v>-5.57</v>
+        <v>7.14</v>
       </c>
       <c r="AY110" t="n">
-        <v>36.83</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="111">
@@ -17773,154 +17773,154 @@
         <v>45689</v>
       </c>
       <c r="B111" t="n">
-        <v>-19.51</v>
+        <v>-17.69</v>
       </c>
       <c r="C111" t="n">
-        <v>53.52</v>
+        <v>51.78</v>
       </c>
       <c r="D111" t="n">
-        <v>-16.09</v>
+        <v>-15.64</v>
       </c>
       <c r="E111" t="n">
-        <v>4.33</v>
+        <v>-0.16</v>
       </c>
       <c r="F111" t="n">
-        <v>-60.68</v>
+        <v>-64.34</v>
       </c>
       <c r="G111" t="n">
-        <v>-74.96</v>
+        <v>-79.69</v>
       </c>
       <c r="H111" t="n">
-        <v>40.94</v>
+        <v>39.32</v>
       </c>
       <c r="I111" t="n">
-        <v>42.82</v>
+        <v>40.37</v>
       </c>
       <c r="J111" t="n">
-        <v>-10.28</v>
+        <v>-10.88</v>
       </c>
       <c r="K111" t="n">
-        <v>27.23</v>
+        <v>26.73</v>
       </c>
       <c r="L111" t="n">
-        <v>-12.61</v>
+        <v>-14.01</v>
       </c>
       <c r="M111" t="n">
-        <v>-0.48</v>
+        <v>3.38</v>
       </c>
       <c r="N111" t="n">
-        <v>-13.52</v>
+        <v>-12.84</v>
       </c>
       <c r="O111" t="n">
-        <v>11.09</v>
+        <v>11.89</v>
       </c>
       <c r="P111" t="n">
-        <v>68.36</v>
+        <v>70.38</v>
       </c>
       <c r="Q111" t="n">
-        <v>-19.05</v>
+        <v>-20.23</v>
       </c>
       <c r="R111" t="n">
-        <v>33.18</v>
+        <v>36.33</v>
       </c>
       <c r="S111" t="n">
-        <v>38.16</v>
+        <v>37.71</v>
       </c>
       <c r="T111" t="n">
-        <v>46.12</v>
+        <v>46.09</v>
       </c>
       <c r="U111" t="n">
-        <v>9.77</v>
+        <v>7.27</v>
       </c>
       <c r="V111" t="n">
-        <v>63.26</v>
+        <v>63.58</v>
       </c>
       <c r="W111" t="n">
-        <v>39.56</v>
+        <v>50.28</v>
       </c>
       <c r="X111" t="n">
-        <v>18.59</v>
+        <v>16.12</v>
       </c>
       <c r="Y111" t="n">
-        <v>8.67</v>
+        <v>6.82</v>
       </c>
       <c r="Z111" t="n">
-        <v>64.53</v>
+        <v>64.9</v>
       </c>
       <c r="AA111" t="n">
-        <v>-42.9</v>
+        <v>-44.2</v>
       </c>
       <c r="AB111" t="n">
-        <v>-73.25</v>
+        <v>-73.04</v>
       </c>
       <c r="AC111" t="n">
-        <v>15.81</v>
+        <v>13.88</v>
       </c>
       <c r="AD111" t="n">
-        <v>11.38</v>
+        <v>10.97</v>
       </c>
       <c r="AE111" t="n">
-        <v>18.68</v>
+        <v>16.17</v>
       </c>
       <c r="AF111" t="n">
-        <v>-33.25</v>
+        <v>-35.25</v>
       </c>
       <c r="AG111" t="n">
-        <v>13.17</v>
+        <v>14.21</v>
       </c>
       <c r="AH111" t="n">
-        <v>-88.02</v>
+        <v>-87.47</v>
       </c>
       <c r="AI111" t="n">
-        <v>2.71</v>
+        <v>1.71</v>
       </c>
       <c r="AJ111" t="n">
-        <v>282.78</v>
+        <v>281.09</v>
       </c>
       <c r="AK111" t="n">
-        <v>-6.13</v>
+        <v>-6.26</v>
       </c>
       <c r="AL111" t="n">
-        <v>3.89</v>
+        <v>-0.5</v>
       </c>
       <c r="AM111" t="n">
-        <v>11.96</v>
+        <v>-0.1</v>
       </c>
       <c r="AN111" t="n">
-        <v>53.41</v>
+        <v>54.66</v>
       </c>
       <c r="AO111" t="n">
-        <v>19.34</v>
+        <v>20.58</v>
       </c>
       <c r="AP111" t="n">
-        <v>-43.77</v>
+        <v>-45.13</v>
       </c>
       <c r="AQ111" t="n">
-        <v>64.91</v>
+        <v>61.62</v>
       </c>
       <c r="AR111" t="n">
-        <v>32.87</v>
+        <v>24.05</v>
       </c>
       <c r="AS111" t="n">
-        <v>210.64</v>
+        <v>211</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.37</v>
+        <v>-6.11</v>
       </c>
       <c r="AU111" t="n">
-        <v>3.07</v>
+        <v>2.36</v>
       </c>
       <c r="AV111" t="n">
-        <v>-13.3</v>
+        <v>-21.25</v>
       </c>
       <c r="AW111" t="n">
-        <v>24.91</v>
+        <v>-25.83</v>
       </c>
       <c r="AX111" t="n">
-        <v>20.27</v>
+        <v>11.47</v>
       </c>
       <c r="AY111" t="n">
-        <v>58.24</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="112">
@@ -17928,154 +17928,154 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>-3.15</v>
+        <v>-1.79</v>
       </c>
       <c r="C112" t="n">
-        <v>-27.09</v>
+        <v>-27.62</v>
       </c>
       <c r="D112" t="n">
-        <v>-33.91</v>
+        <v>-33.34</v>
       </c>
       <c r="E112" t="n">
-        <v>38.14</v>
+        <v>33.47</v>
       </c>
       <c r="F112" t="n">
-        <v>-30.16</v>
+        <v>-31.26</v>
       </c>
       <c r="G112" t="n">
-        <v>-57.22</v>
+        <v>-57.75</v>
       </c>
       <c r="H112" t="n">
-        <v>-46.85</v>
+        <v>-48.4</v>
       </c>
       <c r="I112" t="n">
-        <v>-18.44</v>
+        <v>-19.68</v>
       </c>
       <c r="J112" t="n">
-        <v>2.16</v>
+        <v>2.98</v>
       </c>
       <c r="K112" t="n">
-        <v>-4.79</v>
+        <v>-4.7</v>
       </c>
       <c r="L112" t="n">
-        <v>-37.24</v>
+        <v>-37.19</v>
       </c>
       <c r="M112" t="n">
-        <v>-1.17</v>
+        <v>7.08</v>
       </c>
       <c r="N112" t="n">
-        <v>-34.73</v>
+        <v>-34.63</v>
       </c>
       <c r="O112" t="n">
-        <v>8.53</v>
+        <v>13.62</v>
       </c>
       <c r="P112" t="n">
-        <v>59.65</v>
+        <v>60.86</v>
       </c>
       <c r="Q112" t="n">
-        <v>4.79</v>
+        <v>4.32</v>
       </c>
       <c r="R112" t="n">
-        <v>-48.58</v>
+        <v>-44.93</v>
       </c>
       <c r="S112" t="n">
-        <v>-18.04</v>
+        <v>-17.22</v>
       </c>
       <c r="T112" t="n">
-        <v>11.67</v>
+        <v>12.95</v>
       </c>
       <c r="U112" t="n">
-        <v>85.44</v>
+        <v>18.22</v>
       </c>
       <c r="V112" t="n">
-        <v>25.49</v>
+        <v>26.13</v>
       </c>
       <c r="W112" t="n">
-        <v>-5.03</v>
+        <v>-5.82</v>
       </c>
       <c r="X112" t="n">
-        <v>173.19</v>
+        <v>148.01</v>
       </c>
       <c r="Y112" t="n">
-        <v>15.73</v>
+        <v>17.06</v>
       </c>
       <c r="Z112" t="n">
-        <v>7.23</v>
+        <v>5.38</v>
       </c>
       <c r="AA112" t="n">
-        <v>-0.65</v>
+        <v>5.37</v>
       </c>
       <c r="AB112" t="n">
-        <v>-2.43</v>
+        <v>-1.55</v>
       </c>
       <c r="AC112" t="n">
-        <v>37.74</v>
+        <v>36.98</v>
       </c>
       <c r="AD112" t="n">
-        <v>-17.2</v>
+        <v>-18.54</v>
       </c>
       <c r="AE112" t="n">
-        <v>42.04</v>
+        <v>40.36</v>
       </c>
       <c r="AF112" t="n">
-        <v>53.04</v>
+        <v>22.93</v>
       </c>
       <c r="AG112" t="n">
-        <v>76.35</v>
+        <v>77.22</v>
       </c>
       <c r="AH112" t="n">
-        <v>-10.73</v>
+        <v>-4.8</v>
       </c>
       <c r="AI112" t="n">
-        <v>30.08</v>
+        <v>27.81</v>
       </c>
       <c r="AJ112" t="n">
-        <v>59.14</v>
+        <v>58.19</v>
       </c>
       <c r="AK112" t="n">
-        <v>54.87</v>
+        <v>51.23</v>
       </c>
       <c r="AL112" t="n">
-        <v>43.79</v>
+        <v>44.52</v>
       </c>
       <c r="AM112" t="n">
-        <v>-10.75</v>
+        <v>-12</v>
       </c>
       <c r="AN112" t="n">
-        <v>20.88</v>
+        <v>21.39</v>
       </c>
       <c r="AO112" t="n">
-        <v>1.28</v>
+        <v>-0.15</v>
       </c>
       <c r="AP112" t="n">
         <v>-27.34</v>
       </c>
       <c r="AQ112" t="n">
-        <v>49.73</v>
+        <v>42.36</v>
       </c>
       <c r="AR112" t="n">
         <v>-17.76</v>
       </c>
       <c r="AS112" t="n">
-        <v>401.33</v>
+        <v>395.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>-31.12</v>
+        <v>-34.27</v>
       </c>
       <c r="AU112" t="n">
-        <v>3.13</v>
+        <v>5.06</v>
       </c>
       <c r="AV112" t="n">
-        <v>244.44</v>
+        <v>50.36</v>
       </c>
       <c r="AW112" t="n">
-        <v>27.65</v>
+        <v>-33.72</v>
       </c>
       <c r="AX112" t="n">
-        <v>22.02</v>
+        <v>9.2</v>
       </c>
       <c r="AY112" t="n">
-        <v>98.68</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="113">
@@ -18393,16 +18393,16 @@
         <v>45809</v>
       </c>
       <c r="B115" t="n">
-        <v>26.5</v>
+        <v>11.11</v>
       </c>
       <c r="C115" t="n">
         <v>-38.87</v>
       </c>
       <c r="D115" t="n">
-        <v>30.95</v>
+        <v>29.89</v>
       </c>
       <c r="E115" t="n">
-        <v>39.84</v>
+        <v>40.69</v>
       </c>
       <c r="F115" t="n">
         <v>13.19</v>
@@ -18411,88 +18411,88 @@
         <v>4.63</v>
       </c>
       <c r="H115" t="n">
-        <v>33.8</v>
+        <v>33.77</v>
       </c>
       <c r="I115" t="n">
         <v>-28.77</v>
       </c>
       <c r="J115" t="n">
-        <v>-7.04</v>
+        <v>-13.86</v>
       </c>
       <c r="K115" t="n">
-        <v>4.26</v>
+        <v>2.03</v>
       </c>
       <c r="L115" t="n">
-        <v>-6.64</v>
+        <v>-10.54</v>
       </c>
       <c r="M115" t="n">
-        <v>17.07</v>
+        <v>2.13</v>
       </c>
       <c r="N115" t="n">
-        <v>85.13</v>
+        <v>33.06</v>
       </c>
       <c r="O115" t="n">
-        <v>28.03</v>
+        <v>25.21</v>
       </c>
       <c r="P115" t="n">
-        <v>49.98</v>
+        <v>34.96</v>
       </c>
       <c r="Q115" t="n">
-        <v>27.31</v>
+        <v>19.37</v>
       </c>
       <c r="R115" t="n">
-        <v>-11.43</v>
+        <v>-7.98</v>
       </c>
       <c r="S115" t="n">
-        <v>46.79</v>
+        <v>39.9</v>
       </c>
       <c r="T115" t="n">
-        <v>65.66</v>
+        <v>64.3</v>
       </c>
       <c r="U115" t="n">
         <v>-0.46</v>
       </c>
       <c r="V115" t="n">
-        <v>-8.59</v>
+        <v>-10.92</v>
       </c>
       <c r="W115" t="n">
-        <v>-22.47</v>
+        <v>-8.46</v>
       </c>
       <c r="X115" t="n">
-        <v>660.86</v>
+        <v>66.24</v>
       </c>
       <c r="Y115" t="n">
-        <v>8.05</v>
+        <v>10.84</v>
       </c>
       <c r="Z115" t="n">
-        <v>95.29</v>
+        <v>91.79</v>
       </c>
       <c r="AA115" t="n">
-        <v>19.6</v>
+        <v>12.53</v>
       </c>
       <c r="AB115" t="n">
-        <v>13.25</v>
+        <v>13.11</v>
       </c>
       <c r="AC115" t="n">
         <v>29.29</v>
       </c>
       <c r="AD115" t="n">
-        <v>32.71</v>
+        <v>32.6</v>
       </c>
       <c r="AE115" t="n">
-        <v>61.47</v>
+        <v>62.83</v>
       </c>
       <c r="AF115" t="n">
         <v>165.46</v>
       </c>
       <c r="AG115" t="n">
-        <v>13.81</v>
+        <v>11.3</v>
       </c>
       <c r="AH115" t="n">
-        <v>55.32</v>
+        <v>53.93</v>
       </c>
       <c r="AI115" t="n">
-        <v>-2.92</v>
+        <v>-3.99</v>
       </c>
       <c r="AJ115" t="n">
         <v>99.44</v>
@@ -18501,16 +18501,16 @@
         <v>1.57</v>
       </c>
       <c r="AL115" t="n">
-        <v>45.76</v>
+        <v>41.56</v>
       </c>
       <c r="AM115" t="n">
         <v>-6.01</v>
       </c>
       <c r="AN115" t="n">
-        <v>-5.25</v>
+        <v>-25.75</v>
       </c>
       <c r="AO115" t="n">
-        <v>-8.19</v>
+        <v>-13.33</v>
       </c>
       <c r="AP115" t="n">
         <v>-3.03</v>
@@ -18522,25 +18522,490 @@
         <v>31.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>-23.4</v>
+        <v>-21.52</v>
       </c>
       <c r="AT115" t="n">
         <v>12.85</v>
       </c>
       <c r="AU115" t="n">
-        <v>6.47</v>
+        <v>4.27</v>
       </c>
       <c r="AV115" t="n">
         <v>23.6</v>
       </c>
       <c r="AW115" t="n">
-        <v>1.77</v>
+        <v>-17.72</v>
       </c>
       <c r="AX115" t="n">
-        <v>0.76</v>
+        <v>2.83</v>
       </c>
       <c r="AY115" t="n">
-        <v>4.81</v>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-8.79</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-5.68</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-26.35</v>
+      </c>
+      <c r="E116" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-38.26</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-57.96</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-25.61</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="J116" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="K116" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-34.39</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-15.4</v>
+      </c>
+      <c r="N116" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-9.02</v>
+      </c>
+      <c r="P116" t="n">
+        <v>42.6</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-9.04</v>
+      </c>
+      <c r="S116" t="n">
+        <v>-75.57</v>
+      </c>
+      <c r="T116" t="n">
+        <v>251.83</v>
+      </c>
+      <c r="U116" t="n">
+        <v>-15.14</v>
+      </c>
+      <c r="V116" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="W116" t="n">
+        <v>3</v>
+      </c>
+      <c r="X116" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>51.99</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>96.58</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>57.73</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>24.71</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>849.24</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>-26.54</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>93.22</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>9.72</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>-10.23</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>-28.5</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>-16.1</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>24.82</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>28.03</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>45.29</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>-17.28</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>-7.52</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>-6.04</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>-8.53</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>-5.87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-26.61</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-38.55</v>
+      </c>
+      <c r="E117" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="F117" t="n">
+        <v>201.66</v>
+      </c>
+      <c r="G117" t="n">
+        <v>116.83</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-63.66</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-22.16</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-11.58</v>
+      </c>
+      <c r="K117" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="L117" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-49</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-10.38</v>
+      </c>
+      <c r="P117" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-29.48</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-20.34</v>
+      </c>
+      <c r="S117" t="n">
+        <v>-75.22</v>
+      </c>
+      <c r="T117" t="n">
+        <v>644.01</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V117" t="n">
+        <v>34.34</v>
+      </c>
+      <c r="W117" t="n">
+        <v>-24.59</v>
+      </c>
+      <c r="X117" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>-15.14</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>-11.13</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>-32.4</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>-22.53</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>75.07</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>637.48</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1038.74</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>-8.64</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>59.76</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>29.36</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>-12.34</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>-15.63</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>-8.3</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>84.74</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>-8.57</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>17.85</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>-6.92</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-19.86</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-47.18</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-63.6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="F118" t="n">
+        <v>9.11</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-68.27</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="J118" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="K118" t="n">
+        <v>40.95</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-41.17</v>
+      </c>
+      <c r="M118" t="n">
+        <v>41.94</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-30.05</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-78.01</v>
+      </c>
+      <c r="P118" t="n">
+        <v>203.18</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>17.02</v>
+      </c>
+      <c r="R118" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="S118" t="n">
+        <v>19.53</v>
+      </c>
+      <c r="T118" t="n">
+        <v>708.66</v>
+      </c>
+      <c r="U118" t="n">
+        <v>79.93</v>
+      </c>
+      <c r="V118" t="n">
+        <v>-22.08</v>
+      </c>
+      <c r="W118" t="n">
+        <v>39.08</v>
+      </c>
+      <c r="X118" t="n">
+        <v>295.45</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>43.44</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>19.11</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>-15.91</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>560.02</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>17.94</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>-2.85</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>-20.72</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>45.84</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>90.7</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>48.17</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>126.03</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>22.43</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>41.87</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>30.52</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>27.81</v>
       </c>
     </row>
   </sheetData>
@@ -33732,7 +34197,7 @@
         <v>1.29</v>
       </c>
       <c r="AU98" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="AV98" t="n">
         <v>-0.08</v>
@@ -33744,7 +34209,7 @@
         <v>-0.14</v>
       </c>
       <c r="AY98" t="n">
-        <v>22.01</v>
+        <v>21.82</v>
       </c>
     </row>
     <row r="99">
@@ -34372,13 +34837,13 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C103" t="n">
         <v>0.06</v>
       </c>
       <c r="D103" t="n">
-        <v>-1.53</v>
+        <v>-1.52</v>
       </c>
       <c r="E103" t="n">
         <v>0.02</v>
@@ -34402,22 +34867,22 @@
         <v>-0.03</v>
       </c>
       <c r="L103" t="n">
-        <v>-0.8</v>
+        <v>-0.72</v>
       </c>
       <c r="M103" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="N103" t="n">
         <v>-0.01</v>
       </c>
       <c r="O103" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P103" t="n">
         <v>-0.03</v>
       </c>
       <c r="Q103" t="n">
-        <v>-2.02</v>
+        <v>-1.99</v>
       </c>
       <c r="R103" t="n">
         <v>-0.09</v>
@@ -34432,7 +34897,7 @@
         <v>-0.05</v>
       </c>
       <c r="V103" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="W103" t="n">
         <v>-0.65</v>
@@ -34459,13 +34924,13 @@
         <v>0.29</v>
       </c>
       <c r="AE103" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AF103" t="n">
         <v>0.02</v>
       </c>
       <c r="AG103" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AH103" t="n">
         <v>0.46</v>
@@ -34480,7 +34945,7 @@
         <v>0.01</v>
       </c>
       <c r="AL103" t="n">
-        <v>-0.05</v>
+        <v>-0.03</v>
       </c>
       <c r="AM103" t="n">
         <v>0.01</v>
@@ -34507,19 +34972,19 @@
         <v>-6.68</v>
       </c>
       <c r="AU103" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="AV103" t="n">
         <v>-0.08</v>
       </c>
       <c r="AW103" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="AX103" t="n">
         <v>0.01</v>
       </c>
       <c r="AY103" t="n">
-        <v>-8.94</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="104">
@@ -34527,7 +34992,7 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.12</v>
+        <v>-0.11</v>
       </c>
       <c r="C104" t="n">
         <v>0.12</v>
@@ -34554,25 +35019,25 @@
         <v>0.01</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.21</v>
+        <v>-0.2</v>
       </c>
       <c r="L104" t="n">
-        <v>4.67</v>
+        <v>4.75</v>
       </c>
       <c r="M104" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="N104" t="n">
         <v>-0.01</v>
       </c>
       <c r="O104" t="n">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="P104" t="n">
         <v>-0.03</v>
       </c>
       <c r="Q104" t="n">
-        <v>-1</v>
+        <v>-0.91</v>
       </c>
       <c r="R104" t="n">
         <v>-0.12</v>
@@ -34581,13 +35046,13 @@
         <v>0.22</v>
       </c>
       <c r="T104" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="U104" t="n">
         <v>-0.03</v>
       </c>
       <c r="V104" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W104" t="n">
         <v>0.49</v>
@@ -34614,16 +35079,16 @@
         <v>0.44</v>
       </c>
       <c r="AE104" t="n">
-        <v>3.17</v>
+        <v>3.15</v>
       </c>
       <c r="AF104" t="n">
         <v>0.04</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AH104" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AI104" t="n">
         <v>-0.01</v>
@@ -34635,7 +35100,7 @@
         <v>-0.05</v>
       </c>
       <c r="AL104" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="AM104" t="n">
         <v>0.04</v>
@@ -34662,19 +35127,19 @@
         <v>-3.36</v>
       </c>
       <c r="AU104" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AV104" t="n">
         <v>0.01</v>
       </c>
       <c r="AW104" t="n">
-        <v>-0.05</v>
+        <v>-0.12</v>
       </c>
       <c r="AX104" t="n">
         <v>1.53</v>
       </c>
       <c r="AY104" t="n">
-        <v>16.15</v>
+        <v>16.59</v>
       </c>
     </row>
     <row r="105">
@@ -34688,10 +35153,10 @@
         <v>0.02</v>
       </c>
       <c r="D105" t="n">
-        <v>-2.52</v>
+        <v>-2.51</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>-0.2</v>
@@ -34712,22 +35177,22 @@
         <v>-0.26</v>
       </c>
       <c r="L105" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="M105" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.37</v>
+        <v>0.04</v>
       </c>
       <c r="R105" t="n">
         <v>0.03</v>
@@ -34742,7 +35207,7 @@
         <v>-0.05</v>
       </c>
       <c r="V105" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="W105" t="n">
         <v>-0.78</v>
@@ -34769,7 +35234,7 @@
         <v>0.5</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="AF105" t="n">
         <v>-0.05</v>
@@ -34790,7 +35255,7 @@
         <v>-0.07</v>
       </c>
       <c r="AL105" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="AM105" t="n">
         <v>-0.02</v>
@@ -34817,19 +35282,19 @@
         <v>-0.55</v>
       </c>
       <c r="AU105" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="AV105" t="n">
         <v>0.05</v>
       </c>
       <c r="AW105" t="n">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="AX105" t="n">
         <v>0.01</v>
       </c>
       <c r="AY105" t="n">
-        <v>7.78</v>
+        <v>7.95</v>
       </c>
     </row>
     <row r="106">
@@ -34843,7 +35308,7 @@
         <v>0.25</v>
       </c>
       <c r="D106" t="n">
-        <v>5.12</v>
+        <v>5.14</v>
       </c>
       <c r="E106" t="n">
         <v>0.01</v>
@@ -34867,22 +35332,22 @@
         <v>-0.4</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1</v>
+        <v>0.65</v>
       </c>
       <c r="M106" t="n">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="N106" t="n">
         <v>-0.01</v>
       </c>
       <c r="O106" t="n">
-        <v>8.56</v>
+        <v>8.58</v>
       </c>
       <c r="P106" t="n">
         <v>0</v>
       </c>
       <c r="Q106" t="n">
-        <v>-1.09</v>
+        <v>-1.05</v>
       </c>
       <c r="R106" t="n">
         <v>-0.1</v>
@@ -34897,7 +35362,7 @@
         <v>-0.11</v>
       </c>
       <c r="V106" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="W106" t="n">
         <v>0.14</v>
@@ -34906,7 +35371,7 @@
         <v>0.07</v>
       </c>
       <c r="Y106" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
       <c r="Z106" t="n">
         <v>0.01</v>
@@ -34924,13 +35389,13 @@
         <v>0.49</v>
       </c>
       <c r="AE106" t="n">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
       <c r="AF106" t="n">
         <v>0</v>
       </c>
       <c r="AG106" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="AH106" t="n">
         <v>-0.06</v>
@@ -34945,7 +35410,7 @@
         <v>-0.38</v>
       </c>
       <c r="AL106" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="AM106" t="n">
         <v>0.17</v>
@@ -34972,19 +35437,19 @@
         <v>-0.12</v>
       </c>
       <c r="AU106" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="AV106" t="n">
         <v>0.01</v>
       </c>
       <c r="AW106" t="n">
-        <v>0</v>
+        <v>-0.08</v>
       </c>
       <c r="AX106" t="n">
         <v>0.47</v>
       </c>
       <c r="AY106" t="n">
-        <v>40</v>
+        <v>40.69</v>
       </c>
     </row>
     <row r="107">
@@ -34998,7 +35463,7 @@
         <v>0.12</v>
       </c>
       <c r="D107" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="E107" t="n">
         <v>-0.09</v>
@@ -35019,25 +35484,25 @@
         <v>-0.01</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="L107" t="n">
-        <v>-1.87</v>
+        <v>-1.83</v>
       </c>
       <c r="M107" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
       </c>
       <c r="O107" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="P107" t="n">
         <v>0.03</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="R107" t="n">
         <v>0.12</v>
@@ -35052,7 +35517,7 @@
         <v>-0.04</v>
       </c>
       <c r="V107" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="W107" t="n">
         <v>-0.91</v>
@@ -35079,13 +35544,13 @@
         <v>0.48</v>
       </c>
       <c r="AE107" t="n">
-        <v>6.58</v>
+        <v>6.61</v>
       </c>
       <c r="AF107" t="n">
         <v>0.07</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AH107" t="n">
         <v>-0.45</v>
@@ -35100,7 +35565,7 @@
         <v>-0.02</v>
       </c>
       <c r="AL107" t="n">
-        <v>0.05</v>
+        <v>0.07</v>
       </c>
       <c r="AM107" t="n">
         <v>0.01</v>
@@ -35127,19 +35592,19 @@
         <v>1.03</v>
       </c>
       <c r="AU107" t="n">
-        <v>-0.09</v>
+        <v>-0.06</v>
       </c>
       <c r="AV107" t="n">
         <v>0.02</v>
       </c>
       <c r="AW107" t="n">
-        <v>-0.02</v>
+        <v>-0.09</v>
       </c>
       <c r="AX107" t="n">
         <v>1.51</v>
       </c>
       <c r="AY107" t="n">
-        <v>20.81</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="108">
@@ -35147,13 +35612,13 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
       <c r="C108" t="n">
         <v>-0.04</v>
       </c>
       <c r="D108" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="E108" t="n">
         <v>-0.02</v>
@@ -35174,28 +35639,28 @@
         <v>-0.01</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="L108" t="n">
-        <v>-4.9</v>
+        <v>-4.74</v>
       </c>
       <c r="M108" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="N108" t="n">
         <v>-0.01</v>
       </c>
       <c r="O108" t="n">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="P108" t="n">
         <v>-0.02</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="R108" t="n">
-        <v>-0.07</v>
+        <v>-0.06</v>
       </c>
       <c r="S108" t="n">
         <v>0.01</v>
@@ -35207,7 +35672,7 @@
         <v>0.08</v>
       </c>
       <c r="V108" t="n">
-        <v>-0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="W108" t="n">
         <v>-0.1</v>
@@ -35216,7 +35681,7 @@
         <v>0.5</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="Z108" t="n">
         <v>0.01</v>
@@ -35234,7 +35699,7 @@
         <v>0.1</v>
       </c>
       <c r="AE108" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="AF108" t="n">
         <v>0</v>
@@ -35255,13 +35720,13 @@
         <v>-0.12</v>
       </c>
       <c r="AL108" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AM108" t="n">
         <v>0.06</v>
       </c>
       <c r="AN108" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AO108" t="n">
         <v>0.01</v>
@@ -35282,19 +35747,19 @@
         <v>-2.65</v>
       </c>
       <c r="AU108" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="AV108" t="n">
         <v>-0.01</v>
       </c>
       <c r="AW108" t="n">
-        <v>0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="AX108" t="n">
         <v>0.87</v>
       </c>
       <c r="AY108" t="n">
-        <v>28.11</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="109">
@@ -35460,25 +35925,25 @@
         <v>0.03</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.12</v>
+        <v>-0.15</v>
       </c>
       <c r="D110" t="n">
-        <v>10.58</v>
+        <v>2.73</v>
       </c>
       <c r="E110" t="n">
         <v>0.03</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.27</v>
+        <v>-0.29</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.26</v>
+        <v>-0.33</v>
       </c>
       <c r="H110" t="n">
-        <v>-0.12</v>
+        <v>-0.18</v>
       </c>
       <c r="I110" t="n">
-        <v>-1.21</v>
+        <v>-1.06</v>
       </c>
       <c r="J110" t="n">
         <v>-0.04</v>
@@ -35487,22 +35952,22 @@
         <v>-0.17</v>
       </c>
       <c r="L110" t="n">
-        <v>-3.31</v>
+        <v>-3.65</v>
       </c>
       <c r="M110" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="N110" t="n">
         <v>-0.02</v>
       </c>
       <c r="O110" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="P110" t="n">
         <v>0.05</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.53</v>
+        <v>0.56</v>
       </c>
       <c r="R110" t="n">
         <v>-0.01</v>
@@ -35514,16 +35979,16 @@
         <v>0.15</v>
       </c>
       <c r="U110" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="V110" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="W110" t="n">
         <v>-0.68</v>
       </c>
       <c r="X110" t="n">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="Y110" t="n">
         <v>0</v>
@@ -35538,37 +36003,37 @@
         <v>0</v>
       </c>
       <c r="AC110" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AD110" t="n">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="AE110" t="n">
-        <v>-0.22</v>
+        <v>-0.21</v>
       </c>
       <c r="AF110" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="AG110" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AH110" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="AI110" t="n">
         <v>0</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="AK110" t="n">
-        <v>-0.02</v>
+        <v>-0.1</v>
       </c>
       <c r="AL110" t="n">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="AM110" t="n">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="AN110" t="n">
         <v>-0.01</v>
@@ -35577,34 +36042,34 @@
         <v>0.01</v>
       </c>
       <c r="AP110" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AQ110" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="AR110" t="n">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="AS110" t="n">
-        <v>28.33</v>
+        <v>31.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>-1.81</v>
+        <v>-1.79</v>
       </c>
       <c r="AU110" t="n">
-        <v>-0.06</v>
+        <v>0.12</v>
       </c>
       <c r="AV110" t="n">
         <v>0.02</v>
       </c>
       <c r="AW110" t="n">
-        <v>0.07</v>
+        <v>-0.05</v>
       </c>
       <c r="AX110" t="n">
-        <v>-0.15</v>
+        <v>0.19</v>
       </c>
       <c r="AY110" t="n">
-        <v>36.83</v>
+        <v>31.86</v>
       </c>
     </row>
     <row r="111">
@@ -35615,25 +36080,25 @@
         <v>-0.05</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="D111" t="n">
-        <v>-1.01</v>
+        <v>-0.98</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.17</v>
+        <v>-0.18</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.56</v>
+        <v>-1.66</v>
       </c>
       <c r="H111" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I111" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="J111" t="n">
         <v>-0.01</v>
@@ -35642,25 +36107,25 @@
         <v>0.06</v>
       </c>
       <c r="L111" t="n">
-        <v>-1.37</v>
+        <v>-1.53</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="P111" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="Q111" t="n">
-        <v>-0.67</v>
+        <v>-0.71</v>
       </c>
       <c r="R111" t="n">
-        <v>0.06</v>
+        <v>0.07</v>
       </c>
       <c r="S111" t="n">
         <v>0.01</v>
@@ -35672,13 +36137,13 @@
         <v>0.02</v>
       </c>
       <c r="V111" t="n">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="W111" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="X111" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Y111" t="n">
         <v>0</v>
@@ -35693,25 +36158,25 @@
         <v>-0.07</v>
       </c>
       <c r="AC111" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="AD111" t="n">
         <v>0.13</v>
       </c>
       <c r="AE111" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="AF111" t="n">
-        <v>-0.07</v>
+        <v>-0.08</v>
       </c>
       <c r="AG111" t="n">
         <v>0.11</v>
       </c>
       <c r="AH111" t="n">
-        <v>-2.21</v>
+        <v>-2.2</v>
       </c>
       <c r="AI111" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AJ111" t="n">
         <v>0.35</v>
@@ -35720,10 +36185,10 @@
         <v>-0.04</v>
       </c>
       <c r="AL111" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="AM111" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AN111" t="n">
         <v>0.03</v>
@@ -35732,34 +36197,34 @@
         <v>0.02</v>
       </c>
       <c r="AP111" t="n">
+        <v>-0.07</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>54.99</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AW111" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AQ111" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AR111" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AS111" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="AT111" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AU111" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AV111" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="AW111" t="n">
-        <v>0.05</v>
-      </c>
       <c r="AX111" t="n">
-        <v>0.55</v>
+        <v>0.31</v>
       </c>
       <c r="AY111" t="n">
-        <v>58.24</v>
+        <v>56.75</v>
       </c>
     </row>
     <row r="112">
@@ -35767,28 +36232,28 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
         <v>-0.21</v>
       </c>
       <c r="D112" t="n">
-        <v>-3.25</v>
+        <v>-3.19</v>
       </c>
       <c r="E112" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.28</v>
+        <v>-0.29</v>
       </c>
       <c r="G112" t="n">
-        <v>-2.81</v>
+        <v>-2.83</v>
       </c>
       <c r="H112" t="n">
-        <v>-1.1</v>
+        <v>-1.14</v>
       </c>
       <c r="I112" t="n">
-        <v>-1.02</v>
+        <v>-1.09</v>
       </c>
       <c r="J112" t="n">
         <v>0</v>
@@ -35800,40 +36265,40 @@
         <v>-3.61</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
       </c>
       <c r="O112" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="P112" t="n">
         <v>0.05</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="R112" t="n">
-        <v>-0.19</v>
+        <v>-0.17</v>
       </c>
       <c r="S112" t="n">
         <v>-0.01</v>
       </c>
       <c r="T112" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="U112" t="n">
         <v>0.03</v>
       </c>
-      <c r="U112" t="n">
-        <v>0.15</v>
-      </c>
       <c r="V112" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="W112" t="n">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="X112" t="n">
-        <v>0.55</v>
+        <v>0.47</v>
       </c>
       <c r="Y112" t="n">
         <v>0.01</v>
@@ -35848,34 +36313,34 @@
         <v>0</v>
       </c>
       <c r="AC112" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="AD112" t="n">
-        <v>-0.28</v>
+        <v>-0.31</v>
       </c>
       <c r="AE112" t="n">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AG112" t="n">
         <v>0.47</v>
       </c>
       <c r="AH112" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="AI112" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AJ112" t="n">
         <v>0.17</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
       <c r="AL112" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AM112" t="n">
         <v>-0.05</v>
@@ -35890,31 +36355,31 @@
         <v>-0.03</v>
       </c>
       <c r="AQ112" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="AR112" t="n">
         <v>-0.03</v>
       </c>
       <c r="AS112" t="n">
-        <v>107.39</v>
+        <v>105.9</v>
       </c>
       <c r="AT112" t="n">
-        <v>-2.94</v>
+        <v>-3.24</v>
       </c>
       <c r="AU112" t="n">
-        <v>0.07</v>
+        <v>0.12</v>
       </c>
       <c r="AV112" t="n">
-        <v>0.28</v>
+        <v>0.06</v>
       </c>
       <c r="AW112" t="n">
-        <v>0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.58</v>
+        <v>0.24</v>
       </c>
       <c r="AY112" t="n">
-        <v>98.68</v>
+        <v>95.92</v>
       </c>
     </row>
     <row r="113">
@@ -36232,13 +36697,13 @@
         <v>45809</v>
       </c>
       <c r="B115" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="C115" t="n">
         <v>-0.21</v>
       </c>
       <c r="D115" t="n">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="E115" t="n">
         <v>0.06</v>
@@ -36253,31 +36718,31 @@
         <v>0.63</v>
       </c>
       <c r="I115" t="n">
-        <v>-1.67</v>
+        <v>-1.66</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="K115" t="n">
         <v>0.01</v>
       </c>
       <c r="L115" t="n">
-        <v>-0.47</v>
+        <v>-0.76</v>
       </c>
       <c r="M115" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="N115" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>0.46</v>
+        <v>0.42</v>
       </c>
       <c r="P115" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="R115" t="n">
         <v>-0.02</v>
@@ -36286,22 +36751,22 @@
         <v>0.02</v>
       </c>
       <c r="T115" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
       </c>
       <c r="V115" t="n">
-        <v>-0.34</v>
+        <v>-0.43</v>
       </c>
       <c r="W115" t="n">
-        <v>-0.34</v>
+        <v>-0.13</v>
       </c>
       <c r="X115" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="Y115" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Z115" t="n">
         <v>0.04</v>
@@ -36316,19 +36781,19 @@
         <v>0.42</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AE115" t="n">
-        <v>5.55</v>
+        <v>5.68</v>
       </c>
       <c r="AF115" t="n">
         <v>0.26</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AH115" t="n">
-        <v>0.44</v>
+        <v>0.43</v>
       </c>
       <c r="AI115" t="n">
         <v>-0.01</v>
@@ -36340,13 +36805,13 @@
         <v>0.01</v>
       </c>
       <c r="AL115" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AM115" t="n">
         <v>-0.02</v>
       </c>
       <c r="AN115" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="AO115" t="n">
         <v>-0.01</v>
@@ -36361,25 +36826,490 @@
         <v>0.04</v>
       </c>
       <c r="AS115" t="n">
-        <v>-7.95</v>
+        <v>-7.3</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="AU115" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="AV115" t="n">
         <v>0.02</v>
       </c>
       <c r="AW115" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="J116" t="n">
         <v>0</v>
       </c>
-      <c r="AX115" t="n">
+      <c r="K116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="R116" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="S116" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="U116" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
         <v>0.03</v>
       </c>
-      <c r="AY115" t="n">
-        <v>4.81</v>
+      <c r="AC116" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>-5.87</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-3.24</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R117" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="S117" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="W117" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>-14.72</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>-6.92</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-7.66</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1.46</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-3.26</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V118" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>27.81</v>
       </c>
     </row>
   </sheetData>
@@ -56653,7 +57583,7 @@
         <v>23.68</v>
       </c>
       <c r="F110" t="n">
-        <v>45.66</v>
+        <v>1.81</v>
       </c>
       <c r="G110" t="n">
         <v>0.57</v>
@@ -57230,10 +58160,10 @@
         <v>0.41</v>
       </c>
       <c r="BM112" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="BN112" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="113">
@@ -57641,37 +58571,37 @@
         <v>45444</v>
       </c>
       <c r="B115" t="n">
-        <v>-24.14</v>
+        <v>-24.1</v>
       </c>
       <c r="C115" t="n">
-        <v>-6.98</v>
+        <v>-6.81</v>
       </c>
       <c r="D115" t="n">
-        <v>-9.25</v>
+        <v>-9.06</v>
       </c>
       <c r="E115" t="n">
-        <v>-9.32</v>
+        <v>-5.79</v>
       </c>
       <c r="F115" t="n">
-        <v>-7.23</v>
+        <v>-6.68</v>
       </c>
       <c r="G115" t="n">
-        <v>11.23</v>
+        <v>12.34</v>
       </c>
       <c r="H115" t="n">
-        <v>14.92</v>
+        <v>14.68</v>
       </c>
       <c r="I115" t="n">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="J115" t="n">
-        <v>-9.33</v>
+        <v>-7.41</v>
       </c>
       <c r="K115" t="n">
-        <v>-2.69</v>
+        <v>-2.59</v>
       </c>
       <c r="L115" t="n">
-        <v>19.44</v>
+        <v>19.84</v>
       </c>
       <c r="M115" t="n">
         <v>-30.55</v>
@@ -57686,7 +58616,7 @@
         <v>60.95</v>
       </c>
       <c r="Q115" t="n">
-        <v>-11.29</v>
+        <v>-10.38</v>
       </c>
       <c r="R115" t="n">
         <v>28.91</v>
@@ -57695,139 +58625,139 @@
         <v>-19.04</v>
       </c>
       <c r="T115" t="n">
-        <v>-4.31</v>
+        <v>-1.21</v>
       </c>
       <c r="U115" t="n">
-        <v>21.05</v>
+        <v>22.99</v>
       </c>
       <c r="V115" t="n">
-        <v>-16.11</v>
+        <v>-15.24</v>
       </c>
       <c r="W115" t="n">
-        <v>-27.36</v>
+        <v>-27.35</v>
       </c>
       <c r="X115" t="n">
         <v>-75.67</v>
       </c>
       <c r="Y115" t="n">
-        <v>219.54</v>
+        <v>220.59</v>
       </c>
       <c r="Z115" t="n">
         <v>-55.65</v>
       </c>
       <c r="AA115" t="n">
-        <v>-4.77</v>
+        <v>-3.05</v>
       </c>
       <c r="AB115" t="n">
-        <v>-3.12</v>
+        <v>-3.61</v>
       </c>
       <c r="AC115" t="n">
         <v>-30.95</v>
       </c>
       <c r="AD115" t="n">
-        <v>-27.42</v>
+        <v>-27.38</v>
       </c>
       <c r="AE115" t="n">
-        <v>-55.42</v>
+        <v>-55.37</v>
       </c>
       <c r="AF115" t="n">
-        <v>-11.15</v>
+        <v>-10.96</v>
       </c>
       <c r="AG115" t="n">
-        <v>-5.07</v>
+        <v>-4.95</v>
       </c>
       <c r="AH115" t="n">
-        <v>-7.8</v>
+        <v>-7.77</v>
       </c>
       <c r="AI115" t="n">
-        <v>104.17</v>
+        <v>120.26</v>
       </c>
       <c r="AJ115" t="n">
-        <v>-17.95</v>
+        <v>-14.68</v>
       </c>
       <c r="AK115" t="n">
-        <v>-22.66</v>
+        <v>-21.5</v>
       </c>
       <c r="AL115" t="n">
-        <v>-19.67</v>
+        <v>-18.38</v>
       </c>
       <c r="AM115" t="n">
-        <v>116.8</v>
+        <v>116.87</v>
       </c>
       <c r="AN115" t="n">
-        <v>-10.76</v>
+        <v>-10.89</v>
       </c>
       <c r="AO115" t="n">
-        <v>-12.13</v>
+        <v>-9.37</v>
       </c>
       <c r="AP115" t="n">
-        <v>-18.1</v>
+        <v>-18.28</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.58</v>
+        <v>3.06</v>
       </c>
       <c r="AR115" t="n">
-        <v>-8.19</v>
+        <v>-6.05</v>
       </c>
       <c r="AS115" t="n">
-        <v>45.79</v>
+        <v>46.62</v>
       </c>
       <c r="AT115" t="n">
-        <v>-12.18</v>
+        <v>-12.11</v>
       </c>
       <c r="AU115" t="n">
-        <v>2.14</v>
+        <v>5.93</v>
       </c>
       <c r="AV115" t="n">
-        <v>-36.76</v>
+        <v>-40.66</v>
       </c>
       <c r="AW115" t="n">
-        <v>86.33</v>
+        <v>87.52</v>
       </c>
       <c r="AX115" t="n">
-        <v>-22.17</v>
+        <v>-22.15</v>
       </c>
       <c r="AY115" t="n">
-        <v>-19.83</v>
+        <v>-18.92</v>
       </c>
       <c r="AZ115" t="n">
-        <v>-5.75</v>
+        <v>-5.95</v>
       </c>
       <c r="BA115" t="n">
-        <v>9.28</v>
+        <v>8.18</v>
       </c>
       <c r="BB115" t="n">
-        <v>57.02</v>
+        <v>56.98</v>
       </c>
       <c r="BC115" t="n">
-        <v>-27.45</v>
+        <v>-26.38</v>
       </c>
       <c r="BD115" t="n">
-        <v>-11.43</v>
+        <v>-11.39</v>
       </c>
       <c r="BE115" t="n">
-        <v>16.82</v>
+        <v>17.43</v>
       </c>
       <c r="BF115" t="n">
-        <v>-11.04</v>
+        <v>-9.87</v>
       </c>
       <c r="BG115" t="n">
-        <v>-22.19</v>
+        <v>-21.09</v>
       </c>
       <c r="BH115" t="n">
-        <v>1.75</v>
+        <v>4.01</v>
       </c>
       <c r="BI115" t="n">
-        <v>61.05</v>
+        <v>61.09</v>
       </c>
       <c r="BJ115" t="n">
-        <v>-2.94</v>
+        <v>-2.29</v>
       </c>
       <c r="BK115" t="n">
-        <v>-24.12</v>
+        <v>-22.98</v>
       </c>
       <c r="BL115" t="n">
-        <v>-2.98</v>
+        <v>-2.82</v>
       </c>
       <c r="BM115" t="n">
         <v>-77.28</v>
@@ -57841,37 +58771,37 @@
         <v>45474</v>
       </c>
       <c r="B116" t="n">
-        <v>32.07</v>
+        <v>31.35</v>
       </c>
       <c r="C116" t="n">
-        <v>5.32</v>
+        <v>5.64</v>
       </c>
       <c r="D116" t="n">
-        <v>11.77</v>
+        <v>12.05</v>
       </c>
       <c r="E116" t="n">
-        <v>45.37</v>
+        <v>49.25</v>
       </c>
       <c r="F116" t="n">
-        <v>13.28</v>
+        <v>14.18</v>
       </c>
       <c r="G116" t="n">
-        <v>23.95</v>
+        <v>24.55</v>
       </c>
       <c r="H116" t="n">
-        <v>5</v>
+        <v>6.76</v>
       </c>
       <c r="I116" t="n">
-        <v>22.42</v>
+        <v>22.74</v>
       </c>
       <c r="J116" t="n">
-        <v>2.03</v>
+        <v>6.37</v>
       </c>
       <c r="K116" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="L116" t="n">
-        <v>31.13</v>
+        <v>31.16</v>
       </c>
       <c r="M116" t="n">
         <v>11517.45</v>
@@ -57880,160 +58810,160 @@
         <v>-2.57</v>
       </c>
       <c r="O116" t="n">
-        <v>-46.62</v>
+        <v>-40.94</v>
       </c>
       <c r="P116" t="n">
         <v>3.17</v>
       </c>
       <c r="Q116" t="n">
-        <v>61.68</v>
+        <v>62.09</v>
       </c>
       <c r="R116" t="n">
-        <v>36.15</v>
+        <v>36.1</v>
       </c>
       <c r="S116" t="n">
         <v>-16.9</v>
       </c>
       <c r="T116" t="n">
-        <v>23.47</v>
+        <v>27.6</v>
       </c>
       <c r="U116" t="n">
-        <v>18.88</v>
+        <v>23.07</v>
       </c>
       <c r="V116" t="n">
-        <v>19.96</v>
+        <v>21.48</v>
       </c>
       <c r="W116" t="n">
-        <v>-7.85</v>
+        <v>-7.81</v>
       </c>
       <c r="X116" t="n">
-        <v>-23.23</v>
+        <v>-23.11</v>
       </c>
       <c r="Y116" t="n">
-        <v>-29.15</v>
+        <v>-29.26</v>
       </c>
       <c r="Z116" t="n">
         <v>-96.79</v>
       </c>
       <c r="AA116" t="n">
-        <v>15.15</v>
+        <v>8.49</v>
       </c>
       <c r="AB116" t="n">
-        <v>33.8</v>
+        <v>33.78</v>
       </c>
       <c r="AC116" t="n">
         <v>-60.44</v>
       </c>
       <c r="AD116" t="n">
-        <v>36.24</v>
+        <v>36.29</v>
       </c>
       <c r="AE116" t="n">
-        <v>322.7</v>
+        <v>322.76</v>
       </c>
       <c r="AF116" t="n">
-        <v>-11.62</v>
+        <v>-9.81</v>
       </c>
       <c r="AG116" t="n">
-        <v>1.84</v>
+        <v>2.28</v>
       </c>
       <c r="AH116" t="n">
-        <v>23.92</v>
+        <v>23.97</v>
       </c>
       <c r="AI116" t="n">
-        <v>161.14</v>
+        <v>193.03</v>
       </c>
       <c r="AJ116" t="n">
-        <v>30.52</v>
+        <v>39.5</v>
       </c>
       <c r="AK116" t="n">
-        <v>-0.5</v>
+        <v>0.37</v>
       </c>
       <c r="AL116" t="n">
-        <v>-9.66</v>
+        <v>-8.37</v>
       </c>
       <c r="AM116" t="n">
-        <v>71.07</v>
+        <v>71.47</v>
       </c>
       <c r="AN116" t="n">
-        <v>13.99</v>
+        <v>13.85</v>
       </c>
       <c r="AO116" t="n">
-        <v>-1.79</v>
+        <v>1.2</v>
       </c>
       <c r="AP116" t="n">
-        <v>8.34</v>
+        <v>6.5</v>
       </c>
       <c r="AQ116" t="n">
-        <v>33.02</v>
+        <v>36.87</v>
       </c>
       <c r="AR116" t="n">
-        <v>12.63</v>
+        <v>15.35</v>
       </c>
       <c r="AS116" t="n">
-        <v>8.9</v>
+        <v>11.01</v>
       </c>
       <c r="AT116" t="n">
-        <v>11.33</v>
+        <v>19.64</v>
       </c>
       <c r="AU116" t="n">
-        <v>13.16</v>
+        <v>17.53</v>
       </c>
       <c r="AV116" t="n">
-        <v>-11.97</v>
+        <v>-12.33</v>
       </c>
       <c r="AW116" t="n">
-        <v>-6.07</v>
+        <v>-5.44</v>
       </c>
       <c r="AX116" t="n">
-        <v>-9.49</v>
+        <v>-9.62</v>
       </c>
       <c r="AY116" t="n">
-        <v>9.19</v>
+        <v>10.34</v>
       </c>
       <c r="AZ116" t="n">
-        <v>65.01</v>
+        <v>62.9</v>
       </c>
       <c r="BA116" t="n">
-        <v>28.74</v>
+        <v>27.57</v>
       </c>
       <c r="BB116" t="n">
-        <v>61.81</v>
+        <v>61.8</v>
       </c>
       <c r="BC116" t="n">
-        <v>-20.6</v>
+        <v>-21.46</v>
       </c>
       <c r="BD116" t="n">
-        <v>-4.13</v>
+        <v>-2.78</v>
       </c>
       <c r="BE116" t="n">
-        <v>26.9</v>
+        <v>26.66</v>
       </c>
       <c r="BF116" t="n">
-        <v>-5.54</v>
+        <v>-3.74</v>
       </c>
       <c r="BG116" t="n">
-        <v>-26.35</v>
+        <v>-14.63</v>
       </c>
       <c r="BH116" t="n">
-        <v>7.46</v>
+        <v>9.24</v>
       </c>
       <c r="BI116" t="n">
-        <v>10.43</v>
+        <v>5.43</v>
       </c>
       <c r="BJ116" t="n">
-        <v>35.26</v>
+        <v>35.66</v>
       </c>
       <c r="BK116" t="n">
-        <v>-5.86</v>
+        <v>-4.04</v>
       </c>
       <c r="BL116" t="n">
-        <v>19.52</v>
+        <v>19.82</v>
       </c>
       <c r="BM116" t="n">
-        <v>1692.41</v>
+        <v>1692.42</v>
       </c>
       <c r="BN116" t="n">
-        <v>1692.41</v>
+        <v>1692.42</v>
       </c>
     </row>
     <row r="117">
@@ -58041,37 +58971,37 @@
         <v>45505</v>
       </c>
       <c r="B117" t="n">
-        <v>25.4</v>
+        <v>25.08</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.19</v>
+        <v>-0.79</v>
       </c>
       <c r="D117" t="n">
-        <v>0.16</v>
+        <v>0.33</v>
       </c>
       <c r="E117" t="n">
-        <v>9.34</v>
+        <v>11.07</v>
       </c>
       <c r="F117" t="n">
-        <v>1.05</v>
+        <v>2.55</v>
       </c>
       <c r="G117" t="n">
-        <v>30.49</v>
+        <v>31.11</v>
       </c>
       <c r="H117" t="n">
-        <v>39.06</v>
+        <v>39.74</v>
       </c>
       <c r="I117" t="n">
-        <v>-8.41</v>
+        <v>-7.9</v>
       </c>
       <c r="J117" t="n">
-        <v>-6.58</v>
+        <v>-2.28</v>
       </c>
       <c r="K117" t="n">
         <v>21.67</v>
       </c>
       <c r="L117" t="n">
-        <v>28.22</v>
+        <v>28.29</v>
       </c>
       <c r="M117" t="n">
         <v>647.38</v>
@@ -58080,154 +59010,154 @@
         <v>-31.98</v>
       </c>
       <c r="O117" t="n">
-        <v>-78.75</v>
+        <v>-78.79</v>
       </c>
       <c r="P117" t="n">
         <v>2.11</v>
       </c>
       <c r="Q117" t="n">
-        <v>11.42</v>
+        <v>10.82</v>
       </c>
       <c r="R117" t="n">
-        <v>47.73</v>
+        <v>47.72</v>
       </c>
       <c r="S117" t="n">
-        <v>-14.7</v>
+        <v>-14.64</v>
       </c>
       <c r="T117" t="n">
-        <v>38.57</v>
+        <v>38.68</v>
       </c>
       <c r="U117" t="n">
-        <v>40.49</v>
+        <v>42.25</v>
       </c>
       <c r="V117" t="n">
-        <v>12.63</v>
+        <v>14.02</v>
       </c>
       <c r="W117" t="n">
-        <v>-15.66</v>
+        <v>-15.63</v>
       </c>
       <c r="X117" t="n">
-        <v>-8.17</v>
+        <v>-8.16</v>
       </c>
       <c r="Y117" t="n">
-        <v>29.15</v>
+        <v>29.24</v>
       </c>
       <c r="Z117" t="n">
         <v>-65.86</v>
       </c>
       <c r="AA117" t="n">
-        <v>16.58</v>
+        <v>11.82</v>
       </c>
       <c r="AB117" t="n">
-        <v>26.91</v>
+        <v>26.78</v>
       </c>
       <c r="AC117" t="n">
         <v>-97.56</v>
       </c>
       <c r="AD117" t="n">
-        <v>-10.58</v>
+        <v>-10.5</v>
       </c>
       <c r="AE117" t="n">
-        <v>-88.65</v>
+        <v>-88.64</v>
       </c>
       <c r="AF117" t="n">
-        <v>4.84</v>
+        <v>8.32</v>
       </c>
       <c r="AG117" t="n">
-        <v>19.81</v>
+        <v>19.92</v>
       </c>
       <c r="AH117" t="n">
-        <v>18.69</v>
+        <v>18.74</v>
       </c>
       <c r="AI117" t="n">
-        <v>100.25</v>
+        <v>132.66</v>
       </c>
       <c r="AJ117" t="n">
-        <v>10.3</v>
+        <v>16.42</v>
       </c>
       <c r="AK117" t="n">
-        <v>-19.98</v>
+        <v>-19.21</v>
       </c>
       <c r="AL117" t="n">
-        <v>-6.5</v>
+        <v>-5.22</v>
       </c>
       <c r="AM117" t="n">
-        <v>-4.6</v>
+        <v>-4.47</v>
       </c>
       <c r="AN117" t="n">
-        <v>-16.37</v>
+        <v>-16.79</v>
       </c>
       <c r="AO117" t="n">
-        <v>-14.25</v>
+        <v>-11.27</v>
       </c>
       <c r="AP117" t="n">
-        <v>-7.03</v>
+        <v>-8.6</v>
       </c>
       <c r="AQ117" t="n">
-        <v>4.04</v>
+        <v>7.7</v>
       </c>
       <c r="AR117" t="n">
-        <v>-2.27</v>
+        <v>-0.27</v>
       </c>
       <c r="AS117" t="n">
-        <v>21.84</v>
+        <v>21.6</v>
       </c>
       <c r="AT117" t="n">
-        <v>-25.1</v>
+        <v>-21.6</v>
       </c>
       <c r="AU117" t="n">
-        <v>3.21</v>
+        <v>1.67</v>
       </c>
       <c r="AV117" t="n">
-        <v>-31.69</v>
+        <v>-32.18</v>
       </c>
       <c r="AW117" t="n">
-        <v>46.95</v>
+        <v>48.09</v>
       </c>
       <c r="AX117" t="n">
-        <v>-35.33</v>
+        <v>-35.45</v>
       </c>
       <c r="AY117" t="n">
-        <v>26.57</v>
+        <v>27.3</v>
       </c>
       <c r="AZ117" t="n">
-        <v>10.36</v>
+        <v>10.4</v>
       </c>
       <c r="BA117" t="n">
-        <v>3.78</v>
+        <v>2.9</v>
       </c>
       <c r="BB117" t="n">
-        <v>63.56</v>
+        <v>63.58</v>
       </c>
       <c r="BC117" t="n">
-        <v>17.05</v>
+        <v>-1.7</v>
       </c>
       <c r="BD117" t="n">
         <v>-51.07</v>
       </c>
       <c r="BE117" t="n">
-        <v>17.46</v>
+        <v>16.68</v>
       </c>
       <c r="BF117" t="n">
-        <v>0.75</v>
+        <v>2.41</v>
       </c>
       <c r="BG117" t="n">
-        <v>-1.63</v>
+        <v>50.63</v>
       </c>
       <c r="BH117" t="n">
-        <v>-5.63</v>
+        <v>-2.48</v>
       </c>
       <c r="BI117" t="n">
-        <v>39.29</v>
+        <v>38.94</v>
       </c>
       <c r="BJ117" t="n">
-        <v>17.73</v>
+        <v>17.94</v>
       </c>
       <c r="BK117" t="n">
-        <v>-7.79</v>
+        <v>-7.2</v>
       </c>
       <c r="BL117" t="n">
-        <v>-5.1</v>
+        <v>-4.88</v>
       </c>
       <c r="BM117" t="n">
         <v>-74.19</v>
@@ -58241,37 +59171,37 @@
         <v>45536</v>
       </c>
       <c r="B118" t="n">
-        <v>-42.21</v>
+        <v>-41.98</v>
       </c>
       <c r="C118" t="n">
-        <v>4.25</v>
+        <v>4.76</v>
       </c>
       <c r="D118" t="n">
-        <v>9.33</v>
+        <v>9.34</v>
       </c>
       <c r="E118" t="n">
-        <v>-11.59</v>
+        <v>-10.26</v>
       </c>
       <c r="F118" t="n">
-        <v>18.15</v>
+        <v>19.2</v>
       </c>
       <c r="G118" t="n">
-        <v>37.41</v>
+        <v>40.47</v>
       </c>
       <c r="H118" t="n">
-        <v>5.1</v>
+        <v>5.45</v>
       </c>
       <c r="I118" t="n">
-        <v>29.82</v>
+        <v>30.04</v>
       </c>
       <c r="J118" t="n">
-        <v>15.24</v>
+        <v>18.46</v>
       </c>
       <c r="K118" t="n">
         <v>11.63</v>
       </c>
       <c r="L118" t="n">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="M118" t="n">
         <v>300.21</v>
@@ -58280,13 +59210,13 @@
         <v>5.74</v>
       </c>
       <c r="O118" t="n">
-        <v>-89.67</v>
+        <v>-89.95</v>
       </c>
       <c r="P118" t="n">
-        <v>-3</v>
+        <v>70.78</v>
       </c>
       <c r="Q118" t="n">
-        <v>21.39</v>
+        <v>20.9</v>
       </c>
       <c r="R118" t="n">
         <v>19.21</v>
@@ -58295,28 +59225,28 @@
         <v>-27.13</v>
       </c>
       <c r="T118" t="n">
-        <v>7.5</v>
+        <v>7.57</v>
       </c>
       <c r="U118" t="n">
-        <v>78.48</v>
+        <v>78.82</v>
       </c>
       <c r="V118" t="n">
-        <v>6.61</v>
+        <v>8.07</v>
       </c>
       <c r="W118" t="n">
-        <v>-10.43</v>
+        <v>-11.15</v>
       </c>
       <c r="X118" t="n">
-        <v>56.36</v>
+        <v>56.32</v>
       </c>
       <c r="Y118" t="n">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="Z118" t="n">
         <v>-44.65</v>
       </c>
       <c r="AA118" t="n">
-        <v>8.97</v>
+        <v>6.12</v>
       </c>
       <c r="AB118" t="n">
         <v>16.61</v>
@@ -58325,115 +59255,115 @@
         <v>-97.32</v>
       </c>
       <c r="AD118" t="n">
-        <v>37.24</v>
+        <v>37.29</v>
       </c>
       <c r="AE118" t="n">
-        <v>-82.39</v>
+        <v>-82.37</v>
       </c>
       <c r="AF118" t="n">
-        <v>-15.49</v>
+        <v>-13.09</v>
       </c>
       <c r="AG118" t="n">
-        <v>76.8</v>
+        <v>78.29</v>
       </c>
       <c r="AH118" t="n">
-        <v>13.21</v>
+        <v>13.25</v>
       </c>
       <c r="AI118" t="n">
-        <v>79.27</v>
+        <v>94.24</v>
       </c>
       <c r="AJ118" t="n">
-        <v>3.8</v>
+        <v>9.22</v>
       </c>
       <c r="AK118" t="n">
-        <v>-10.02</v>
+        <v>-9.97</v>
       </c>
       <c r="AL118" t="n">
-        <v>-16.27</v>
+        <v>-14.51</v>
       </c>
       <c r="AM118" t="n">
-        <v>20</v>
+        <v>20.28</v>
       </c>
       <c r="AN118" t="n">
-        <v>-18.99</v>
+        <v>-19.07</v>
       </c>
       <c r="AO118" t="n">
-        <v>4.57</v>
+        <v>11</v>
       </c>
       <c r="AP118" t="n">
-        <v>12.25</v>
+        <v>12.12</v>
       </c>
       <c r="AQ118" t="n">
-        <v>8.23</v>
+        <v>12.45</v>
       </c>
       <c r="AR118" t="n">
-        <v>-6.46</v>
+        <v>-5.61</v>
       </c>
       <c r="AS118" t="n">
-        <v>3.06</v>
+        <v>3.9</v>
       </c>
       <c r="AT118" t="n">
-        <v>14.36</v>
+        <v>19.75</v>
       </c>
       <c r="AU118" t="n">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="AV118" t="n">
-        <v>-40.62</v>
+        <v>-44.91</v>
       </c>
       <c r="AW118" t="n">
-        <v>45.94</v>
+        <v>45.66</v>
       </c>
       <c r="AX118" t="n">
-        <v>-27.7</v>
+        <v>-27.85</v>
       </c>
       <c r="AY118" t="n">
-        <v>-3.6</v>
+        <v>-3.15</v>
       </c>
       <c r="AZ118" t="n">
-        <v>12.24</v>
+        <v>12.21</v>
       </c>
       <c r="BA118" t="n">
-        <v>-1.04</v>
+        <v>-2.05</v>
       </c>
       <c r="BB118" t="n">
-        <v>40.22</v>
+        <v>40.24</v>
       </c>
       <c r="BC118" t="n">
-        <v>19.13</v>
+        <v>19.66</v>
       </c>
       <c r="BD118" t="n">
         <v>61.81</v>
       </c>
       <c r="BE118" t="n">
-        <v>-7.36</v>
+        <v>-7.95</v>
       </c>
       <c r="BF118" t="n">
-        <v>-9.62</v>
+        <v>-9.49</v>
       </c>
       <c r="BG118" t="n">
-        <v>-28.65</v>
+        <v>-26.9</v>
       </c>
       <c r="BH118" t="n">
-        <v>3.99</v>
+        <v>6.32</v>
       </c>
       <c r="BI118" t="n">
-        <v>21.32</v>
+        <v>20.68</v>
       </c>
       <c r="BJ118" t="n">
-        <v>10.77</v>
+        <v>11.09</v>
       </c>
       <c r="BK118" t="n">
-        <v>-5.59</v>
+        <v>-4.84</v>
       </c>
       <c r="BL118" t="n">
-        <v>14.31</v>
+        <v>14.63</v>
       </c>
       <c r="BM118" t="n">
-        <v>-3.11</v>
+        <v>-3.22</v>
       </c>
       <c r="BN118" t="n">
-        <v>-3.11</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="119">
@@ -58441,37 +59371,37 @@
         <v>45566</v>
       </c>
       <c r="B119" t="n">
-        <v>63.41</v>
+        <v>66.25</v>
       </c>
       <c r="C119" t="n">
-        <v>10.27</v>
+        <v>10.7</v>
       </c>
       <c r="D119" t="n">
-        <v>41.81</v>
+        <v>41.82</v>
       </c>
       <c r="E119" t="n">
-        <v>-17.3</v>
+        <v>-11.43</v>
       </c>
       <c r="F119" t="n">
-        <v>19.95</v>
+        <v>20.16</v>
       </c>
       <c r="G119" t="n">
-        <v>36.61</v>
+        <v>36.62</v>
       </c>
       <c r="H119" t="n">
-        <v>30.95</v>
+        <v>31.59</v>
       </c>
       <c r="I119" t="n">
-        <v>17.4</v>
+        <v>17.95</v>
       </c>
       <c r="J119" t="n">
-        <v>11.03</v>
+        <v>14.71</v>
       </c>
       <c r="K119" t="n">
-        <v>23.18</v>
+        <v>23.19</v>
       </c>
       <c r="L119" t="n">
-        <v>12.79</v>
+        <v>12.77</v>
       </c>
       <c r="M119" t="n">
         <v>-24.85</v>
@@ -58483,10 +59413,10 @@
         <v>-78.83</v>
       </c>
       <c r="P119" t="n">
-        <v>5.63</v>
+        <v>6.83</v>
       </c>
       <c r="Q119" t="n">
-        <v>20.4</v>
+        <v>19.23</v>
       </c>
       <c r="R119" t="n">
         <v>161.5</v>
@@ -58495,145 +59425,145 @@
         <v>-22.2</v>
       </c>
       <c r="T119" t="n">
-        <v>-0.21</v>
+        <v>-0.14</v>
       </c>
       <c r="U119" t="n">
-        <v>13.22</v>
+        <v>14.99</v>
       </c>
       <c r="V119" t="n">
-        <v>-1.43</v>
+        <v>0.39</v>
       </c>
       <c r="W119" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="X119" t="n">
-        <v>-83.98</v>
+        <v>-83.97</v>
       </c>
       <c r="Y119" t="n">
-        <v>-62.01</v>
+        <v>-62.05</v>
       </c>
       <c r="Z119" t="n">
         <v>208.66</v>
       </c>
       <c r="AA119" t="n">
-        <v>26.64</v>
+        <v>15.4</v>
       </c>
       <c r="AB119" t="n">
         <v>-1.65</v>
       </c>
       <c r="AC119" t="n">
-        <v>-0.99</v>
+        <v>-0.6</v>
       </c>
       <c r="AD119" t="n">
-        <v>-32.47</v>
+        <v>-32.21</v>
       </c>
       <c r="AE119" t="n">
-        <v>-47.21</v>
+        <v>-47.18</v>
       </c>
       <c r="AF119" t="n">
-        <v>35.44</v>
+        <v>36.86</v>
       </c>
       <c r="AG119" t="n">
-        <v>47.37</v>
+        <v>47.58</v>
       </c>
       <c r="AH119" t="n">
-        <v>24.55</v>
+        <v>24.6</v>
       </c>
       <c r="AI119" t="n">
-        <v>125.92</v>
+        <v>140.96</v>
       </c>
       <c r="AJ119" t="n">
-        <v>11.52</v>
+        <v>14.71</v>
       </c>
       <c r="AK119" t="n">
-        <v>8.76</v>
+        <v>10.73</v>
       </c>
       <c r="AL119" t="n">
-        <v>-7.23</v>
+        <v>-5.49</v>
       </c>
       <c r="AM119" t="n">
-        <v>30.11</v>
+        <v>30.13</v>
       </c>
       <c r="AN119" t="n">
-        <v>-22.6</v>
+        <v>-22.69</v>
       </c>
       <c r="AO119" t="n">
-        <v>1.66</v>
+        <v>7.82</v>
       </c>
       <c r="AP119" t="n">
-        <v>9.1</v>
+        <v>9.04</v>
       </c>
       <c r="AQ119" t="n">
-        <v>9.62</v>
+        <v>11.75</v>
       </c>
       <c r="AR119" t="n">
-        <v>2.33</v>
+        <v>3.37</v>
       </c>
       <c r="AS119" t="n">
-        <v>36.52</v>
+        <v>37.31</v>
       </c>
       <c r="AT119" t="n">
-        <v>-27.67</v>
+        <v>-26.75</v>
       </c>
       <c r="AU119" t="n">
-        <v>4.06</v>
+        <v>3.94</v>
       </c>
       <c r="AV119" t="n">
-        <v>110.22</v>
+        <v>109.21</v>
       </c>
       <c r="AW119" t="n">
-        <v>11.38</v>
+        <v>12.25</v>
       </c>
       <c r="AX119" t="n">
-        <v>5.93</v>
+        <v>6.63</v>
       </c>
       <c r="AY119" t="n">
-        <v>13.84</v>
+        <v>13.65</v>
       </c>
       <c r="AZ119" t="n">
-        <v>22.64</v>
+        <v>22.7</v>
       </c>
       <c r="BA119" t="n">
-        <v>46.9</v>
+        <v>39</v>
       </c>
       <c r="BB119" t="n">
-        <v>63.34</v>
+        <v>63.21</v>
       </c>
       <c r="BC119" t="n">
-        <v>-6.88</v>
+        <v>-7.25</v>
       </c>
       <c r="BD119" t="n">
         <v>-49.27</v>
       </c>
       <c r="BE119" t="n">
-        <v>63.12</v>
+        <v>62.91</v>
       </c>
       <c r="BF119" t="n">
-        <v>14.9</v>
+        <v>14.95</v>
       </c>
       <c r="BG119" t="n">
-        <v>32.08</v>
+        <v>35.05</v>
       </c>
       <c r="BH119" t="n">
-        <v>14.63</v>
+        <v>15.06</v>
       </c>
       <c r="BI119" t="n">
-        <v>67.6</v>
+        <v>67.08</v>
       </c>
       <c r="BJ119" t="n">
-        <v>3.82</v>
+        <v>4.22</v>
       </c>
       <c r="BK119" t="n">
-        <v>2.71</v>
+        <v>3.73</v>
       </c>
       <c r="BL119" t="n">
-        <v>20.63</v>
+        <v>21.04</v>
       </c>
       <c r="BM119" t="n">
-        <v>30.96</v>
+        <v>31.22</v>
       </c>
       <c r="BN119" t="n">
-        <v>30.96</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="120">
@@ -58641,37 +59571,37 @@
         <v>45597</v>
       </c>
       <c r="B120" t="n">
-        <v>-9.56</v>
+        <v>-7.84</v>
       </c>
       <c r="C120" t="n">
-        <v>5.17</v>
+        <v>5.3</v>
       </c>
       <c r="D120" t="n">
-        <v>27.05</v>
+        <v>28.65</v>
       </c>
       <c r="E120" t="n">
-        <v>11.13</v>
+        <v>12.22</v>
       </c>
       <c r="F120" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="G120" t="n">
-        <v>37.89</v>
+        <v>38.11</v>
       </c>
       <c r="H120" t="n">
-        <v>9.21</v>
+        <v>9.2</v>
       </c>
       <c r="I120" t="n">
         <v>-0.96</v>
       </c>
       <c r="J120" t="n">
-        <v>-3.79</v>
+        <v>-1.71</v>
       </c>
       <c r="K120" t="n">
-        <v>-17.39</v>
+        <v>-17.38</v>
       </c>
       <c r="L120" t="n">
-        <v>-15.56</v>
+        <v>-15.54</v>
       </c>
       <c r="M120" t="n">
         <v>-23.79</v>
@@ -58686,37 +59616,37 @@
         <v>51.9</v>
       </c>
       <c r="Q120" t="n">
-        <v>13.46</v>
+        <v>13.44</v>
       </c>
       <c r="R120" t="n">
         <v>12.24</v>
       </c>
       <c r="S120" t="n">
-        <v>-17.09</v>
+        <v>-17.1</v>
       </c>
       <c r="T120" t="n">
-        <v>14.64</v>
+        <v>14.19</v>
       </c>
       <c r="U120" t="n">
-        <v>149.57</v>
+        <v>158.54</v>
       </c>
       <c r="V120" t="n">
-        <v>18.28</v>
+        <v>20.11</v>
       </c>
       <c r="W120" t="n">
-        <v>-20.65</v>
+        <v>-20.48</v>
       </c>
       <c r="X120" t="n">
         <v>-85.72</v>
       </c>
       <c r="Y120" t="n">
-        <v>50.29</v>
+        <v>50.33</v>
       </c>
       <c r="Z120" t="n">
         <v>-16.41</v>
       </c>
       <c r="AA120" t="n">
-        <v>38.4</v>
+        <v>42.56</v>
       </c>
       <c r="AB120" t="n">
         <v>1.88</v>
@@ -58725,115 +59655,115 @@
         <v>20.52</v>
       </c>
       <c r="AD120" t="n">
-        <v>-36.12</v>
+        <v>-35.26</v>
       </c>
       <c r="AE120" t="n">
-        <v>-84.61</v>
+        <v>-84.6</v>
       </c>
       <c r="AF120" t="n">
-        <v>-8.63</v>
+        <v>-8.57</v>
       </c>
       <c r="AG120" t="n">
-        <v>62.77</v>
+        <v>63.28</v>
       </c>
       <c r="AH120" t="n">
-        <v>8.7</v>
+        <v>8.71</v>
       </c>
       <c r="AI120" t="n">
         <v>35.05</v>
       </c>
       <c r="AJ120" t="n">
-        <v>22.07</v>
+        <v>27.01</v>
       </c>
       <c r="AK120" t="n">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="AL120" t="n">
-        <v>-16.1</v>
+        <v>-14.45</v>
       </c>
       <c r="AM120" t="n">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="AN120" t="n">
         <v>1.28</v>
       </c>
       <c r="AO120" t="n">
-        <v>-5.78</v>
+        <v>-0.82</v>
       </c>
       <c r="AP120" t="n">
-        <v>9.28</v>
+        <v>9.27</v>
       </c>
       <c r="AQ120" t="n">
-        <v>16.76</v>
+        <v>18.48</v>
       </c>
       <c r="AR120" t="n">
-        <v>-12.17</v>
+        <v>-11.18</v>
       </c>
       <c r="AS120" t="n">
-        <v>29.12</v>
+        <v>29.26</v>
       </c>
       <c r="AT120" t="n">
-        <v>-45.96</v>
+        <v>-45.8</v>
       </c>
       <c r="AU120" t="n">
-        <v>-0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AV120" t="n">
-        <v>-11.19</v>
+        <v>-11.41</v>
       </c>
       <c r="AW120" t="n">
-        <v>44.27</v>
+        <v>45.07</v>
       </c>
       <c r="AX120" t="n">
-        <v>-5.84</v>
+        <v>-5.8</v>
       </c>
       <c r="AY120" t="n">
-        <v>-0.64</v>
+        <v>-4.64</v>
       </c>
       <c r="AZ120" t="n">
         <v>52.69</v>
       </c>
       <c r="BA120" t="n">
-        <v>6.37</v>
+        <v>5.71</v>
       </c>
       <c r="BB120" t="n">
-        <v>50.24</v>
+        <v>50.17</v>
       </c>
       <c r="BC120" t="n">
-        <v>-5.78</v>
+        <v>-5.65</v>
       </c>
       <c r="BD120" t="n">
         <v>137.66</v>
       </c>
       <c r="BE120" t="n">
-        <v>-0.48</v>
+        <v>-0.37</v>
       </c>
       <c r="BF120" t="n">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="BG120" t="n">
-        <v>-23.33</v>
+        <v>-22.29</v>
       </c>
       <c r="BH120" t="n">
-        <v>-5.8</v>
+        <v>-5.82</v>
       </c>
       <c r="BI120" t="n">
-        <v>22.46</v>
+        <v>22.47</v>
       </c>
       <c r="BJ120" t="n">
-        <v>2.73</v>
+        <v>3.3</v>
       </c>
       <c r="BK120" t="n">
-        <v>-7.31</v>
+        <v>-7.22</v>
       </c>
       <c r="BL120" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="BM120" t="n">
-        <v>3.1</v>
+        <v>26.74</v>
       </c>
       <c r="BN120" t="n">
-        <v>3.1</v>
+        <v>26.74</v>
       </c>
     </row>
     <row r="121">
@@ -59041,199 +59971,199 @@
         <v>45658</v>
       </c>
       <c r="B122" t="n">
-        <v>0.87</v>
+        <v>-0.03</v>
       </c>
       <c r="C122" t="n">
-        <v>6.32</v>
+        <v>10.07</v>
       </c>
       <c r="D122" t="n">
-        <v>37.15</v>
+        <v>33.27</v>
       </c>
       <c r="E122" t="n">
-        <v>-10.46</v>
+        <v>-5.19</v>
       </c>
       <c r="F122" t="n">
-        <v>-36.37</v>
+        <v>-2.22</v>
       </c>
       <c r="G122" t="n">
-        <v>18.37</v>
+        <v>23.79</v>
       </c>
       <c r="H122" t="n">
-        <v>-5.44</v>
+        <v>3.35</v>
       </c>
       <c r="I122" t="n">
-        <v>14.29</v>
+        <v>17.02</v>
       </c>
       <c r="J122" t="n">
-        <v>0.78</v>
+        <v>-6.74</v>
       </c>
       <c r="K122" t="n">
-        <v>22.15</v>
+        <v>23.13</v>
       </c>
       <c r="L122" t="n">
-        <v>5.48</v>
+        <v>7.35</v>
       </c>
       <c r="M122" t="n">
-        <v>165.98</v>
+        <v>182.1</v>
       </c>
       <c r="N122" t="n">
-        <v>-5.33</v>
+        <v>1.77</v>
       </c>
       <c r="O122" t="n">
-        <v>-28.78</v>
+        <v>-29.01</v>
       </c>
       <c r="P122" t="n">
-        <v>-64.08</v>
+        <v>-64.03</v>
       </c>
       <c r="Q122" t="n">
-        <v>37.95</v>
+        <v>34.75</v>
       </c>
       <c r="R122" t="n">
-        <v>3.67</v>
+        <v>1.43</v>
       </c>
       <c r="S122" t="n">
-        <v>5.58</v>
+        <v>6.64</v>
       </c>
       <c r="T122" t="n">
-        <v>35.04</v>
+        <v>47.17</v>
       </c>
       <c r="U122" t="n">
-        <v>134.98</v>
+        <v>146.77</v>
       </c>
       <c r="V122" t="n">
-        <v>-9.48</v>
+        <v>-7.14</v>
       </c>
       <c r="W122" t="n">
-        <v>-1.54</v>
+        <v>-2.12</v>
       </c>
       <c r="X122" t="n">
-        <v>23.56</v>
+        <v>-20.51</v>
       </c>
       <c r="Y122" t="n">
-        <v>2103.13</v>
+        <v>280.86</v>
       </c>
       <c r="Z122" t="n">
         <v>432.81</v>
       </c>
       <c r="AA122" t="n">
-        <v>-15.06</v>
+        <v>-19.65</v>
       </c>
       <c r="AB122" t="n">
-        <v>-15.71</v>
+        <v>-17.4</v>
       </c>
       <c r="AC122" t="n">
-        <v>-9.19</v>
+        <v>-11.21</v>
       </c>
       <c r="AD122" t="n">
-        <v>-34.35</v>
+        <v>-38.32</v>
       </c>
       <c r="AE122" t="n">
-        <v>-35.05</v>
+        <v>-34.53</v>
       </c>
       <c r="AF122" t="n">
-        <v>-13.3</v>
+        <v>-15.79</v>
       </c>
       <c r="AG122" t="n">
-        <v>83.78</v>
+        <v>72.57</v>
       </c>
       <c r="AH122" t="n">
-        <v>1.81</v>
+        <v>0.86</v>
       </c>
       <c r="AI122" t="n">
-        <v>291.07</v>
+        <v>300.22</v>
       </c>
       <c r="AJ122" t="n">
-        <v>15.78</v>
+        <v>18.53</v>
       </c>
       <c r="AK122" t="n">
-        <v>-11.5</v>
+        <v>-11.01</v>
       </c>
       <c r="AL122" t="n">
-        <v>10</v>
+        <v>7.88</v>
       </c>
       <c r="AM122" t="n">
-        <v>35.9</v>
+        <v>36.25</v>
       </c>
       <c r="AN122" t="n">
-        <v>18.06</v>
+        <v>14.65</v>
       </c>
       <c r="AO122" t="n">
-        <v>-12.82</v>
+        <v>-6.34</v>
       </c>
       <c r="AP122" t="n">
-        <v>-4.51</v>
+        <v>-6.99</v>
       </c>
       <c r="AQ122" t="n">
-        <v>39.78</v>
+        <v>30.66</v>
       </c>
       <c r="AR122" t="n">
-        <v>-20.04</v>
+        <v>-14.75</v>
       </c>
       <c r="AS122" t="n">
-        <v>-47.26</v>
+        <v>-47.69</v>
       </c>
       <c r="AT122" t="n">
-        <v>-18.74</v>
+        <v>-19.79</v>
       </c>
       <c r="AU122" t="n">
-        <v>-35.93</v>
+        <v>-35.15</v>
       </c>
       <c r="AV122" t="n">
-        <v>-23.73</v>
+        <v>-4.68</v>
       </c>
       <c r="AW122" t="n">
-        <v>5.66</v>
+        <v>-0.23</v>
       </c>
       <c r="AX122" t="n">
-        <v>9.1</v>
+        <v>9.19</v>
       </c>
       <c r="AY122" t="n">
-        <v>11.73</v>
+        <v>9.49</v>
       </c>
       <c r="AZ122" t="n">
-        <v>82.04</v>
+        <v>80.93</v>
       </c>
       <c r="BA122" t="n">
-        <v>19.29</v>
+        <v>9.48</v>
       </c>
       <c r="BB122" t="n">
-        <v>11.24</v>
+        <v>16.17</v>
       </c>
       <c r="BC122" t="n">
-        <v>-8.78</v>
+        <v>-10.77</v>
       </c>
       <c r="BD122" t="n">
-        <v>-39.21</v>
+        <v>-38.38</v>
       </c>
       <c r="BE122" t="n">
-        <v>40.85</v>
+        <v>77.48</v>
       </c>
       <c r="BF122" t="n">
-        <v>24.08</v>
+        <v>25.83</v>
       </c>
       <c r="BG122" t="n">
-        <v>-13.2</v>
+        <v>-15.1</v>
       </c>
       <c r="BH122" t="n">
-        <v>-2.63</v>
+        <v>-5.83</v>
       </c>
       <c r="BI122" t="n">
-        <v>-9.78</v>
+        <v>-9.1</v>
       </c>
       <c r="BJ122" t="n">
-        <v>-9.71</v>
+        <v>-7.62</v>
       </c>
       <c r="BK122" t="n">
-        <v>35.03</v>
+        <v>39.6</v>
       </c>
       <c r="BL122" t="n">
-        <v>25.09</v>
+        <v>26.18</v>
       </c>
       <c r="BM122" t="n">
-        <v>-66.5</v>
+        <v>88.22</v>
       </c>
       <c r="BN122" t="n">
-        <v>-66.5</v>
+        <v>88.22</v>
       </c>
     </row>
     <row r="123">
@@ -59241,199 +60171,199 @@
         <v>45689</v>
       </c>
       <c r="B123" t="n">
-        <v>54.07</v>
+        <v>54.58</v>
       </c>
       <c r="C123" t="n">
+        <v>10.98</v>
+      </c>
+      <c r="D123" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="E123" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-8.29</v>
+      </c>
+      <c r="G123" t="n">
+        <v>12.51</v>
+      </c>
+      <c r="H123" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J123" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="K123" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="L123" t="n">
         <v>12.21</v>
-      </c>
-      <c r="D123" t="n">
-        <v>24.14</v>
-      </c>
-      <c r="E123" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="F123" t="n">
-        <v>-7.71</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="H123" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J123" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="K123" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="L123" t="n">
-        <v>12.96</v>
       </c>
       <c r="M123" t="n">
         <v>34.44</v>
       </c>
       <c r="N123" t="n">
-        <v>-19.54</v>
+        <v>-21.56</v>
       </c>
       <c r="O123" t="n">
-        <v>320</v>
+        <v>313.98</v>
       </c>
       <c r="P123" t="n">
-        <v>50.17</v>
+        <v>48.74</v>
       </c>
       <c r="Q123" t="n">
-        <v>21.87</v>
+        <v>15.53</v>
       </c>
       <c r="R123" t="n">
-        <v>32.53</v>
+        <v>30.76</v>
       </c>
       <c r="S123" t="n">
-        <v>-18.76</v>
+        <v>-18.8</v>
       </c>
       <c r="T123" t="n">
-        <v>29.79</v>
+        <v>28.35</v>
       </c>
       <c r="U123" t="n">
-        <v>127</v>
+        <v>125.85</v>
       </c>
       <c r="V123" t="n">
-        <v>1.44</v>
+        <v>5.15</v>
       </c>
       <c r="W123" t="n">
-        <v>0.82</v>
+        <v>0.06</v>
       </c>
       <c r="X123" t="n">
-        <v>13.28</v>
+        <v>-72.53</v>
       </c>
       <c r="Y123" t="n">
-        <v>304.27</v>
+        <v>304.08</v>
       </c>
       <c r="Z123" t="n">
         <v>569.28</v>
       </c>
       <c r="AA123" t="n">
-        <v>28.03</v>
+        <v>29.79</v>
       </c>
       <c r="AB123" t="n">
-        <v>-17.26</v>
+        <v>-17.01</v>
       </c>
       <c r="AC123" t="n">
-        <v>196.51</v>
+        <v>124.1</v>
       </c>
       <c r="AD123" t="n">
-        <v>-38.72</v>
+        <v>-38.85</v>
       </c>
       <c r="AE123" t="n">
-        <v>-85.26</v>
+        <v>-85.38</v>
       </c>
       <c r="AF123" t="n">
-        <v>-2.51</v>
+        <v>-7.52</v>
       </c>
       <c r="AG123" t="n">
-        <v>154.88</v>
+        <v>153.36</v>
       </c>
       <c r="AH123" t="n">
-        <v>1.73</v>
+        <v>1</v>
       </c>
       <c r="AI123" t="n">
-        <v>172.52</v>
+        <v>184.1</v>
       </c>
       <c r="AJ123" t="n">
-        <v>-15.59</v>
+        <v>-14.5</v>
       </c>
       <c r="AK123" t="n">
-        <v>-2.17</v>
+        <v>-3.32</v>
       </c>
       <c r="AL123" t="n">
-        <v>-6.26</v>
+        <v>-6.79</v>
       </c>
       <c r="AM123" t="n">
-        <v>-24.59</v>
+        <v>-24.74</v>
       </c>
       <c r="AN123" t="n">
-        <v>-6.91</v>
+        <v>-13.19</v>
       </c>
       <c r="AO123" t="n">
-        <v>-14.69</v>
+        <v>-16.74</v>
       </c>
       <c r="AP123" t="n">
-        <v>1.19</v>
+        <v>-3.06</v>
       </c>
       <c r="AQ123" t="n">
-        <v>29.49</v>
+        <v>25.03</v>
       </c>
       <c r="AR123" t="n">
-        <v>-11.65</v>
+        <v>-15.74</v>
       </c>
       <c r="AS123" t="n">
-        <v>9.24</v>
+        <v>4.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>-17.76</v>
+        <v>-20.35</v>
       </c>
       <c r="AU123" t="n">
-        <v>10.92</v>
+        <v>8.8</v>
       </c>
       <c r="AV123" t="n">
-        <v>12.42</v>
+        <v>-2.45</v>
       </c>
       <c r="AW123" t="n">
-        <v>10.76</v>
+        <v>6.88</v>
       </c>
       <c r="AX123" t="n">
-        <v>-33.61</v>
+        <v>-34.59</v>
       </c>
       <c r="AY123" t="n">
-        <v>17.08</v>
+        <v>-1.23</v>
       </c>
       <c r="AZ123" t="n">
-        <v>47.48</v>
+        <v>44.44</v>
       </c>
       <c r="BA123" t="n">
-        <v>4.31</v>
+        <v>-1.56</v>
       </c>
       <c r="BB123" t="n">
-        <v>38.69</v>
+        <v>37.02</v>
       </c>
       <c r="BC123" t="n">
-        <v>-5.98</v>
+        <v>-8.84</v>
       </c>
       <c r="BD123" t="n">
-        <v>-46.6</v>
+        <v>-35.25</v>
       </c>
       <c r="BE123" t="n">
-        <v>7.43</v>
+        <v>15.27</v>
       </c>
       <c r="BF123" t="n">
-        <v>16.61</v>
+        <v>17.76</v>
       </c>
       <c r="BG123" t="n">
-        <v>-10.11</v>
+        <v>-9.45</v>
       </c>
       <c r="BH123" t="n">
-        <v>12.11</v>
+        <v>13.54</v>
       </c>
       <c r="BI123" t="n">
-        <v>4.33</v>
+        <v>3.67</v>
       </c>
       <c r="BJ123" t="n">
-        <v>-2.86</v>
+        <v>-3.51</v>
       </c>
       <c r="BK123" t="n">
-        <v>-7.03</v>
+        <v>-8.39</v>
       </c>
       <c r="BL123" t="n">
-        <v>4.61</v>
+        <v>3.05</v>
       </c>
       <c r="BM123" t="n">
-        <v>32.42</v>
+        <v>32.31</v>
       </c>
       <c r="BN123" t="n">
-        <v>32.42</v>
+        <v>32.31</v>
       </c>
     </row>
     <row r="124">
@@ -59441,199 +60371,199 @@
         <v>45717</v>
       </c>
       <c r="B124" t="n">
-        <v>6.99</v>
+        <v>17.7</v>
       </c>
       <c r="C124" t="n">
-        <v>12.72</v>
+        <v>9.16</v>
       </c>
       <c r="D124" t="n">
-        <v>43.26</v>
+        <v>40.33</v>
       </c>
       <c r="E124" t="n">
-        <v>35.99</v>
+        <v>45.58</v>
       </c>
       <c r="F124" t="n">
-        <v>0.83</v>
+        <v>-0.47</v>
       </c>
       <c r="G124" t="n">
-        <v>9.6</v>
+        <v>10.85</v>
       </c>
       <c r="H124" t="n">
-        <v>12.31</v>
+        <v>12.78</v>
       </c>
       <c r="I124" t="n">
-        <v>39.92</v>
+        <v>43.08</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.93</v>
+        <v>-5.76</v>
       </c>
       <c r="K124" t="n">
-        <v>5.66</v>
+        <v>2.27</v>
       </c>
       <c r="L124" t="n">
-        <v>-0.62</v>
+        <v>-1.31</v>
       </c>
       <c r="M124" t="n">
         <v>94.68</v>
       </c>
       <c r="N124" t="n">
-        <v>-16.58</v>
+        <v>-18.74</v>
       </c>
       <c r="O124" t="n">
-        <v>1594.29</v>
+        <v>1599.46</v>
       </c>
       <c r="P124" t="n">
         <v>198.77</v>
       </c>
       <c r="Q124" t="n">
-        <v>31.89</v>
+        <v>32.54</v>
       </c>
       <c r="R124" t="n">
-        <v>21.68</v>
+        <v>21.51</v>
       </c>
       <c r="S124" t="n">
-        <v>-15.23</v>
+        <v>-15.15</v>
       </c>
       <c r="T124" t="n">
-        <v>14.73</v>
+        <v>16.72</v>
       </c>
       <c r="U124" t="n">
-        <v>49.67</v>
+        <v>45.92</v>
       </c>
       <c r="V124" t="n">
-        <v>-2.48</v>
+        <v>1.42</v>
       </c>
       <c r="W124" t="n">
-        <v>1.97</v>
+        <v>1.73</v>
       </c>
       <c r="X124" t="n">
-        <v>-39.48</v>
+        <v>-88.5</v>
       </c>
       <c r="Y124" t="n">
-        <v>175.99</v>
+        <v>175.73</v>
       </c>
       <c r="Z124" t="n">
         <v>32.69</v>
       </c>
       <c r="AA124" t="n">
-        <v>20.07</v>
+        <v>4.03</v>
       </c>
       <c r="AB124" t="n">
-        <v>15.68</v>
+        <v>11.67</v>
       </c>
       <c r="AC124" t="n">
-        <v>314.93</v>
+        <v>297.8</v>
       </c>
       <c r="AD124" t="n">
-        <v>48.73</v>
+        <v>45.23</v>
       </c>
       <c r="AE124" t="n">
-        <v>-92.18</v>
+        <v>-92.41</v>
       </c>
       <c r="AF124" t="n">
-        <v>8.11</v>
+        <v>8.21</v>
       </c>
       <c r="AG124" t="n">
-        <v>244.52</v>
+        <v>242.22</v>
       </c>
       <c r="AH124" t="n">
-        <v>10.48</v>
+        <v>8.41</v>
       </c>
       <c r="AI124" t="n">
-        <v>8.8</v>
+        <v>14.8</v>
       </c>
       <c r="AJ124" t="n">
-        <v>16.2</v>
+        <v>16.34</v>
       </c>
       <c r="AK124" t="n">
-        <v>13.57</v>
+        <v>13.05</v>
       </c>
       <c r="AL124" t="n">
-        <v>1.86</v>
+        <v>0.12</v>
       </c>
       <c r="AM124" t="n">
-        <v>27.8</v>
+        <v>26.99</v>
       </c>
       <c r="AN124" t="n">
-        <v>28.93</v>
+        <v>9.43</v>
       </c>
       <c r="AO124" t="n">
-        <v>-0.45</v>
+        <v>-3.56</v>
       </c>
       <c r="AP124" t="n">
-        <v>-2.68</v>
+        <v>-4.82</v>
       </c>
       <c r="AQ124" t="n">
-        <v>21.53</v>
+        <v>18.77</v>
       </c>
       <c r="AR124" t="n">
-        <v>1.36</v>
+        <v>-4.37</v>
       </c>
       <c r="AS124" t="n">
-        <v>11.66</v>
+        <v>-3.03</v>
       </c>
       <c r="AT124" t="n">
-        <v>-3.07</v>
+        <v>-4.58</v>
       </c>
       <c r="AU124" t="n">
-        <v>9.3</v>
+        <v>6.77</v>
       </c>
       <c r="AV124" t="n">
-        <v>24.25</v>
+        <v>3.33</v>
       </c>
       <c r="AW124" t="n">
-        <v>61.54</v>
+        <v>61.15</v>
       </c>
       <c r="AX124" t="n">
-        <v>-5.02</v>
+        <v>-4.49</v>
       </c>
       <c r="AY124" t="n">
-        <v>23.35</v>
+        <v>1.12</v>
       </c>
       <c r="AZ124" t="n">
-        <v>92.78</v>
+        <v>84.79</v>
       </c>
       <c r="BA124" t="n">
-        <v>2.28</v>
+        <v>-3.85</v>
       </c>
       <c r="BB124" t="n">
-        <v>14.03</v>
+        <v>11.96</v>
       </c>
       <c r="BC124" t="n">
-        <v>-13.71</v>
+        <v>-13.51</v>
       </c>
       <c r="BD124" t="n">
-        <v>-17.65</v>
+        <v>-17.59</v>
       </c>
       <c r="BE124" t="n">
-        <v>-1.59</v>
+        <v>-2.42</v>
       </c>
       <c r="BF124" t="n">
-        <v>27.34</v>
+        <v>26.38</v>
       </c>
       <c r="BG124" t="n">
-        <v>5.59</v>
+        <v>7.09</v>
       </c>
       <c r="BH124" t="n">
-        <v>15.78</v>
+        <v>14.69</v>
       </c>
       <c r="BI124" t="n">
-        <v>66.34</v>
+        <v>55.65</v>
       </c>
       <c r="BJ124" t="n">
-        <v>-3.52</v>
+        <v>-4.23</v>
       </c>
       <c r="BK124" t="n">
-        <v>2.74</v>
+        <v>-1.18</v>
       </c>
       <c r="BL124" t="n">
-        <v>13.06</v>
+        <v>12.6</v>
       </c>
       <c r="BM124" t="n">
-        <v>-11.77</v>
+        <v>-11.47</v>
       </c>
       <c r="BN124" t="n">
-        <v>-11.77</v>
+        <v>-11.47</v>
       </c>
     </row>
     <row r="125">
@@ -59821,7 +60751,7 @@
         <v>9.85</v>
       </c>
       <c r="BJ125" t="n">
-        <v>6.67</v>
+        <v>6.68</v>
       </c>
       <c r="BK125" t="n">
         <v>6.62</v>
@@ -60027,7 +60957,7 @@
         <v>4.04</v>
       </c>
       <c r="BL126" t="n">
-        <v>-4.25</v>
+        <v>-4.26</v>
       </c>
       <c r="BM126" t="n">
         <v>6.3</v>
@@ -60041,199 +60971,799 @@
         <v>45809</v>
       </c>
       <c r="B127" t="n">
-        <v>9.52</v>
+        <v>8.16</v>
       </c>
       <c r="C127" t="n">
-        <v>28.32</v>
+        <v>28.23</v>
       </c>
       <c r="D127" t="n">
-        <v>23.8</v>
+        <v>24.08</v>
       </c>
       <c r="E127" t="n">
-        <v>27.81</v>
+        <v>21.89</v>
       </c>
       <c r="F127" t="n">
-        <v>-0.08</v>
+        <v>0.86</v>
       </c>
       <c r="G127" t="n">
-        <v>32.51</v>
+        <v>30.82</v>
       </c>
       <c r="H127" t="n">
-        <v>10.68</v>
+        <v>10.85</v>
       </c>
       <c r="I127" t="n">
-        <v>28.06</v>
+        <v>27.5</v>
       </c>
       <c r="J127" t="n">
-        <v>10.06</v>
+        <v>7.67</v>
       </c>
       <c r="K127" t="n">
-        <v>4.84</v>
+        <v>4.66</v>
       </c>
       <c r="L127" t="n">
-        <v>6.56</v>
+        <v>6.81</v>
       </c>
       <c r="M127" t="n">
         <v>51.13</v>
       </c>
       <c r="N127" t="n">
-        <v>-14</v>
+        <v>-15.74</v>
       </c>
       <c r="O127" t="n">
-        <v>84.66</v>
+        <v>6.43</v>
       </c>
       <c r="P127" t="n">
         <v>8.75</v>
       </c>
       <c r="Q127" t="n">
-        <v>21.33</v>
+        <v>17.6</v>
       </c>
       <c r="R127" t="n">
-        <v>-0.92</v>
+        <v>-1.06</v>
       </c>
       <c r="S127" t="n">
-        <v>-18.77</v>
+        <v>-18.92</v>
       </c>
       <c r="T127" t="n">
-        <v>31.21</v>
+        <v>27.39</v>
       </c>
       <c r="U127" t="n">
-        <v>25.81</v>
+        <v>29.21</v>
       </c>
       <c r="V127" t="n">
-        <v>24.17</v>
+        <v>24.31</v>
       </c>
       <c r="W127" t="n">
-        <v>146.47</v>
+        <v>42.55</v>
       </c>
       <c r="X127" t="n">
-        <v>120.56</v>
+        <v>107.63</v>
       </c>
       <c r="Y127" t="n">
-        <v>-84.23</v>
+        <v>-78.79</v>
       </c>
       <c r="Z127" t="n">
         <v>274.29</v>
       </c>
       <c r="AA127" t="n">
-        <v>18.85</v>
+        <v>16.15</v>
       </c>
       <c r="AB127" t="n">
-        <v>26.54</v>
+        <v>25.32</v>
       </c>
       <c r="AC127" t="n">
-        <v>399.2</v>
+        <v>347</v>
       </c>
       <c r="AD127" t="n">
-        <v>-29.91</v>
+        <v>-30.18</v>
       </c>
       <c r="AE127" t="n">
-        <v>-31.11</v>
+        <v>-31.77</v>
       </c>
       <c r="AF127" t="n">
-        <v>3.99</v>
+        <v>3.62</v>
       </c>
       <c r="AG127" t="n">
-        <v>8.88</v>
+        <v>8.48</v>
       </c>
       <c r="AH127" t="n">
-        <v>-6.07</v>
+        <v>-6.11</v>
       </c>
       <c r="AI127" t="n">
-        <v>40.39</v>
+        <v>39.05</v>
       </c>
       <c r="AJ127" t="n">
-        <v>8.24</v>
+        <v>3.79</v>
       </c>
       <c r="AK127" t="n">
-        <v>39.8</v>
+        <v>38.42</v>
       </c>
       <c r="AL127" t="n">
-        <v>7.72</v>
+        <v>-2.95</v>
       </c>
       <c r="AM127" t="n">
-        <v>-53.82</v>
+        <v>-53.85</v>
       </c>
       <c r="AN127" t="n">
-        <v>13.01</v>
+        <v>12.88</v>
       </c>
       <c r="AO127" t="n">
-        <v>-1.55</v>
+        <v>-4.65</v>
       </c>
       <c r="AP127" t="n">
-        <v>-1.03</v>
+        <v>-1.54</v>
       </c>
       <c r="AQ127" t="n">
-        <v>5.3</v>
+        <v>3.89</v>
       </c>
       <c r="AR127" t="n">
-        <v>-5.09</v>
+        <v>-9.02</v>
       </c>
       <c r="AS127" t="n">
-        <v>-3.96</v>
+        <v>-3.72</v>
       </c>
       <c r="AT127" t="n">
-        <v>-21.96</v>
+        <v>-20.11</v>
       </c>
       <c r="AU127" t="n">
-        <v>-1.4</v>
+        <v>-5</v>
       </c>
       <c r="AV127" t="n">
-        <v>-40.02</v>
+        <v>-28.36</v>
       </c>
       <c r="AW127" t="n">
-        <v>-45.53</v>
+        <v>-46.22</v>
       </c>
       <c r="AX127" t="n">
-        <v>-24.38</v>
+        <v>-22.82</v>
       </c>
       <c r="AY127" t="n">
-        <v>26.24</v>
+        <v>25.68</v>
       </c>
       <c r="AZ127" t="n">
-        <v>204.45</v>
+        <v>118.23</v>
       </c>
       <c r="BA127" t="n">
-        <v>48.2</v>
+        <v>46.21</v>
       </c>
       <c r="BB127" t="n">
         <v>1.05</v>
       </c>
       <c r="BC127" t="n">
-        <v>17.76</v>
+        <v>14.98</v>
       </c>
       <c r="BD127" t="n">
-        <v>-15.73</v>
+        <v>30.65</v>
       </c>
       <c r="BE127" t="n">
-        <v>7.33</v>
+        <v>6.7</v>
       </c>
       <c r="BF127" t="n">
-        <v>22.86</v>
+        <v>21.53</v>
       </c>
       <c r="BG127" t="n">
-        <v>1.93</v>
+        <v>-1.38</v>
       </c>
       <c r="BH127" t="n">
-        <v>1.08</v>
+        <v>0.47</v>
       </c>
       <c r="BI127" t="n">
-        <v>-19.9</v>
+        <v>-23.86</v>
       </c>
       <c r="BJ127" t="n">
-        <v>5.27</v>
+        <v>0.98</v>
       </c>
       <c r="BK127" t="n">
-        <v>26.57</v>
+        <v>25.8</v>
       </c>
       <c r="BL127" t="n">
-        <v>-4.93</v>
+        <v>-5.18</v>
       </c>
       <c r="BM127" t="n">
-        <v>-41.97</v>
+        <v>-41.5</v>
       </c>
       <c r="BN127" t="n">
-        <v>-41.97</v>
+        <v>-41.5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B128" t="n">
+        <v>-11.62</v>
+      </c>
+      <c r="C128" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="D128" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>-15.56</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-5.98</v>
+      </c>
+      <c r="G128" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="H128" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="K128" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="L128" t="n">
+        <v>-1.69</v>
+      </c>
+      <c r="M128" t="n">
+        <v>77.22</v>
+      </c>
+      <c r="N128" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-29.06</v>
+      </c>
+      <c r="P128" t="n">
+        <v>123.33</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>-25.86</v>
+      </c>
+      <c r="R128" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="S128" t="n">
+        <v>8.54</v>
+      </c>
+      <c r="T128" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U128" t="n">
+        <v>-17.45</v>
+      </c>
+      <c r="V128" t="n">
+        <v>-5.91</v>
+      </c>
+      <c r="W128" t="n">
+        <v>14.23</v>
+      </c>
+      <c r="X128" t="n">
+        <v>130.75</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>118.61</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>4095.55</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>-10.46</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>27.62</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>1295.12</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>-47.4</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>-92.39</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>-2.43</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>-20.35</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>-12.13</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>-17.76</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>-25.34</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>-2.07</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>-14.22</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>-8.12</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>-6.24</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>-34.29</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>110.03</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>-5.07</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>33.08</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>-26.73</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>-5.18</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>-12.02</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>-8.75</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>-70.1</v>
+      </c>
+      <c r="BN128" t="n">
+        <v>-70.1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B129" t="n">
+        <v>-17.17</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D129" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-3.57</v>
+      </c>
+      <c r="I129" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="K129" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="L129" t="n">
+        <v>-13.08</v>
+      </c>
+      <c r="M129" t="n">
+        <v>287.19</v>
+      </c>
+      <c r="N129" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P129" t="n">
+        <v>90.9</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>8.61</v>
+      </c>
+      <c r="R129" t="n">
+        <v>-14.22</v>
+      </c>
+      <c r="S129" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="T129" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="U129" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="V129" t="n">
+        <v>-14.19</v>
+      </c>
+      <c r="W129" t="n">
+        <v>-3.57</v>
+      </c>
+      <c r="X129" t="n">
+        <v>-8.93</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1434.82</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>-17.7</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1791.02</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>35.71</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>219.52</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>-8.29</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>-20.49</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>-33.48</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>45.81</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>-21.25</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>-12.17</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>-14.62</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>95.56</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>45.48</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>14.73</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>-10.66</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>-13.68</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>-10.03</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>-11.07</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>-47.61</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>-7.14</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>65.57</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>-26.03</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>-9.01</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>-37.94</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>-30.38</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>-14.09</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>-45.16</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>-18.36</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>-4.85</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>-15.29</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>44.77</v>
+      </c>
+      <c r="BN129" t="n">
+        <v>44.77</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B130" t="n">
+        <v>93.35</v>
+      </c>
+      <c r="C130" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="D130" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="E130" t="n">
+        <v>35.84</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-6.19</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-4.83</v>
+      </c>
+      <c r="H130" t="n">
+        <v>16.58</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-3.12</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L130" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="M130" t="n">
+        <v>701.06</v>
+      </c>
+      <c r="N130" t="n">
+        <v>-27.54</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-28.86</v>
+      </c>
+      <c r="P130" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>25.34</v>
+      </c>
+      <c r="R130" t="n">
+        <v>4</v>
+      </c>
+      <c r="S130" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="T130" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="U130" t="n">
+        <v>-9</v>
+      </c>
+      <c r="V130" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="X130" t="n">
+        <v>-26.76</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>101.59</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>8.96</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>-28.25</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1673.16</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>-70.65</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>73.59</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>-23.84</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>21.52</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>43.51</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>31.34</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>10.87</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>88.58</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>46.11</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>-46.72</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>-20.58</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>222.18</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>-19.57</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>29.55</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>-22.76</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>-68.15</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>25</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>8.13</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>-8.42</v>
+      </c>
+      <c r="BN130" t="n">
+        <v>-8.42</v>
       </c>
     </row>
   </sheetData>
@@ -62486,7 +64016,7 @@
         <v>45292</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25</v>
+        <v>0.07</v>
       </c>
       <c r="C98" t="n">
         <v>0.86</v>
@@ -62601,22 +64131,22 @@
         <v>45444</v>
       </c>
       <c r="B103" t="n">
-        <v>-0.4</v>
+        <v>-0.37</v>
       </c>
       <c r="C103" t="n">
         <v>1.96</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.96</v>
+        <v>-8.85</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.36</v>
+        <v>-0.38</v>
       </c>
       <c r="F103" t="n">
         <v>-0.13</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.05</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="104">
@@ -62624,22 +64154,22 @@
         <v>45474</v>
       </c>
       <c r="B104" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="C104" t="n">
         <v>2.42</v>
       </c>
       <c r="D104" t="n">
-        <v>7.45</v>
+        <v>7.72</v>
       </c>
       <c r="E104" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="F104" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="G104" t="n">
-        <v>2.89</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="105">
@@ -62647,22 +64177,22 @@
         <v>45505</v>
       </c>
       <c r="B105" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="C105" t="n">
         <v>2.46</v>
       </c>
       <c r="D105" t="n">
-        <v>6.77</v>
+        <v>6.88</v>
       </c>
       <c r="E105" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="G105" t="n">
-        <v>-2.3</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="106">
@@ -62670,22 +64200,22 @@
         <v>45536</v>
       </c>
       <c r="B106" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="C106" t="n">
         <v>1.81</v>
       </c>
       <c r="D106" t="n">
-        <v>34.98</v>
+        <v>35.62</v>
       </c>
       <c r="E106" t="n">
-        <v>-0.05</v>
+        <v>-0.11</v>
       </c>
       <c r="F106" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="G106" t="n">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="107">
@@ -62693,22 +64223,22 @@
         <v>45566</v>
       </c>
       <c r="B107" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="C107" t="n">
-        <v>2.43</v>
+        <v>2.42</v>
       </c>
       <c r="D107" t="n">
-        <v>16.24</v>
+        <v>16.43</v>
       </c>
       <c r="E107" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="F107" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="G107" t="n">
-        <v>-2.21</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="108">
@@ -62716,22 +64246,22 @@
         <v>45597</v>
       </c>
       <c r="B108" t="n">
-        <v>0.35</v>
+        <v>0.41</v>
       </c>
       <c r="C108" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="D108" t="n">
-        <v>21.63</v>
+        <v>21.99</v>
       </c>
       <c r="E108" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="F108" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G108" t="n">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="109">
@@ -62762,22 +64292,22 @@
         <v>45658</v>
       </c>
       <c r="B110" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="C110" t="n">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="D110" t="n">
-        <v>34.37</v>
+        <v>28.55</v>
       </c>
       <c r="E110" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="G110" t="n">
-        <v>-1.31</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="111">
@@ -62785,22 +64315,22 @@
         <v>45689</v>
       </c>
       <c r="B111" t="n">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="C111" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="D111" t="n">
-        <v>54.84</v>
+        <v>54.15</v>
       </c>
       <c r="E111" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="F111" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.07</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="112">
@@ -62808,22 +64338,22 @@
         <v>45717</v>
       </c>
       <c r="B112" t="n">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="C112" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="D112" t="n">
-        <v>95.22</v>
+        <v>93.64</v>
       </c>
       <c r="E112" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="F112" t="n">
-        <v>0.58</v>
+        <v>0.56</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.06</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="113">
@@ -62866,7 +64396,7 @@
         <v>1.84</v>
       </c>
       <c r="F114" t="n">
-        <v>-0.2</v>
+        <v>-0.21</v>
       </c>
       <c r="G114" t="n">
         <v>0.86</v>
@@ -62877,22 +64407,91 @@
         <v>45809</v>
       </c>
       <c r="B115" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="C115" t="n">
         <v>0.06</v>
       </c>
       <c r="D115" t="n">
-        <v>-1.07</v>
+        <v>-1.56</v>
       </c>
       <c r="E115" t="n">
-        <v>3.95</v>
+        <v>2.31</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.23</v>
+        <v>-0.25</v>
       </c>
       <c r="G115" t="n">
-        <v>0.48</v>
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-9.99</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-8.49</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D118" t="n">
+        <v>23.42</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1.14</v>
       </c>
     </row>
   </sheetData>
